--- a/5. Master_thesis/Datasets/Output_files/target.xlsx
+++ b/5. Master_thesis/Datasets/Output_files/target.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Projects\5. Master_thesis\Datasets\Output_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ECB179-D5C2-419A-B33F-900FF3B9A0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF5D06-40A9-4211-82CD-4F82FD5FFED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="2190" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Orders" sheetId="5" r:id="rId1"/>
-    <sheet name="TIV" sheetId="6" r:id="rId2"/>
+    <sheet name="FIN" sheetId="7" r:id="rId1"/>
+    <sheet name="DEN" sheetId="8" r:id="rId2"/>
+    <sheet name="NOR" sheetId="9" r:id="rId3"/>
+    <sheet name="SWE" sheetId="10" r:id="rId4"/>
+    <sheet name="Orders" sheetId="5" r:id="rId5"/>
+    <sheet name="TIV" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +51,12 @@
   </si>
   <si>
     <t>SWE</t>
+  </si>
+  <si>
+    <t>TIV</t>
+  </si>
+  <si>
+    <t>Orders</t>
   </si>
 </sst>
 </file>
@@ -112,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -122,6 +132,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,16 +473,9117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E205"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E597ED3B-5B59-473E-AF76-8EC577F5B4BF}">
+  <dimension ref="A1:C205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>38718</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1124</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>38749</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1079</v>
+      </c>
+      <c r="C3" s="4">
+        <v>12846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>38777</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1210</v>
+      </c>
+      <c r="C4" s="4">
+        <v>15165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>38808</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1147</v>
+      </c>
+      <c r="C5" s="4">
+        <v>13474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>38838</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="4">
+        <v>16516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>38869</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1087</v>
+      </c>
+      <c r="C7" s="4">
+        <v>16434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>38899</v>
+      </c>
+      <c r="B8" s="4">
+        <v>728</v>
+      </c>
+      <c r="C8" s="4">
+        <v>11667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>38930</v>
+      </c>
+      <c r="B9" s="4">
+        <v>605</v>
+      </c>
+      <c r="C9" s="4">
+        <v>12309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>38961</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1081</v>
+      </c>
+      <c r="C10" s="4">
+        <v>12934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>38991</v>
+      </c>
+      <c r="B11" s="4">
+        <v>786</v>
+      </c>
+      <c r="C11" s="4">
+        <v>12435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>39022</v>
+      </c>
+      <c r="B12" s="4">
+        <v>689</v>
+      </c>
+      <c r="C12" s="4">
+        <v>10273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>39052</v>
+      </c>
+      <c r="B13" s="4">
+        <v>715</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>39083</v>
+      </c>
+      <c r="B14" s="4">
+        <v>998</v>
+      </c>
+      <c r="C14" s="4">
+        <v>18852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>39114</v>
+      </c>
+      <c r="B15" s="4">
+        <v>638</v>
+      </c>
+      <c r="C15" s="4">
+        <v>11852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>39142</v>
+      </c>
+      <c r="B16" s="4">
+        <v>649</v>
+      </c>
+      <c r="C16" s="4">
+        <v>14387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>39173</v>
+      </c>
+      <c r="B17" s="4">
+        <v>753</v>
+      </c>
+      <c r="C17" s="4">
+        <v>13761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>39203</v>
+      </c>
+      <c r="B18" s="4">
+        <v>856</v>
+      </c>
+      <c r="C18" s="4">
+        <v>14922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>39234</v>
+      </c>
+      <c r="B19" s="4">
+        <v>825</v>
+      </c>
+      <c r="C19" s="4">
+        <v>13276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>39264</v>
+      </c>
+      <c r="B20" s="4">
+        <v>685</v>
+      </c>
+      <c r="C20" s="4">
+        <v>11555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>39295</v>
+      </c>
+      <c r="B21" s="4">
+        <v>755</v>
+      </c>
+      <c r="C21" s="4">
+        <v>12343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>39326</v>
+      </c>
+      <c r="B22" s="4">
+        <v>755</v>
+      </c>
+      <c r="C22" s="4">
+        <v>11169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>39356</v>
+      </c>
+      <c r="B23" s="4">
+        <v>640</v>
+      </c>
+      <c r="C23" s="4">
+        <v>12610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>39387</v>
+      </c>
+      <c r="B24" s="4">
+        <v>130</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>39417</v>
+      </c>
+      <c r="B25" s="4">
+        <v>155</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>39448</v>
+      </c>
+      <c r="B26" s="4">
+        <v>900</v>
+      </c>
+      <c r="C26" s="4">
+        <v>23532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>39479</v>
+      </c>
+      <c r="B27" s="4">
+        <v>609</v>
+      </c>
+      <c r="C27" s="4">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>39508</v>
+      </c>
+      <c r="B28" s="4">
+        <v>765</v>
+      </c>
+      <c r="C28" s="4">
+        <v>13995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>39539</v>
+      </c>
+      <c r="B29" s="4">
+        <v>638</v>
+      </c>
+      <c r="C29" s="4">
+        <v>17053</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>39569</v>
+      </c>
+      <c r="B30" s="4">
+        <v>799</v>
+      </c>
+      <c r="C30" s="4">
+        <v>15775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>39600</v>
+      </c>
+      <c r="B31" s="4">
+        <v>666</v>
+      </c>
+      <c r="C31" s="4">
+        <v>13442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>39630</v>
+      </c>
+      <c r="B32" s="4">
+        <v>574</v>
+      </c>
+      <c r="C32" s="4">
+        <v>12225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>39661</v>
+      </c>
+      <c r="B33" s="4">
+        <v>443</v>
+      </c>
+      <c r="C33" s="4">
+        <v>10668</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>39692</v>
+      </c>
+      <c r="B34" s="4">
+        <v>489</v>
+      </c>
+      <c r="C34" s="4">
+        <v>11082</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>39722</v>
+      </c>
+      <c r="B35" s="4">
+        <v>527</v>
+      </c>
+      <c r="C35" s="4">
+        <v>11357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>39753</v>
+      </c>
+      <c r="B36" s="4">
+        <v>235</v>
+      </c>
+      <c r="C36" s="4">
+        <v>7395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>39783</v>
+      </c>
+      <c r="B37" s="4">
+        <v>122</v>
+      </c>
+      <c r="C37" s="4">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>39814</v>
+      </c>
+      <c r="B38" s="4">
+        <v>508</v>
+      </c>
+      <c r="C38" s="4">
+        <v>12842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>39845</v>
+      </c>
+      <c r="B39" s="4">
+        <v>311</v>
+      </c>
+      <c r="C39" s="4">
+        <v>8011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39873</v>
+      </c>
+      <c r="B40" s="4">
+        <v>629</v>
+      </c>
+      <c r="C40" s="4">
+        <v>12286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>39904</v>
+      </c>
+      <c r="B41" s="4">
+        <v>294</v>
+      </c>
+      <c r="C41" s="4">
+        <v>7886</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>39934</v>
+      </c>
+      <c r="B42" s="4">
+        <v>306</v>
+      </c>
+      <c r="C42" s="4">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>39965</v>
+      </c>
+      <c r="B43" s="4">
+        <v>338</v>
+      </c>
+      <c r="C43" s="4">
+        <v>8502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>39995</v>
+      </c>
+      <c r="B44" s="4">
+        <v>319</v>
+      </c>
+      <c r="C44" s="4">
+        <v>7339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>40026</v>
+      </c>
+      <c r="B45" s="4">
+        <v>367</v>
+      </c>
+      <c r="C45" s="4">
+        <v>6637</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>40057</v>
+      </c>
+      <c r="B46" s="4">
+        <v>422</v>
+      </c>
+      <c r="C46" s="4">
+        <v>8235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>40087</v>
+      </c>
+      <c r="B47" s="4">
+        <v>352</v>
+      </c>
+      <c r="C47" s="4">
+        <v>8298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>40118</v>
+      </c>
+      <c r="B48" s="4">
+        <v>274</v>
+      </c>
+      <c r="C48" s="4">
+        <v>6809</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>40148</v>
+      </c>
+      <c r="B49" s="4">
+        <v>178</v>
+      </c>
+      <c r="C49" s="4">
+        <v>4653</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>40179</v>
+      </c>
+      <c r="B50" s="4">
+        <v>711</v>
+      </c>
+      <c r="C50" s="4">
+        <v>13258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>40210</v>
+      </c>
+      <c r="B51" s="4">
+        <v>519</v>
+      </c>
+      <c r="C51" s="4">
+        <v>8247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>40238</v>
+      </c>
+      <c r="B52" s="4">
+        <v>647</v>
+      </c>
+      <c r="C52" s="4">
+        <v>9950</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>40269</v>
+      </c>
+      <c r="B53" s="4">
+        <v>524</v>
+      </c>
+      <c r="C53" s="4">
+        <v>11221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>40299</v>
+      </c>
+      <c r="B54" s="4">
+        <v>608</v>
+      </c>
+      <c r="C54" s="4">
+        <v>11793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>40330</v>
+      </c>
+      <c r="B55" s="4">
+        <v>662</v>
+      </c>
+      <c r="C55" s="4">
+        <v>13308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>40360</v>
+      </c>
+      <c r="B56" s="4">
+        <v>468</v>
+      </c>
+      <c r="C56" s="4">
+        <v>7931</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>40391</v>
+      </c>
+      <c r="B57" s="4">
+        <v>532</v>
+      </c>
+      <c r="C57" s="4">
+        <v>9475</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>40422</v>
+      </c>
+      <c r="B58" s="4">
+        <v>561</v>
+      </c>
+      <c r="C58" s="4">
+        <v>10751</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>40452</v>
+      </c>
+      <c r="B59" s="4">
+        <v>662</v>
+      </c>
+      <c r="C59" s="4">
+        <v>10518</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>40483</v>
+      </c>
+      <c r="B60" s="4">
+        <v>503</v>
+      </c>
+      <c r="C60" s="4">
+        <v>9271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>40513</v>
+      </c>
+      <c r="B61" s="4">
+        <v>402</v>
+      </c>
+      <c r="C61" s="4">
+        <v>7310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>40544</v>
+      </c>
+      <c r="B62" s="4">
+        <v>901</v>
+      </c>
+      <c r="C62" s="4">
+        <v>15007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>40575</v>
+      </c>
+      <c r="B63" s="4">
+        <v>671</v>
+      </c>
+      <c r="C63" s="4">
+        <v>10279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>40603</v>
+      </c>
+      <c r="B64" s="4">
+        <v>917</v>
+      </c>
+      <c r="C64" s="4">
+        <v>13917</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>40634</v>
+      </c>
+      <c r="B65" s="4">
+        <v>785</v>
+      </c>
+      <c r="C65" s="4">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>40664</v>
+      </c>
+      <c r="B66" s="4">
+        <v>764</v>
+      </c>
+      <c r="C66" s="4">
+        <v>14206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>40695</v>
+      </c>
+      <c r="B67" s="4">
+        <v>645</v>
+      </c>
+      <c r="C67" s="4">
+        <v>12461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>40725</v>
+      </c>
+      <c r="B68" s="4">
+        <v>529</v>
+      </c>
+      <c r="C68" s="4">
+        <v>9483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>40756</v>
+      </c>
+      <c r="B69" s="4">
+        <v>690</v>
+      </c>
+      <c r="C69" s="4">
+        <v>11124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>40787</v>
+      </c>
+      <c r="B70" s="4">
+        <v>842</v>
+      </c>
+      <c r="C70" s="4">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>40817</v>
+      </c>
+      <c r="B71" s="4">
+        <v>632</v>
+      </c>
+      <c r="C71" s="4">
+        <v>11261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>40848</v>
+      </c>
+      <c r="B72" s="4">
+        <v>570</v>
+      </c>
+      <c r="C72" s="4">
+        <v>10408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>40878</v>
+      </c>
+      <c r="B73" s="4">
+        <v>405</v>
+      </c>
+      <c r="C73" s="4">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>40909</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1021</v>
+      </c>
+      <c r="C74" s="4">
+        <v>15526</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>40940</v>
+      </c>
+      <c r="B75" s="4">
+        <v>770</v>
+      </c>
+      <c r="C75" s="4">
+        <v>11863</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>40969</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1268</v>
+      </c>
+      <c r="C76" s="4">
+        <v>25619</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>41000</v>
+      </c>
+      <c r="B77" s="4">
+        <v>349</v>
+      </c>
+      <c r="C77" s="4">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>41030</v>
+      </c>
+      <c r="B78" s="4">
+        <v>413</v>
+      </c>
+      <c r="C78" s="4">
+        <v>7942</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>41061</v>
+      </c>
+      <c r="B79" s="4">
+        <v>473</v>
+      </c>
+      <c r="C79" s="4">
+        <v>8356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>41091</v>
+      </c>
+      <c r="B80" s="4">
+        <v>408</v>
+      </c>
+      <c r="C80" s="4">
+        <v>7097</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>41122</v>
+      </c>
+      <c r="B81" s="4">
+        <v>485</v>
+      </c>
+      <c r="C81" s="4">
+        <v>8438</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>41153</v>
+      </c>
+      <c r="B82" s="4">
+        <v>765</v>
+      </c>
+      <c r="C82" s="4">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B83" s="4">
+        <v>604</v>
+      </c>
+      <c r="C83" s="4">
+        <v>9040</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>41214</v>
+      </c>
+      <c r="B84" s="4">
+        <v>584</v>
+      </c>
+      <c r="C84" s="4">
+        <v>8518</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>41244</v>
+      </c>
+      <c r="B85" s="4">
+        <v>519</v>
+      </c>
+      <c r="C85" s="4">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>41275</v>
+      </c>
+      <c r="B86" s="4">
+        <v>648</v>
+      </c>
+      <c r="C86" s="4">
+        <v>11206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>41306</v>
+      </c>
+      <c r="B87" s="4">
+        <v>553</v>
+      </c>
+      <c r="C87" s="4">
+        <v>8655</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>41334</v>
+      </c>
+      <c r="B88" s="4">
+        <v>728</v>
+      </c>
+      <c r="C88" s="4">
+        <v>10320</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B89" s="4">
+        <v>456</v>
+      </c>
+      <c r="C89" s="4">
+        <v>10727</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>41395</v>
+      </c>
+      <c r="B90" s="4">
+        <v>609</v>
+      </c>
+      <c r="C90" s="4">
+        <v>11185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B91" s="4">
+        <v>465</v>
+      </c>
+      <c r="C91" s="4">
+        <v>9781</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B92" s="4">
+        <v>440</v>
+      </c>
+      <c r="C92" s="4">
+        <v>9275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>41487</v>
+      </c>
+      <c r="B93" s="4">
+        <v>518</v>
+      </c>
+      <c r="C93" s="4">
+        <v>8521</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>41518</v>
+      </c>
+      <c r="B94" s="4">
+        <v>559</v>
+      </c>
+      <c r="C94" s="4">
+        <v>9202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B95" s="4">
+        <v>657</v>
+      </c>
+      <c r="C95" s="4">
+        <v>9964</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B96" s="4">
+        <v>600</v>
+      </c>
+      <c r="C96" s="4">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B97" s="4">
+        <v>481</v>
+      </c>
+      <c r="C97" s="4">
+        <v>6733</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>41640</v>
+      </c>
+      <c r="B98" s="4">
+        <v>441</v>
+      </c>
+      <c r="C98" s="4">
+        <v>13688</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B99" s="4">
+        <v>653</v>
+      </c>
+      <c r="C99" s="4">
+        <v>9009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>41699</v>
+      </c>
+      <c r="B100" s="4">
+        <v>928</v>
+      </c>
+      <c r="C100" s="4">
+        <v>10482</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B101" s="4">
+        <v>527</v>
+      </c>
+      <c r="C101" s="4">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B102" s="4">
+        <v>602</v>
+      </c>
+      <c r="C102" s="4">
+        <v>10985</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B103" s="4">
+        <v>587</v>
+      </c>
+      <c r="C103" s="4">
+        <v>10141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>41821</v>
+      </c>
+      <c r="B104" s="4">
+        <v>511</v>
+      </c>
+      <c r="C104" s="4">
+        <v>8723</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B105" s="4">
+        <v>587</v>
+      </c>
+      <c r="C105" s="4">
+        <v>8415</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B106" s="4">
+        <v>612</v>
+      </c>
+      <c r="C106" s="4">
+        <v>9326</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B107" s="4">
+        <v>653</v>
+      </c>
+      <c r="C107" s="4">
+        <v>9803</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B108" s="4">
+        <v>578</v>
+      </c>
+      <c r="C108" s="4">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B109" s="4">
+        <v>650</v>
+      </c>
+      <c r="C109" s="4">
+        <v>7961</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B110" s="4">
+        <v>710</v>
+      </c>
+      <c r="C110" s="4">
+        <v>11216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B111" s="4">
+        <v>693</v>
+      </c>
+      <c r="C111" s="4">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1154</v>
+      </c>
+      <c r="C112" s="4">
+        <v>12160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B113" s="4">
+        <v>344</v>
+      </c>
+      <c r="C113" s="4">
+        <v>10590</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B114" s="4">
+        <v>562</v>
+      </c>
+      <c r="C114" s="4">
+        <v>10035</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>42156</v>
+      </c>
+      <c r="B115" s="4">
+        <v>656</v>
+      </c>
+      <c r="C115" s="4">
+        <v>9960</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B116" s="4">
+        <v>578</v>
+      </c>
+      <c r="C116" s="4">
+        <v>9455</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>42217</v>
+      </c>
+      <c r="B117" s="4">
+        <v>552</v>
+      </c>
+      <c r="C117" s="4">
+        <v>9353</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>42248</v>
+      </c>
+      <c r="B118" s="4">
+        <v>757</v>
+      </c>
+      <c r="C118" s="4">
+        <v>9463</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B119" s="4">
+        <v>699</v>
+      </c>
+      <c r="C119" s="4">
+        <v>10118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B120" s="4">
+        <v>486</v>
+      </c>
+      <c r="C120" s="4">
+        <v>9941</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B121" s="4">
+        <v>517</v>
+      </c>
+      <c r="C121" s="4">
+        <v>8936</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B122" s="4">
+        <v>689</v>
+      </c>
+      <c r="C122" s="4">
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B123" s="4">
+        <v>740</v>
+      </c>
+      <c r="C123" s="4">
+        <v>10628</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1089</v>
+      </c>
+      <c r="C124" s="4">
+        <v>12729</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B125" s="4">
+        <v>517</v>
+      </c>
+      <c r="C125" s="4">
+        <v>12262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B126" s="4">
+        <v>616</v>
+      </c>
+      <c r="C126" s="4">
+        <v>11583</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>42522</v>
+      </c>
+      <c r="B127" s="4">
+        <v>715</v>
+      </c>
+      <c r="C127" s="4">
+        <v>11942</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>42552</v>
+      </c>
+      <c r="B128" s="4">
+        <v>574</v>
+      </c>
+      <c r="C128" s="4">
+        <v>9117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>42583</v>
+      </c>
+      <c r="B129" s="4">
+        <v>647</v>
+      </c>
+      <c r="C129" s="4">
+        <v>10504</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>42614</v>
+      </c>
+      <c r="B130" s="4">
+        <v>830</v>
+      </c>
+      <c r="C130" s="4">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>42644</v>
+      </c>
+      <c r="B131" s="4">
+        <v>700</v>
+      </c>
+      <c r="C131" s="4">
+        <v>10182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>42675</v>
+      </c>
+      <c r="B132" s="4">
+        <v>613</v>
+      </c>
+      <c r="C132" s="4">
+        <v>10183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>42705</v>
+      </c>
+      <c r="B133" s="4">
+        <v>522</v>
+      </c>
+      <c r="C133" s="4">
+        <v>9489</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B134" s="4">
+        <v>709</v>
+      </c>
+      <c r="C134" s="4">
+        <v>14107</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>42767</v>
+      </c>
+      <c r="B135" s="4">
+        <v>730</v>
+      </c>
+      <c r="C135" s="4">
+        <v>10306</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B136" s="4">
+        <v>916</v>
+      </c>
+      <c r="C136" s="4">
+        <v>12629</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>42826</v>
+      </c>
+      <c r="B137" s="4">
+        <v>556</v>
+      </c>
+      <c r="C137" s="4">
+        <v>10559</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>42856</v>
+      </c>
+      <c r="B138" s="4">
+        <v>585</v>
+      </c>
+      <c r="C138" s="4">
+        <v>12316</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B139" s="4">
+        <v>469</v>
+      </c>
+      <c r="C139" s="4">
+        <v>12030</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>42917</v>
+      </c>
+      <c r="B140" s="4">
+        <v>506</v>
+      </c>
+      <c r="C140" s="4">
+        <v>9603</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B141" s="4">
+        <v>619</v>
+      </c>
+      <c r="C141" s="4">
+        <v>10817</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>42979</v>
+      </c>
+      <c r="B142" s="4">
+        <v>752</v>
+      </c>
+      <c r="C142" s="4">
+        <v>10446</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>43009</v>
+      </c>
+      <c r="B143" s="4">
+        <v>789</v>
+      </c>
+      <c r="C143" s="4">
+        <v>9754</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B144" s="4">
+        <v>697</v>
+      </c>
+      <c r="C144" s="4">
+        <v>11007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B145" s="4">
+        <v>608</v>
+      </c>
+      <c r="C145" s="4">
+        <v>9142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B146" s="4">
+        <v>666</v>
+      </c>
+      <c r="C146" s="4">
+        <v>14991</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B147" s="4">
+        <v>700</v>
+      </c>
+      <c r="C147" s="4">
+        <v>10189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B148" s="4">
+        <v>798</v>
+      </c>
+      <c r="C148" s="4">
+        <v>13104</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B149" s="4">
+        <v>521</v>
+      </c>
+      <c r="C149" s="4">
+        <v>12322</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B150" s="4">
+        <v>507</v>
+      </c>
+      <c r="C150" s="4">
+        <v>13855</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B151" s="4">
+        <v>696</v>
+      </c>
+      <c r="C151" s="4">
+        <v>12795</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>43282</v>
+      </c>
+      <c r="B152" s="4">
+        <v>675</v>
+      </c>
+      <c r="C152" s="4">
+        <v>10325</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B153" s="4">
+        <v>1107</v>
+      </c>
+      <c r="C153" s="4">
+        <v>12979</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B154" s="4">
+        <v>394</v>
+      </c>
+      <c r="C154" s="4">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B155" s="4">
+        <v>379</v>
+      </c>
+      <c r="C155" s="4">
+        <v>9167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B156" s="4">
+        <v>491</v>
+      </c>
+      <c r="C156" s="4">
+        <v>9860</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>43435</v>
+      </c>
+      <c r="B157" s="4">
+        <v>349</v>
+      </c>
+      <c r="C157" s="4">
+        <v>7233</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>43466</v>
+      </c>
+      <c r="B158" s="4">
+        <v>523</v>
+      </c>
+      <c r="C158" s="4">
+        <v>13143</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B159" s="4">
+        <v>520</v>
+      </c>
+      <c r="C159" s="4">
+        <v>9014</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B160" s="4">
+        <v>742</v>
+      </c>
+      <c r="C160" s="4">
+        <v>10530</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B161" s="4">
+        <v>484</v>
+      </c>
+      <c r="C161" s="4">
+        <v>10911</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B162" s="4">
+        <v>513</v>
+      </c>
+      <c r="C162" s="4">
+        <v>11934</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B163" s="4">
+        <v>519</v>
+      </c>
+      <c r="C163" s="4">
+        <v>11688</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B164" s="4">
+        <v>457</v>
+      </c>
+      <c r="C164" s="4">
+        <v>9933</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B165" s="4">
+        <v>543</v>
+      </c>
+      <c r="C165" s="4">
+        <v>11428</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>43709</v>
+      </c>
+      <c r="B166" s="4">
+        <v>484</v>
+      </c>
+      <c r="C166" s="4">
+        <v>9309</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B167" s="4">
+        <v>374</v>
+      </c>
+      <c r="C167" s="4">
+        <v>10379</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B168" s="4">
+        <v>379</v>
+      </c>
+      <c r="C168" s="4">
+        <v>9651</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B169" s="4">
+        <v>348</v>
+      </c>
+      <c r="C169" s="4">
+        <v>9302</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B170" s="4">
+        <v>493</v>
+      </c>
+      <c r="C170" s="4">
+        <v>11961</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B171" s="4">
+        <v>457</v>
+      </c>
+      <c r="C171" s="4">
+        <v>9136</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B172" s="4">
+        <v>325</v>
+      </c>
+      <c r="C172" s="4">
+        <v>10247</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B173" s="4">
+        <v>172</v>
+      </c>
+      <c r="C173" s="4">
+        <v>6784</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B174" s="4">
+        <v>151</v>
+      </c>
+      <c r="C174" s="4">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B175" s="4">
+        <v>259</v>
+      </c>
+      <c r="C175" s="4">
+        <v>8580</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B176" s="4">
+        <v>418</v>
+      </c>
+      <c r="C176" s="4">
+        <v>9598</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B177" s="4">
+        <v>367</v>
+      </c>
+      <c r="C177" s="4">
+        <v>9349</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B178" s="4">
+        <v>396</v>
+      </c>
+      <c r="C178" s="4">
+        <v>9438</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B179" s="4">
+        <v>362</v>
+      </c>
+      <c r="C179" s="4">
+        <v>8617</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B180" s="4">
+        <v>291</v>
+      </c>
+      <c r="C180" s="4">
+        <v>8369</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B181" s="4">
+        <v>286</v>
+      </c>
+      <c r="C181" s="4">
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B182" s="4">
+        <v>424</v>
+      </c>
+      <c r="C182" s="4">
+        <v>10572</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B183" s="4">
+        <v>333</v>
+      </c>
+      <c r="C183" s="4">
+        <v>8961</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B184" s="4">
+        <v>552</v>
+      </c>
+      <c r="C184" s="4">
+        <v>11633</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B185" s="4">
+        <v>313</v>
+      </c>
+      <c r="C185" s="4">
+        <v>9665</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B186" s="4">
+        <v>322</v>
+      </c>
+      <c r="C186" s="4">
+        <v>10754</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B187" s="4">
+        <v>257</v>
+      </c>
+      <c r="C187" s="4">
+        <v>10859</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B188" s="4">
+        <v>238</v>
+      </c>
+      <c r="C188" s="4">
+        <v>7905</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B189" s="4">
+        <v>256</v>
+      </c>
+      <c r="C189" s="4">
+        <v>8609</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B190" s="4">
+        <v>259</v>
+      </c>
+      <c r="C190" s="4">
+        <v>7462</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B191" s="4">
+        <v>178</v>
+      </c>
+      <c r="C191" s="4">
+        <v>7425</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B192" s="4">
+        <v>379</v>
+      </c>
+      <c r="C192" s="4">
+        <v>7477</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B193" s="4">
+        <v>256</v>
+      </c>
+      <c r="C193" s="4">
+        <v>7406</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B194" s="4">
+        <v>230</v>
+      </c>
+      <c r="C194" s="4">
+        <v>8788</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B195" s="4">
+        <v>222</v>
+      </c>
+      <c r="C195" s="4">
+        <v>7146</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B196" s="4">
+        <v>392</v>
+      </c>
+      <c r="C196" s="4">
+        <v>8454</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B197" s="4">
+        <v>316</v>
+      </c>
+      <c r="C197" s="4">
+        <v>7084</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B198" s="4">
+        <v>224</v>
+      </c>
+      <c r="C198" s="4">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B199" s="4">
+        <v>231</v>
+      </c>
+      <c r="C199" s="4">
+        <v>8095</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B200" s="4">
+        <v>118</v>
+      </c>
+      <c r="C200" s="4">
+        <v>5974</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B201" s="4">
+        <v>254</v>
+      </c>
+      <c r="C201" s="4">
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B202" s="4">
+        <v>228</v>
+      </c>
+      <c r="C202" s="4">
+        <v>7779</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B203" s="4">
+        <v>188</v>
+      </c>
+      <c r="C203" s="4">
+        <v>7026</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B204" s="4">
+        <v>204</v>
+      </c>
+      <c r="C204" s="4">
+        <v>7277</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B205" s="4">
+        <v>370</v>
+      </c>
+      <c r="C205" s="4">
+        <v>7204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E55DA5-97E5-436F-81B6-9ED67B03B73C}">
+  <dimension ref="A1:D205"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>38718</v>
+      </c>
+      <c r="B2" s="4">
+        <v>161</v>
+      </c>
+      <c r="C2" s="4">
+        <v>17226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>38749</v>
+      </c>
+      <c r="B3" s="4">
+        <v>250</v>
+      </c>
+      <c r="C3" s="4">
+        <v>16437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>38777</v>
+      </c>
+      <c r="B4" s="4">
+        <v>468</v>
+      </c>
+      <c r="C4" s="4">
+        <v>19476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>38808</v>
+      </c>
+      <c r="B5" s="4">
+        <v>412</v>
+      </c>
+      <c r="C5" s="4">
+        <v>18664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>38838</v>
+      </c>
+      <c r="B6" s="4">
+        <v>550</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>38869</v>
+      </c>
+      <c r="B7" s="4">
+        <v>441</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>38899</v>
+      </c>
+      <c r="B8" s="4">
+        <v>464</v>
+      </c>
+      <c r="C8" s="4">
+        <v>16967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>38930</v>
+      </c>
+      <c r="B9" s="4">
+        <v>416</v>
+      </c>
+      <c r="C9" s="4">
+        <v>17339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>38961</v>
+      </c>
+      <c r="B10" s="4">
+        <v>414</v>
+      </c>
+      <c r="C10" s="4">
+        <v>16737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>38991</v>
+      </c>
+      <c r="B11" s="4">
+        <v>471</v>
+      </c>
+      <c r="C11" s="4">
+        <v>18291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>39022</v>
+      </c>
+      <c r="B12" s="4">
+        <v>371</v>
+      </c>
+      <c r="C12" s="4">
+        <v>16827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>39052</v>
+      </c>
+      <c r="B13" s="4">
+        <v>477</v>
+      </c>
+      <c r="C13" s="4">
+        <v>17389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>39083</v>
+      </c>
+      <c r="B14" s="4">
+        <v>331</v>
+      </c>
+      <c r="C14" s="4">
+        <v>16779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>39114</v>
+      </c>
+      <c r="B15" s="4">
+        <v>299</v>
+      </c>
+      <c r="C15" s="4">
+        <v>15370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>39142</v>
+      </c>
+      <c r="B16" s="4">
+        <v>378</v>
+      </c>
+      <c r="C16" s="4">
+        <v>20470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>39173</v>
+      </c>
+      <c r="B17" s="4">
+        <v>267</v>
+      </c>
+      <c r="C17" s="4">
+        <v>19289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>39203</v>
+      </c>
+      <c r="B18" s="4">
+        <v>337</v>
+      </c>
+      <c r="C18" s="4">
+        <v>18697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>39234</v>
+      </c>
+      <c r="B19" s="4">
+        <v>445</v>
+      </c>
+      <c r="C19" s="4">
+        <v>19363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>39264</v>
+      </c>
+      <c r="B20" s="4">
+        <v>208</v>
+      </c>
+      <c r="C20" s="4">
+        <v>16289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>39295</v>
+      </c>
+      <c r="B21" s="4">
+        <v>319</v>
+      </c>
+      <c r="C21" s="4">
+        <v>16967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>39326</v>
+      </c>
+      <c r="B22" s="4">
+        <v>407</v>
+      </c>
+      <c r="C22" s="4">
+        <v>16901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>39356</v>
+      </c>
+      <c r="B23" s="4">
+        <v>451</v>
+      </c>
+      <c r="C23" s="4">
+        <v>18144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>39387</v>
+      </c>
+      <c r="B24" s="4">
+        <v>324</v>
+      </c>
+      <c r="C24" s="4">
+        <v>18980</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>39417</v>
+      </c>
+      <c r="B25" s="4">
+        <v>373</v>
+      </c>
+      <c r="C25" s="4">
+        <v>18313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>39448</v>
+      </c>
+      <c r="B26" s="4">
+        <v>401</v>
+      </c>
+      <c r="C26" s="4">
+        <v>17631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>39479</v>
+      </c>
+      <c r="B27" s="4">
+        <v>427</v>
+      </c>
+      <c r="C27" s="4">
+        <v>15947</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>39508</v>
+      </c>
+      <c r="B28" s="4">
+        <v>522</v>
+      </c>
+      <c r="C28" s="4">
+        <v>14829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>39539</v>
+      </c>
+      <c r="B29" s="4">
+        <v>333</v>
+      </c>
+      <c r="C29" s="4">
+        <v>19739</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>39569</v>
+      </c>
+      <c r="B30" s="4">
+        <v>375</v>
+      </c>
+      <c r="C30" s="4">
+        <v>17706</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>39600</v>
+      </c>
+      <c r="B31" s="4">
+        <v>522</v>
+      </c>
+      <c r="C31" s="4">
+        <v>18687</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>39630</v>
+      </c>
+      <c r="B32" s="4">
+        <v>351</v>
+      </c>
+      <c r="C32" s="4">
+        <v>15456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>39661</v>
+      </c>
+      <c r="B33" s="4">
+        <v>319</v>
+      </c>
+      <c r="C33" s="4">
+        <v>14078</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>39692</v>
+      </c>
+      <c r="B34" s="4">
+        <v>398</v>
+      </c>
+      <c r="C34" s="4">
+        <v>14848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>39722</v>
+      </c>
+      <c r="B35" s="4">
+        <v>389</v>
+      </c>
+      <c r="C35" s="4">
+        <v>13947</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>39753</v>
+      </c>
+      <c r="B36" s="4">
+        <v>343</v>
+      </c>
+      <c r="C36" s="4">
+        <v>10205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>39783</v>
+      </c>
+      <c r="B37" s="4">
+        <v>263</v>
+      </c>
+      <c r="C37" s="4">
+        <v>10614</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>39814</v>
+      </c>
+      <c r="B38" s="4">
+        <v>359</v>
+      </c>
+      <c r="C38" s="4">
+        <v>9047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>39845</v>
+      </c>
+      <c r="B39" s="4">
+        <v>482</v>
+      </c>
+      <c r="C39" s="4">
+        <v>8654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39873</v>
+      </c>
+      <c r="B40" s="4">
+        <v>383</v>
+      </c>
+      <c r="C40" s="4">
+        <v>11244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>39904</v>
+      </c>
+      <c r="B41" s="4">
+        <v>477</v>
+      </c>
+      <c r="C41" s="4">
+        <v>10254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>39934</v>
+      </c>
+      <c r="B42" s="4">
+        <v>323</v>
+      </c>
+      <c r="C42" s="4">
+        <v>10574</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>39965</v>
+      </c>
+      <c r="B43" s="4">
+        <v>374</v>
+      </c>
+      <c r="C43" s="4">
+        <v>12584</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>39995</v>
+      </c>
+      <c r="B44" s="4">
+        <v>306</v>
+      </c>
+      <c r="C44" s="4">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>40026</v>
+      </c>
+      <c r="B45" s="4">
+        <v>396</v>
+      </c>
+      <c r="C45" s="4">
+        <v>9037</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>40057</v>
+      </c>
+      <c r="B46" s="4">
+        <v>533</v>
+      </c>
+      <c r="C46" s="4">
+        <v>11226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>40087</v>
+      </c>
+      <c r="B47" s="4">
+        <v>374</v>
+      </c>
+      <c r="C47" s="4">
+        <v>10933</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>40118</v>
+      </c>
+      <c r="B48" s="4">
+        <v>409</v>
+      </c>
+      <c r="C48" s="4">
+        <v>10373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>40148</v>
+      </c>
+      <c r="B49" s="4">
+        <v>365</v>
+      </c>
+      <c r="C49" s="4">
+        <v>13283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>40179</v>
+      </c>
+      <c r="B50" s="4">
+        <v>435</v>
+      </c>
+      <c r="C50" s="4">
+        <v>11660</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>40210</v>
+      </c>
+      <c r="B51" s="4">
+        <v>391</v>
+      </c>
+      <c r="C51" s="4">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>40238</v>
+      </c>
+      <c r="B52" s="4">
+        <v>455</v>
+      </c>
+      <c r="C52" s="4">
+        <v>15234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>40269</v>
+      </c>
+      <c r="B53" s="4">
+        <v>347</v>
+      </c>
+      <c r="C53" s="4">
+        <v>13180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>40299</v>
+      </c>
+      <c r="B54" s="4">
+        <v>439</v>
+      </c>
+      <c r="C54" s="4">
+        <v>14005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>40330</v>
+      </c>
+      <c r="B55" s="4">
+        <v>449</v>
+      </c>
+      <c r="C55" s="4">
+        <v>17147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>40360</v>
+      </c>
+      <c r="B56" s="4">
+        <v>383</v>
+      </c>
+      <c r="C56" s="4">
+        <v>12606</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>40391</v>
+      </c>
+      <c r="B57" s="4">
+        <v>403</v>
+      </c>
+      <c r="C57" s="4">
+        <v>12919</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>40422</v>
+      </c>
+      <c r="B58" s="4">
+        <v>367</v>
+      </c>
+      <c r="C58" s="4">
+        <v>15078</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>40452</v>
+      </c>
+      <c r="B59" s="4">
+        <v>453</v>
+      </c>
+      <c r="C59" s="4">
+        <v>14894</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>40483</v>
+      </c>
+      <c r="B60" s="4">
+        <v>432</v>
+      </c>
+      <c r="C60" s="4">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>40513</v>
+      </c>
+      <c r="B61" s="4">
+        <v>434</v>
+      </c>
+      <c r="C61" s="4">
+        <v>17689</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>40544</v>
+      </c>
+      <c r="B62" s="4">
+        <v>420</v>
+      </c>
+      <c r="C62" s="4">
+        <v>13989</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>40575</v>
+      </c>
+      <c r="B63" s="4">
+        <v>482</v>
+      </c>
+      <c r="C63" s="4">
+        <v>13256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>40603</v>
+      </c>
+      <c r="B64" s="4">
+        <v>693</v>
+      </c>
+      <c r="C64" s="4">
+        <v>18850</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>40634</v>
+      </c>
+      <c r="B65" s="4">
+        <v>491</v>
+      </c>
+      <c r="C65" s="4">
+        <v>15037</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>40664</v>
+      </c>
+      <c r="B66" s="4">
+        <v>523</v>
+      </c>
+      <c r="C66" s="4">
+        <v>18593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>40695</v>
+      </c>
+      <c r="B67" s="4">
+        <v>536</v>
+      </c>
+      <c r="C67" s="4">
+        <v>19002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>40725</v>
+      </c>
+      <c r="B68" s="4">
+        <v>361</v>
+      </c>
+      <c r="C68" s="4">
+        <v>14505</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>40756</v>
+      </c>
+      <c r="B69" s="4">
+        <v>463</v>
+      </c>
+      <c r="C69" s="4">
+        <v>14654</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>40787</v>
+      </c>
+      <c r="B70" s="4">
+        <v>585</v>
+      </c>
+      <c r="C70" s="4">
+        <v>16152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>40817</v>
+      </c>
+      <c r="B71" s="4">
+        <v>504</v>
+      </c>
+      <c r="C71" s="4">
+        <v>14209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>40848</v>
+      </c>
+      <c r="B72" s="4">
+        <v>595</v>
+      </c>
+      <c r="C72" s="4">
+        <v>17408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>40878</v>
+      </c>
+      <c r="B73" s="4">
+        <v>459</v>
+      </c>
+      <c r="C73" s="4">
+        <v>18430</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>40909</v>
+      </c>
+      <c r="B74" s="4">
+        <v>478</v>
+      </c>
+      <c r="C74" s="4">
+        <v>14582</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>40940</v>
+      </c>
+      <c r="B75" s="4">
+        <v>682</v>
+      </c>
+      <c r="C75" s="4">
+        <v>15905</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>40969</v>
+      </c>
+      <c r="B76" s="4">
+        <v>518</v>
+      </c>
+      <c r="C76" s="4">
+        <v>15726</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>41000</v>
+      </c>
+      <c r="B77" s="4">
+        <v>329</v>
+      </c>
+      <c r="C77" s="4">
+        <v>13739</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>41030</v>
+      </c>
+      <c r="B78" s="4">
+        <v>413</v>
+      </c>
+      <c r="C78" s="4">
+        <v>19229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>41061</v>
+      </c>
+      <c r="B79" s="4">
+        <v>537</v>
+      </c>
+      <c r="C79" s="4">
+        <v>16616</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>41091</v>
+      </c>
+      <c r="B80" s="4">
+        <v>530</v>
+      </c>
+      <c r="C80" s="4">
+        <v>18456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>41122</v>
+      </c>
+      <c r="B81" s="4">
+        <v>559</v>
+      </c>
+      <c r="C81" s="4">
+        <v>15656</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>41153</v>
+      </c>
+      <c r="B82" s="4">
+        <v>629</v>
+      </c>
+      <c r="C82" s="4">
+        <v>15666</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B83" s="4">
+        <v>663</v>
+      </c>
+      <c r="C83" s="4">
+        <v>17326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>41214</v>
+      </c>
+      <c r="B84" s="4">
+        <v>732</v>
+      </c>
+      <c r="C84" s="4">
+        <v>18564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>41244</v>
+      </c>
+      <c r="B85" s="4">
+        <v>798</v>
+      </c>
+      <c r="C85" s="4">
+        <v>13072</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>41275</v>
+      </c>
+      <c r="B86" s="4">
+        <v>755</v>
+      </c>
+      <c r="C86" s="4">
+        <v>16480</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>41306</v>
+      </c>
+      <c r="B87" s="4">
+        <v>752</v>
+      </c>
+      <c r="C87" s="4">
+        <v>13942</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>41334</v>
+      </c>
+      <c r="B88" s="4">
+        <v>1052</v>
+      </c>
+      <c r="C88" s="4">
+        <v>16824</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B89" s="4">
+        <v>658</v>
+      </c>
+      <c r="C89" s="4">
+        <v>17911</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>41395</v>
+      </c>
+      <c r="B90" s="4">
+        <v>891</v>
+      </c>
+      <c r="C90" s="4">
+        <v>18581</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B91" s="4">
+        <v>1087</v>
+      </c>
+      <c r="C91" s="4">
+        <v>19649</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B92" s="4">
+        <v>990</v>
+      </c>
+      <c r="C92" s="4">
+        <v>15942</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>41487</v>
+      </c>
+      <c r="B93" s="4">
+        <v>899</v>
+      </c>
+      <c r="C93" s="4">
+        <v>16357</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>41518</v>
+      </c>
+      <c r="B94" s="4">
+        <v>1026</v>
+      </c>
+      <c r="C94" s="4">
+        <v>16614</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B95" s="4">
+        <v>1135</v>
+      </c>
+      <c r="C95" s="4">
+        <v>18892</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B96" s="4">
+        <v>754</v>
+      </c>
+      <c r="C96" s="4">
+        <v>18105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B97" s="4">
+        <v>689</v>
+      </c>
+      <c r="C97" s="4">
+        <v>16785</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>41640</v>
+      </c>
+      <c r="B98" s="4">
+        <v>718</v>
+      </c>
+      <c r="C98" s="4">
+        <v>18377</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B99" s="4">
+        <v>684</v>
+      </c>
+      <c r="C99" s="4">
+        <v>16672</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>41699</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1227</v>
+      </c>
+      <c r="C100" s="4">
+        <v>19244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B101" s="4">
+        <v>662</v>
+      </c>
+      <c r="C101" s="4">
+        <v>18641</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B102" s="4">
+        <v>761</v>
+      </c>
+      <c r="C102" s="4">
+        <v>19272</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B103" s="4">
+        <v>902</v>
+      </c>
+      <c r="C103" s="4">
+        <v>20008</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>41821</v>
+      </c>
+      <c r="B104" s="4">
+        <v>811</v>
+      </c>
+      <c r="C104" s="4">
+        <v>16076</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B105" s="4">
+        <v>852</v>
+      </c>
+      <c r="C105" s="4">
+        <v>16673</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B106" s="4">
+        <v>960</v>
+      </c>
+      <c r="C106" s="4">
+        <v>16806</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B107" s="4">
+        <v>821</v>
+      </c>
+      <c r="C107" s="4">
+        <v>19037</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B108" s="4">
+        <v>825</v>
+      </c>
+      <c r="C108" s="4">
+        <v>17952</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1170</v>
+      </c>
+      <c r="C109" s="4">
+        <v>18447</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B110" s="4">
+        <v>744</v>
+      </c>
+      <c r="C110" s="4">
+        <v>18319</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B111" s="4">
+        <v>777</v>
+      </c>
+      <c r="C111" s="4">
+        <v>15780</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1563</v>
+      </c>
+      <c r="C112" s="4">
+        <v>22732</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B113" s="4">
+        <v>373</v>
+      </c>
+      <c r="C113" s="4">
+        <v>19612</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1160</v>
+      </c>
+      <c r="C114" s="4">
+        <v>19636</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>42156</v>
+      </c>
+      <c r="B115" s="4">
+        <v>993</v>
+      </c>
+      <c r="C115" s="4">
+        <v>24553</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B116" s="4">
+        <v>927</v>
+      </c>
+      <c r="C116" s="4">
+        <v>18187</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>42217</v>
+      </c>
+      <c r="B117" s="4">
+        <v>863</v>
+      </c>
+      <c r="C117" s="4">
+        <v>18801</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>42248</v>
+      </c>
+      <c r="B118" s="4">
+        <v>835</v>
+      </c>
+      <c r="C118" s="4">
+        <v>20547</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B119" s="4">
+        <v>891</v>
+      </c>
+      <c r="C119" s="4">
+        <v>19673</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B120" s="4">
+        <v>717</v>
+      </c>
+      <c r="C120" s="4">
+        <v>20018</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B121" s="4">
+        <v>749</v>
+      </c>
+      <c r="C121" s="4">
+        <v>21778</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B122" s="4">
+        <v>803</v>
+      </c>
+      <c r="C122" s="4">
+        <v>19245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B123" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C123" s="4">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B124" s="4">
+        <v>769</v>
+      </c>
+      <c r="C124" s="4">
+        <v>22283</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B125" s="4">
+        <v>595</v>
+      </c>
+      <c r="C125" s="4">
+        <v>23058</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B126" s="4">
+        <v>982</v>
+      </c>
+      <c r="C126" s="4">
+        <v>24371</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>42522</v>
+      </c>
+      <c r="B127" s="4">
+        <v>1179</v>
+      </c>
+      <c r="C127" s="4">
+        <v>27443</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>42552</v>
+      </c>
+      <c r="B128" s="4">
+        <v>1033</v>
+      </c>
+      <c r="C128" s="4">
+        <v>17941</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>42583</v>
+      </c>
+      <c r="B129" s="4">
+        <v>606</v>
+      </c>
+      <c r="C129" s="4">
+        <v>21218</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>42614</v>
+      </c>
+      <c r="B130" s="4">
+        <v>987</v>
+      </c>
+      <c r="C130" s="4">
+        <v>21178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>42644</v>
+      </c>
+      <c r="B131" s="4">
+        <v>829</v>
+      </c>
+      <c r="C131" s="4">
+        <v>19693</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>42675</v>
+      </c>
+      <c r="B132" s="4">
+        <v>929</v>
+      </c>
+      <c r="C132" s="4">
+        <v>20935</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>42705</v>
+      </c>
+      <c r="B133" s="4">
+        <v>1054</v>
+      </c>
+      <c r="C133" s="4">
+        <v>22586</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B134" s="4">
+        <v>929</v>
+      </c>
+      <c r="C134" s="4">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>42767</v>
+      </c>
+      <c r="B135" s="4">
+        <v>1328</v>
+      </c>
+      <c r="C135" s="4">
+        <v>20141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B136" s="4">
+        <v>1605</v>
+      </c>
+      <c r="C136" s="4">
+        <v>26427</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>42826</v>
+      </c>
+      <c r="B137" s="4">
+        <v>606</v>
+      </c>
+      <c r="C137" s="4">
+        <v>20287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>42856</v>
+      </c>
+      <c r="B138" s="4">
+        <v>1163</v>
+      </c>
+      <c r="C138" s="4">
+        <v>25568</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B139" s="4">
+        <v>986</v>
+      </c>
+      <c r="C139" s="4">
+        <v>27599</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>42917</v>
+      </c>
+      <c r="B140" s="4">
+        <v>718</v>
+      </c>
+      <c r="C140" s="4">
+        <v>17276</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B141" s="4">
+        <v>1013</v>
+      </c>
+      <c r="C141" s="4">
+        <v>18516</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>42979</v>
+      </c>
+      <c r="B142" s="4">
+        <v>1102</v>
+      </c>
+      <c r="C142" s="4">
+        <v>17352</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>43009</v>
+      </c>
+      <c r="B143" s="4">
+        <v>966</v>
+      </c>
+      <c r="C143" s="4">
+        <v>20909</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B144" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C144" s="4">
+        <v>21479</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B145" s="4">
+        <v>1302</v>
+      </c>
+      <c r="C145" s="4">
+        <v>19849</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B146" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C146" s="4">
+        <v>22488</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B147" s="4">
+        <v>1176</v>
+      </c>
+      <c r="C147" s="4">
+        <v>19706</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B148" s="4">
+        <v>1204</v>
+      </c>
+      <c r="C148" s="4">
+        <v>22537</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B149" s="4">
+        <v>747</v>
+      </c>
+      <c r="C149" s="4">
+        <v>21602</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B150" s="4">
+        <v>1103</v>
+      </c>
+      <c r="C150" s="4">
+        <v>25944</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B151" s="4">
+        <v>923</v>
+      </c>
+      <c r="C151" s="4">
+        <v>25731</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>43282</v>
+      </c>
+      <c r="B152" s="4">
+        <v>1035</v>
+      </c>
+      <c r="C152" s="4">
+        <v>18342</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B153" s="4">
+        <v>1130</v>
+      </c>
+      <c r="C153" s="4">
+        <v>23726</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B154" s="4">
+        <v>591</v>
+      </c>
+      <c r="C154" s="4">
+        <v>14571</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B155" s="4">
+        <v>775</v>
+      </c>
+      <c r="C155" s="4">
+        <v>19886</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B156" s="4">
+        <v>555</v>
+      </c>
+      <c r="C156" s="4">
+        <v>21112</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>43435</v>
+      </c>
+      <c r="B157" s="4">
+        <v>796</v>
+      </c>
+      <c r="C157" s="4">
+        <v>16632</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>43466</v>
+      </c>
+      <c r="B158" s="4">
+        <v>961</v>
+      </c>
+      <c r="C158" s="4">
+        <v>24046</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B159" s="4">
+        <v>1292</v>
+      </c>
+      <c r="C159" s="4">
+        <v>21220</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B160" s="4">
+        <v>1383</v>
+      </c>
+      <c r="C160" s="4">
+        <v>29680</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B161" s="4">
+        <v>435</v>
+      </c>
+      <c r="C161" s="4">
+        <v>18980</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B162" s="4">
+        <v>668</v>
+      </c>
+      <c r="C162" s="4">
+        <v>21981</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B163" s="4">
+        <v>1032</v>
+      </c>
+      <c r="C163" s="4">
+        <v>23539</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B164" s="4">
+        <v>886</v>
+      </c>
+      <c r="C164" s="4">
+        <v>18571</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B165" s="4">
+        <v>637</v>
+      </c>
+      <c r="C165" s="4">
+        <v>21751</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>43709</v>
+      </c>
+      <c r="B166" s="4">
+        <v>744</v>
+      </c>
+      <c r="C166" s="4">
+        <v>18456</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B167" s="4">
+        <v>853</v>
+      </c>
+      <c r="C167" s="4">
+        <v>21065</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B168" s="4">
+        <v>682</v>
+      </c>
+      <c r="C168" s="4">
+        <v>21114</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B169" s="4">
+        <v>603</v>
+      </c>
+      <c r="C169" s="4">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B170" s="4">
+        <v>959</v>
+      </c>
+      <c r="C170" s="4">
+        <v>21462</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B171" s="4">
+        <v>966</v>
+      </c>
+      <c r="C171" s="4">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B172" s="4">
+        <v>646</v>
+      </c>
+      <c r="C172" s="4">
+        <v>17927</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B173" s="4">
+        <v>134</v>
+      </c>
+      <c r="C173" s="4">
+        <v>12013</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B174" s="4">
+        <v>221</v>
+      </c>
+      <c r="C174" s="4">
+        <v>13247</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B175" s="4">
+        <v>831</v>
+      </c>
+      <c r="C175" s="4">
+        <v>20260</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B176" s="4">
+        <v>428</v>
+      </c>
+      <c r="C176" s="4">
+        <v>20947</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B177" s="4">
+        <v>420</v>
+      </c>
+      <c r="C177" s="4">
+        <v>20331</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B178" s="4">
+        <v>889</v>
+      </c>
+      <c r="C178" s="4">
+        <v>20168</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B179" s="4">
+        <v>548</v>
+      </c>
+      <c r="C179" s="4">
+        <v>17974</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B180" s="4">
+        <v>523</v>
+      </c>
+      <c r="C180" s="4">
+        <v>21035</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B181" s="4">
+        <v>511</v>
+      </c>
+      <c r="C181" s="4">
+        <v>26397</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B182" s="4">
+        <v>824</v>
+      </c>
+      <c r="C182" s="4">
+        <v>12323</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B183" s="4">
+        <v>423</v>
+      </c>
+      <c r="C183" s="4">
+        <v>12556</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B184" s="4">
+        <v>801</v>
+      </c>
+      <c r="C184" s="4">
+        <v>27511</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B185" s="4">
+        <v>426</v>
+      </c>
+      <c r="C185" s="4">
+        <v>18221</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B186" s="4">
+        <v>379</v>
+      </c>
+      <c r="C186" s="4">
+        <v>19682</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B187" s="4">
+        <v>398</v>
+      </c>
+      <c r="C187" s="4">
+        <v>23388</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B188" s="4">
+        <v>239</v>
+      </c>
+      <c r="C188" s="4">
+        <v>15256</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B189" s="4">
+        <v>232</v>
+      </c>
+      <c r="C189" s="4">
+        <v>18430</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B190" s="4">
+        <v>348</v>
+      </c>
+      <c r="C190" s="4">
+        <v>16724</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B191" s="4">
+        <v>434</v>
+      </c>
+      <c r="C191" s="4">
+        <v>14875</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B192" s="4">
+        <v>427</v>
+      </c>
+      <c r="C192" s="4">
+        <v>17285</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B193" s="4">
+        <v>213</v>
+      </c>
+      <c r="C193" s="4">
+        <v>20697</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B194" s="4">
+        <v>181</v>
+      </c>
+      <c r="C194" s="4">
+        <v>11536</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B195" s="4">
+        <v>243</v>
+      </c>
+      <c r="C195" s="4">
+        <v>12659</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B196" s="4">
+        <v>579</v>
+      </c>
+      <c r="C196" s="4">
+        <v>17505</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B197" s="4">
+        <v>288</v>
+      </c>
+      <c r="C197" s="4">
+        <v>13266</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B198" s="4">
+        <v>267</v>
+      </c>
+      <c r="C198" s="4">
+        <v>15803</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B199" s="4">
+        <v>283</v>
+      </c>
+      <c r="C199" s="4">
+        <v>17074</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B200" s="4">
+        <v>225</v>
+      </c>
+      <c r="C200" s="4">
+        <v>11369</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B201" s="4">
+        <v>343</v>
+      </c>
+      <c r="C201" s="4">
+        <v>15364</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B202" s="4">
+        <v>337</v>
+      </c>
+      <c r="C202" s="4">
+        <v>15484</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B203" s="4">
+        <v>322</v>
+      </c>
+      <c r="C203" s="4">
+        <v>12716</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B204" s="4">
+        <v>305</v>
+      </c>
+      <c r="C204" s="4">
+        <v>15316</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B205" s="4">
+        <v>357</v>
+      </c>
+      <c r="C205" s="4">
+        <v>17355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A0AB51-040D-4ECF-8047-EA745C0A81BB}">
+  <dimension ref="A1:C205"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>38718</v>
+      </c>
+      <c r="B2" s="4">
+        <v>233</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>38749</v>
+      </c>
+      <c r="B3" s="4">
+        <v>270</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>38777</v>
+      </c>
+      <c r="B4" s="4">
+        <v>406</v>
+      </c>
+      <c r="C4" s="4">
+        <v>13310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>38808</v>
+      </c>
+      <c r="B5" s="4">
+        <v>356</v>
+      </c>
+      <c r="C5" s="4">
+        <v>11062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>38838</v>
+      </c>
+      <c r="B6" s="4">
+        <v>553</v>
+      </c>
+      <c r="C6" s="4">
+        <v>13930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>38869</v>
+      </c>
+      <c r="B7" s="4">
+        <v>865</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>38899</v>
+      </c>
+      <c r="B8" s="4">
+        <v>540</v>
+      </c>
+      <c r="C8" s="4">
+        <v>13027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>38930</v>
+      </c>
+      <c r="B9" s="4">
+        <v>417</v>
+      </c>
+      <c r="C9" s="4">
+        <v>12127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>38961</v>
+      </c>
+      <c r="B10" s="4">
+        <v>643</v>
+      </c>
+      <c r="C10" s="4">
+        <v>12262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>38991</v>
+      </c>
+      <c r="B11" s="4">
+        <v>383</v>
+      </c>
+      <c r="C11" s="4">
+        <v>11974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>39022</v>
+      </c>
+      <c r="B12" s="4">
+        <v>488</v>
+      </c>
+      <c r="C12" s="4">
+        <v>13041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>39052</v>
+      </c>
+      <c r="B13" s="4">
+        <v>836</v>
+      </c>
+      <c r="C13" s="4">
+        <v>17204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>39083</v>
+      </c>
+      <c r="B14" s="4">
+        <v>284</v>
+      </c>
+      <c r="C14" s="4">
+        <v>15739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>39114</v>
+      </c>
+      <c r="B15" s="4">
+        <v>483</v>
+      </c>
+      <c r="C15" s="4">
+        <v>13091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>39142</v>
+      </c>
+      <c r="B16" s="4">
+        <v>512</v>
+      </c>
+      <c r="C16" s="4">
+        <v>15478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>39173</v>
+      </c>
+      <c r="B17" s="4">
+        <v>565</v>
+      </c>
+      <c r="C17" s="4">
+        <v>12007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>39203</v>
+      </c>
+      <c r="B18" s="4">
+        <v>526</v>
+      </c>
+      <c r="C18" s="4">
+        <v>16455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>39234</v>
+      </c>
+      <c r="B19" s="4">
+        <v>555</v>
+      </c>
+      <c r="C19" s="4">
+        <v>14729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>39264</v>
+      </c>
+      <c r="B20" s="4">
+        <v>522</v>
+      </c>
+      <c r="C20" s="4">
+        <v>15066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>39295</v>
+      </c>
+      <c r="B21" s="4">
+        <v>534</v>
+      </c>
+      <c r="C21" s="4">
+        <v>14656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>39326</v>
+      </c>
+      <c r="B22" s="4">
+        <v>711</v>
+      </c>
+      <c r="C22" s="4">
+        <v>12744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>39356</v>
+      </c>
+      <c r="B23" s="4">
+        <v>828</v>
+      </c>
+      <c r="C23" s="4">
+        <v>15530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>39387</v>
+      </c>
+      <c r="B24" s="4">
+        <v>614</v>
+      </c>
+      <c r="C24" s="4">
+        <v>14565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>39417</v>
+      </c>
+      <c r="B25" s="4">
+        <v>603</v>
+      </c>
+      <c r="C25" s="4">
+        <v>14743</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>39448</v>
+      </c>
+      <c r="B26" s="4">
+        <v>757</v>
+      </c>
+      <c r="C26" s="4">
+        <v>12321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>39479</v>
+      </c>
+      <c r="B27" s="4">
+        <v>797</v>
+      </c>
+      <c r="C27" s="4">
+        <v>13775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>39508</v>
+      </c>
+      <c r="B28" s="4">
+        <v>568</v>
+      </c>
+      <c r="C28" s="4">
+        <v>12536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>39539</v>
+      </c>
+      <c r="B29" s="4">
+        <v>429</v>
+      </c>
+      <c r="C29" s="4">
+        <v>15736</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>39569</v>
+      </c>
+      <c r="B30" s="4">
+        <v>569</v>
+      </c>
+      <c r="C30" s="4">
+        <v>13618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>39600</v>
+      </c>
+      <c r="B31" s="4">
+        <v>588</v>
+      </c>
+      <c r="C31" s="4">
+        <v>12719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>39630</v>
+      </c>
+      <c r="B32" s="4">
+        <v>408</v>
+      </c>
+      <c r="C32" s="4">
+        <v>12107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>39661</v>
+      </c>
+      <c r="B33" s="4">
+        <v>495</v>
+      </c>
+      <c r="C33" s="4">
+        <v>10790</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>39692</v>
+      </c>
+      <c r="B34" s="4">
+        <v>378</v>
+      </c>
+      <c r="C34" s="4">
+        <v>11156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>39722</v>
+      </c>
+      <c r="B35" s="4">
+        <v>368</v>
+      </c>
+      <c r="C35" s="4">
+        <v>10984</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>39753</v>
+      </c>
+      <c r="B36" s="4">
+        <v>261</v>
+      </c>
+      <c r="C36" s="4">
+        <v>9295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>39783</v>
+      </c>
+      <c r="B37" s="4">
+        <v>197</v>
+      </c>
+      <c r="C37" s="4">
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>39814</v>
+      </c>
+      <c r="B38" s="4">
+        <v>323</v>
+      </c>
+      <c r="C38" s="4">
+        <v>6954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>39845</v>
+      </c>
+      <c r="B39" s="4">
+        <v>238</v>
+      </c>
+      <c r="C39" s="4">
+        <v>8091</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39873</v>
+      </c>
+      <c r="B40" s="4">
+        <v>443</v>
+      </c>
+      <c r="C40" s="4">
+        <v>9697</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>39904</v>
+      </c>
+      <c r="B41" s="4">
+        <v>221</v>
+      </c>
+      <c r="C41" s="4">
+        <v>9306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>39934</v>
+      </c>
+      <c r="B42" s="4">
+        <v>279</v>
+      </c>
+      <c r="C42" s="4">
+        <v>9279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>39965</v>
+      </c>
+      <c r="B43" s="4">
+        <v>303</v>
+      </c>
+      <c r="C43" s="4">
+        <v>9455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>39995</v>
+      </c>
+      <c r="B44" s="4">
+        <v>423</v>
+      </c>
+      <c r="C44" s="4">
+        <v>11029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>40026</v>
+      </c>
+      <c r="B45" s="4">
+        <v>454</v>
+      </c>
+      <c r="C45" s="4">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>40057</v>
+      </c>
+      <c r="B46" s="4">
+        <v>439</v>
+      </c>
+      <c r="C46" s="4">
+        <v>11647</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>40087</v>
+      </c>
+      <c r="B47" s="4">
+        <v>425</v>
+      </c>
+      <c r="C47" s="4">
+        <v>12306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>40118</v>
+      </c>
+      <c r="B48" s="4">
+        <v>503</v>
+      </c>
+      <c r="C48" s="4">
+        <v>11706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>40148</v>
+      </c>
+      <c r="B49" s="4">
+        <v>347</v>
+      </c>
+      <c r="C49" s="4">
+        <v>12809</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>40179</v>
+      </c>
+      <c r="B50" s="4">
+        <v>363</v>
+      </c>
+      <c r="C50" s="4">
+        <v>11602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>40210</v>
+      </c>
+      <c r="B51" s="4">
+        <v>390</v>
+      </c>
+      <c r="C51" s="4">
+        <v>11126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>40238</v>
+      </c>
+      <c r="B52" s="4">
+        <v>473</v>
+      </c>
+      <c r="C52" s="4">
+        <v>14136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>40269</v>
+      </c>
+      <c r="B53" s="4">
+        <v>527</v>
+      </c>
+      <c r="C53" s="4">
+        <v>13404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>40299</v>
+      </c>
+      <c r="B54" s="4">
+        <v>488</v>
+      </c>
+      <c r="C54" s="4">
+        <v>12372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>40330</v>
+      </c>
+      <c r="B55" s="4">
+        <v>545</v>
+      </c>
+      <c r="C55" s="4">
+        <v>13569</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>40360</v>
+      </c>
+      <c r="B56" s="4">
+        <v>476</v>
+      </c>
+      <c r="C56" s="4">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>40391</v>
+      </c>
+      <c r="B57" s="4">
+        <v>509</v>
+      </c>
+      <c r="C57" s="4">
+        <v>12951</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>40422</v>
+      </c>
+      <c r="B58" s="4">
+        <v>530</v>
+      </c>
+      <c r="C58" s="4">
+        <v>13615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>40452</v>
+      </c>
+      <c r="B59" s="4">
+        <v>540</v>
+      </c>
+      <c r="C59" s="4">
+        <v>12903</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>40483</v>
+      </c>
+      <c r="B60" s="4">
+        <v>577</v>
+      </c>
+      <c r="C60" s="4">
+        <v>14551</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>40513</v>
+      </c>
+      <c r="B61" s="4">
+        <v>411</v>
+      </c>
+      <c r="C61" s="4">
+        <v>12965</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>40544</v>
+      </c>
+      <c r="B62" s="4">
+        <v>591</v>
+      </c>
+      <c r="C62" s="4">
+        <v>12962</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>40575</v>
+      </c>
+      <c r="B63" s="4">
+        <v>586</v>
+      </c>
+      <c r="C63" s="4">
+        <v>13095</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>40603</v>
+      </c>
+      <c r="B64" s="4">
+        <v>526</v>
+      </c>
+      <c r="C64" s="4">
+        <v>16059</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>40634</v>
+      </c>
+      <c r="B65" s="4">
+        <v>609</v>
+      </c>
+      <c r="C65" s="4">
+        <v>13921</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>40664</v>
+      </c>
+      <c r="B66" s="4">
+        <v>602</v>
+      </c>
+      <c r="C66" s="4">
+        <v>16302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>40695</v>
+      </c>
+      <c r="B67" s="4">
+        <v>560</v>
+      </c>
+      <c r="C67" s="4">
+        <v>13095</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>40725</v>
+      </c>
+      <c r="B68" s="4">
+        <v>467</v>
+      </c>
+      <c r="C68" s="4">
+        <v>13507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>40756</v>
+      </c>
+      <c r="B69" s="4">
+        <v>560</v>
+      </c>
+      <c r="C69" s="4">
+        <v>14357</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>40787</v>
+      </c>
+      <c r="B70" s="4">
+        <v>645</v>
+      </c>
+      <c r="C70" s="4">
+        <v>14673</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>40817</v>
+      </c>
+      <c r="B71" s="4">
+        <v>576</v>
+      </c>
+      <c r="C71" s="4">
+        <v>14443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>40848</v>
+      </c>
+      <c r="B72" s="4">
+        <v>706</v>
+      </c>
+      <c r="C72" s="4">
+        <v>15897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>40878</v>
+      </c>
+      <c r="B73" s="4">
+        <v>598</v>
+      </c>
+      <c r="C73" s="4">
+        <v>15545</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>40909</v>
+      </c>
+      <c r="B74" s="4">
+        <v>887</v>
+      </c>
+      <c r="C74" s="4">
+        <v>13140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>40940</v>
+      </c>
+      <c r="B75" s="4">
+        <v>563</v>
+      </c>
+      <c r="C75" s="4">
+        <v>13678</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>40969</v>
+      </c>
+      <c r="B76" s="4">
+        <v>761</v>
+      </c>
+      <c r="C76" s="4">
+        <v>16168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>41000</v>
+      </c>
+      <c r="B77" s="4">
+        <v>546</v>
+      </c>
+      <c r="C77" s="4">
+        <v>13385</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>41030</v>
+      </c>
+      <c r="B78" s="4">
+        <v>588</v>
+      </c>
+      <c r="C78" s="4">
+        <v>15350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>41061</v>
+      </c>
+      <c r="B79" s="4">
+        <v>627</v>
+      </c>
+      <c r="C79" s="4">
+        <v>13519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>41091</v>
+      </c>
+      <c r="B80" s="4">
+        <v>520</v>
+      </c>
+      <c r="C80" s="4">
+        <v>14063</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>41122</v>
+      </c>
+      <c r="B81" s="4">
+        <v>661</v>
+      </c>
+      <c r="C81" s="4">
+        <v>14873</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>41153</v>
+      </c>
+      <c r="B82" s="4">
+        <v>728</v>
+      </c>
+      <c r="C82" s="4">
+        <v>13696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B83" s="4">
+        <v>645</v>
+      </c>
+      <c r="C83" s="4">
+        <v>15293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>41214</v>
+      </c>
+      <c r="B84" s="4">
+        <v>657</v>
+      </c>
+      <c r="C84" s="4">
+        <v>14671</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>41244</v>
+      </c>
+      <c r="B85" s="4">
+        <v>542</v>
+      </c>
+      <c r="C85" s="4">
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>41275</v>
+      </c>
+      <c r="B86" s="4">
+        <v>597</v>
+      </c>
+      <c r="C86" s="4">
+        <v>14392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>41306</v>
+      </c>
+      <c r="B87" s="4">
+        <v>725</v>
+      </c>
+      <c r="C87" s="4">
+        <v>13740</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>41334</v>
+      </c>
+      <c r="B88" s="4">
+        <v>1123</v>
+      </c>
+      <c r="C88" s="4">
+        <v>13218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B89" s="4">
+        <v>506</v>
+      </c>
+      <c r="C89" s="4">
+        <v>17298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>41395</v>
+      </c>
+      <c r="B90" s="4">
+        <v>631</v>
+      </c>
+      <c r="C90" s="4">
+        <v>14376</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B91" s="4">
+        <v>682</v>
+      </c>
+      <c r="C91" s="4">
+        <v>13416</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B92" s="4">
+        <v>566</v>
+      </c>
+      <c r="C92" s="4">
+        <v>13357</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>41487</v>
+      </c>
+      <c r="B93" s="4">
+        <v>716</v>
+      </c>
+      <c r="C93" s="4">
+        <v>14261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>41518</v>
+      </c>
+      <c r="B94" s="4">
+        <v>780</v>
+      </c>
+      <c r="C94" s="4">
+        <v>14468</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B95" s="4">
+        <v>962</v>
+      </c>
+      <c r="C95" s="4">
+        <v>15485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B96" s="4">
+        <v>902</v>
+      </c>
+      <c r="C96" s="4">
+        <v>14394</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B97" s="4">
+        <v>678</v>
+      </c>
+      <c r="C97" s="4">
+        <v>14605</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>41640</v>
+      </c>
+      <c r="B98" s="4">
+        <v>803</v>
+      </c>
+      <c r="C98" s="4">
+        <v>13329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B99" s="4">
+        <v>776</v>
+      </c>
+      <c r="C99" s="4">
+        <v>13449</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>41699</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1084</v>
+      </c>
+      <c r="C100" s="4">
+        <v>16586</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B101" s="4">
+        <v>702</v>
+      </c>
+      <c r="C101" s="4">
+        <v>14689</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B102" s="4">
+        <v>764</v>
+      </c>
+      <c r="C102" s="4">
+        <v>14944</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B103" s="4">
+        <v>625</v>
+      </c>
+      <c r="C103" s="4">
+        <v>13949</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>41821</v>
+      </c>
+      <c r="B104" s="4">
+        <v>622</v>
+      </c>
+      <c r="C104" s="4">
+        <v>13585</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B105" s="4">
+        <v>806</v>
+      </c>
+      <c r="C105" s="4">
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B106" s="4">
+        <v>869</v>
+      </c>
+      <c r="C106" s="4">
+        <v>13981</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B107" s="4">
+        <v>912</v>
+      </c>
+      <c r="C107" s="4">
+        <v>15720</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B108" s="4">
+        <v>846</v>
+      </c>
+      <c r="C108" s="4">
+        <v>14039</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B109" s="4">
+        <v>829</v>
+      </c>
+      <c r="C109" s="4">
+        <v>15292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B110" s="4">
+        <v>788</v>
+      </c>
+      <c r="C110" s="4">
+        <v>12147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B111" s="4">
+        <v>860</v>
+      </c>
+      <c r="C111" s="4">
+        <v>12403</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1302</v>
+      </c>
+      <c r="C112" s="4">
+        <v>17029</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B113" s="4">
+        <v>496</v>
+      </c>
+      <c r="C113" s="4">
+        <v>15669</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B114" s="4">
+        <v>447</v>
+      </c>
+      <c r="C114" s="4">
+        <v>14720</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>42156</v>
+      </c>
+      <c r="B115" s="4">
+        <v>868</v>
+      </c>
+      <c r="C115" s="4">
+        <v>16806</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B116" s="4">
+        <v>602</v>
+      </c>
+      <c r="C116" s="4">
+        <v>14479</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>42217</v>
+      </c>
+      <c r="B117" s="4">
+        <v>840</v>
+      </c>
+      <c r="C117" s="4">
+        <v>15158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>42248</v>
+      </c>
+      <c r="B118" s="4">
+        <v>835</v>
+      </c>
+      <c r="C118" s="4">
+        <v>14871</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B119" s="4">
+        <v>763</v>
+      </c>
+      <c r="C119" s="4">
+        <v>16089</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B120" s="4">
+        <v>596</v>
+      </c>
+      <c r="C120" s="4">
+        <v>15632</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B121" s="4">
+        <v>889</v>
+      </c>
+      <c r="C121" s="4">
+        <v>17543</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B122" s="4">
+        <v>394</v>
+      </c>
+      <c r="C122" s="4">
+        <v>12880</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B123" s="4">
+        <v>864</v>
+      </c>
+      <c r="C123" s="4">
+        <v>14708</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1511</v>
+      </c>
+      <c r="C124" s="4">
+        <v>16653</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B125" s="4">
+        <v>558</v>
+      </c>
+      <c r="C125" s="4">
+        <v>17237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B126" s="4">
+        <v>582</v>
+      </c>
+      <c r="C126" s="4">
+        <v>15459</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>42522</v>
+      </c>
+      <c r="B127" s="4">
+        <v>666</v>
+      </c>
+      <c r="C127" s="4">
+        <v>16592</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>42552</v>
+      </c>
+      <c r="B128" s="4">
+        <v>668</v>
+      </c>
+      <c r="C128" s="4">
+        <v>13241</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>42583</v>
+      </c>
+      <c r="B129" s="4">
+        <v>687</v>
+      </c>
+      <c r="C129" s="4">
+        <v>16788</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>42614</v>
+      </c>
+      <c r="B130" s="4">
+        <v>739</v>
+      </c>
+      <c r="C130" s="4">
+        <v>16697</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>42644</v>
+      </c>
+      <c r="B131" s="4">
+        <v>643</v>
+      </c>
+      <c r="C131" s="4">
+        <v>14796</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>42675</v>
+      </c>
+      <c r="B132" s="4">
+        <v>854</v>
+      </c>
+      <c r="C132" s="4">
+        <v>16626</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>42705</v>
+      </c>
+      <c r="B133" s="4">
+        <v>733</v>
+      </c>
+      <c r="C133" s="4">
+        <v>18934</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B134" s="4">
+        <v>618</v>
+      </c>
+      <c r="C134" s="4">
+        <v>14939</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>42767</v>
+      </c>
+      <c r="B135" s="4">
+        <v>905</v>
+      </c>
+      <c r="C135" s="4">
+        <v>14384</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B136" s="4">
+        <v>990</v>
+      </c>
+      <c r="C136" s="4">
+        <v>16916</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>42826</v>
+      </c>
+      <c r="B137" s="4">
+        <v>359</v>
+      </c>
+      <c r="C137" s="4">
+        <v>14115</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>42856</v>
+      </c>
+      <c r="B138" s="4">
+        <v>663</v>
+      </c>
+      <c r="C138" s="4">
+        <v>17428</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B139" s="4">
+        <v>638</v>
+      </c>
+      <c r="C139" s="4">
+        <v>17475</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>42917</v>
+      </c>
+      <c r="B140" s="4">
+        <v>567</v>
+      </c>
+      <c r="C140" s="4">
+        <v>13936</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B141" s="4">
+        <v>604</v>
+      </c>
+      <c r="C141" s="4">
+        <v>17082</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>42979</v>
+      </c>
+      <c r="B142" s="4">
+        <v>493</v>
+      </c>
+      <c r="C142" s="4">
+        <v>16457</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>43009</v>
+      </c>
+      <c r="B143" s="4">
+        <v>581</v>
+      </c>
+      <c r="C143" s="4">
+        <v>15642</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B144" s="4">
+        <v>432</v>
+      </c>
+      <c r="C144" s="4">
+        <v>16844</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B145" s="4">
+        <v>291</v>
+      </c>
+      <c r="C145" s="4">
+        <v>19270</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B146" s="4">
+        <v>214</v>
+      </c>
+      <c r="C146" s="4">
+        <v>11960</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B147" s="4">
+        <v>1978</v>
+      </c>
+      <c r="C147" s="4">
+        <v>12862</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B148" s="4">
+        <v>2465</v>
+      </c>
+      <c r="C148" s="4">
+        <v>17465</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B149" s="4">
+        <v>480</v>
+      </c>
+      <c r="C149" s="4">
+        <v>17531</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B150" s="4">
+        <v>1028</v>
+      </c>
+      <c r="C150" s="4">
+        <v>16204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B151" s="4">
+        <v>1223</v>
+      </c>
+      <c r="C151" s="4">
+        <v>19283</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>43282</v>
+      </c>
+      <c r="B152" s="4">
+        <v>2186</v>
+      </c>
+      <c r="C152" s="4">
+        <v>11858</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B153" s="4">
+        <v>1272</v>
+      </c>
+      <c r="C153" s="4">
+        <v>18023</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B154" s="4">
+        <v>1449</v>
+      </c>
+      <c r="C154" s="4">
+        <v>13590</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B155" s="4">
+        <v>1186</v>
+      </c>
+      <c r="C155" s="4">
+        <v>15345</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B156" s="4">
+        <v>1166</v>
+      </c>
+      <c r="C156" s="4">
+        <v>15490</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>43435</v>
+      </c>
+      <c r="B157" s="4">
+        <v>953</v>
+      </c>
+      <c r="C157" s="4">
+        <v>15522</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>43466</v>
+      </c>
+      <c r="B158" s="4">
+        <v>812</v>
+      </c>
+      <c r="C158" s="4">
+        <v>11709</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B159" s="4">
+        <v>927</v>
+      </c>
+      <c r="C159" s="4">
+        <v>13842</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B160" s="4">
+        <v>1255</v>
+      </c>
+      <c r="C160" s="4">
+        <v>21843</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B161" s="4">
+        <v>469</v>
+      </c>
+      <c r="C161" s="4">
+        <v>14798</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B162" s="4">
+        <v>523</v>
+      </c>
+      <c r="C162" s="4">
+        <v>16692</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B163" s="4">
+        <v>901</v>
+      </c>
+      <c r="C163" s="4">
+        <v>18856</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B164" s="4">
+        <v>725</v>
+      </c>
+      <c r="C164" s="4">
+        <v>11836</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B165" s="4">
+        <v>571</v>
+      </c>
+      <c r="C165" s="4">
+        <v>16817</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>43709</v>
+      </c>
+      <c r="B166" s="4">
+        <v>862</v>
+      </c>
+      <c r="C166" s="4">
+        <v>13813</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B167" s="4">
+        <v>641</v>
+      </c>
+      <c r="C167" s="4">
+        <v>13205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B168" s="4">
+        <v>683</v>
+      </c>
+      <c r="C168" s="4">
+        <v>12583</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B169" s="4">
+        <v>724</v>
+      </c>
+      <c r="C169" s="4">
+        <v>14088</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B170" s="4">
+        <v>735</v>
+      </c>
+      <c r="C170" s="4">
+        <v>12272</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B171" s="4">
+        <v>680</v>
+      </c>
+      <c r="C171" s="4">
+        <v>13070</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B172" s="4">
+        <v>610</v>
+      </c>
+      <c r="C172" s="4">
+        <v>15193</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B173" s="4">
+        <v>452</v>
+      </c>
+      <c r="C173" s="4">
+        <v>9572</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B174" s="4">
+        <v>473</v>
+      </c>
+      <c r="C174" s="4">
+        <v>10173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B175" s="4">
+        <v>443</v>
+      </c>
+      <c r="C175" s="4">
+        <v>13994</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B176" s="4">
+        <v>362</v>
+      </c>
+      <c r="C176" s="4">
+        <v>11512</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B177" s="4">
+        <v>429</v>
+      </c>
+      <c r="C177" s="4">
+        <v>13817</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B178" s="4">
+        <v>658</v>
+      </c>
+      <c r="C178" s="4">
+        <v>18594</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B179" s="4">
+        <v>730</v>
+      </c>
+      <c r="C179" s="4">
+        <v>15814</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B180" s="4">
+        <v>717</v>
+      </c>
+      <c r="C180" s="4">
+        <v>15279</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B181" s="4">
+        <v>654</v>
+      </c>
+      <c r="C181" s="4">
+        <v>24111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B182" s="4">
+        <v>507</v>
+      </c>
+      <c r="C182" s="4">
+        <v>12601</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B183" s="4">
+        <v>591</v>
+      </c>
+      <c r="C183" s="4">
+        <v>13341</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B184" s="4">
+        <v>715</v>
+      </c>
+      <c r="C184" s="4">
+        <v>18495</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B185" s="4">
+        <v>362</v>
+      </c>
+      <c r="C185" s="4">
+        <v>16437</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B186" s="4">
+        <v>441</v>
+      </c>
+      <c r="C186" s="4">
+        <v>16713</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B187" s="4">
+        <v>478</v>
+      </c>
+      <c r="C187" s="4">
+        <v>23577</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B188" s="4">
+        <v>348</v>
+      </c>
+      <c r="C188" s="4">
+        <v>12146</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B189" s="4">
+        <v>568</v>
+      </c>
+      <c r="C189" s="4">
+        <v>19453</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B190" s="4">
+        <v>474</v>
+      </c>
+      <c r="C190" s="4">
+        <v>19955</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B191" s="4">
+        <v>510</v>
+      </c>
+      <c r="C191" s="4">
+        <v>13767</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B192" s="4">
+        <v>823</v>
+      </c>
+      <c r="C192" s="4">
+        <v>17490</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B193" s="4">
+        <v>541</v>
+      </c>
+      <c r="C193" s="4">
+        <v>23918</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B194" s="4">
+        <v>226</v>
+      </c>
+      <c r="C194" s="4">
+        <v>9414</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B195" s="4">
+        <v>310</v>
+      </c>
+      <c r="C195" s="4">
+        <v>10059</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B196" s="4">
+        <v>339</v>
+      </c>
+      <c r="C196" s="4">
+        <v>18647</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B197" s="4">
+        <v>179</v>
+      </c>
+      <c r="C197" s="4">
+        <v>11564</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B198" s="4">
+        <v>205</v>
+      </c>
+      <c r="C198" s="4">
+        <v>13605</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B199" s="4">
+        <v>161</v>
+      </c>
+      <c r="C199" s="4">
+        <v>17433</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B200" s="4">
+        <v>133</v>
+      </c>
+      <c r="C200" s="4">
+        <v>8667</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B201" s="4">
+        <v>347</v>
+      </c>
+      <c r="C201" s="4">
+        <v>15512</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B202" s="4">
+        <v>295</v>
+      </c>
+      <c r="C202" s="4">
+        <v>17369</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B203" s="4">
+        <v>413</v>
+      </c>
+      <c r="C203" s="4">
+        <v>14825</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B204" s="4">
+        <v>563</v>
+      </c>
+      <c r="C204" s="4">
+        <v>21899</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B205" s="4">
+        <v>682</v>
+      </c>
+      <c r="C205" s="4">
+        <v>43371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6719C408-2A50-44F3-BA01-7754EEEEC7C7}">
+  <dimension ref="A1:C205"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>38718</v>
+      </c>
+      <c r="B2" s="4">
+        <v>110</v>
+      </c>
+      <c r="C2" s="4">
+        <v>19595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>38749</v>
+      </c>
+      <c r="B3" s="4">
+        <v>303</v>
+      </c>
+      <c r="C3" s="4">
+        <v>21339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>38777</v>
+      </c>
+      <c r="B4" s="4">
+        <v>634</v>
+      </c>
+      <c r="C4" s="4">
+        <v>29154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>38808</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1097</v>
+      </c>
+      <c r="C5" s="4">
+        <v>29236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>38838</v>
+      </c>
+      <c r="B6" s="4">
+        <v>926</v>
+      </c>
+      <c r="C6" s="4">
+        <v>32694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>38869</v>
+      </c>
+      <c r="B7" s="4">
+        <v>889</v>
+      </c>
+      <c r="C7" s="4">
+        <v>31886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>38899</v>
+      </c>
+      <c r="B8" s="4">
+        <v>726</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>38930</v>
+      </c>
+      <c r="B9" s="4">
+        <v>714</v>
+      </c>
+      <c r="C9" s="4">
+        <v>25461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>38961</v>
+      </c>
+      <c r="B10" s="4">
+        <v>903</v>
+      </c>
+      <c r="C10" s="4">
+        <v>27905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>38991</v>
+      </c>
+      <c r="B11" s="4">
+        <v>839</v>
+      </c>
+      <c r="C11" s="4">
+        <v>27713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>39022</v>
+      </c>
+      <c r="B12" s="4">
+        <v>802</v>
+      </c>
+      <c r="C12" s="4">
+        <v>28036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>39052</v>
+      </c>
+      <c r="B13" s="4">
+        <v>920</v>
+      </c>
+      <c r="C13" s="4">
+        <v>28195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>39083</v>
+      </c>
+      <c r="B14" s="4">
+        <v>428</v>
+      </c>
+      <c r="C14" s="4">
+        <v>23588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>39114</v>
+      </c>
+      <c r="B15" s="4">
+        <v>509</v>
+      </c>
+      <c r="C15" s="4">
+        <v>23447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>39142</v>
+      </c>
+      <c r="B16" s="4">
+        <v>730</v>
+      </c>
+      <c r="C16" s="4">
+        <v>31470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>39173</v>
+      </c>
+      <c r="B17" s="4">
+        <v>854</v>
+      </c>
+      <c r="C17" s="4">
+        <v>30747</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>39203</v>
+      </c>
+      <c r="B18" s="4">
+        <v>998</v>
+      </c>
+      <c r="C18" s="4">
+        <v>34274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>39234</v>
+      </c>
+      <c r="B19" s="4">
+        <v>894</v>
+      </c>
+      <c r="C19" s="4">
+        <v>30318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>39264</v>
+      </c>
+      <c r="B20" s="4">
+        <v>762</v>
+      </c>
+      <c r="C20" s="4">
+        <v>22967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>39295</v>
+      </c>
+      <c r="B21" s="4">
+        <v>851</v>
+      </c>
+      <c r="C21" s="4">
+        <v>26502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>39326</v>
+      </c>
+      <c r="B22" s="4">
+        <v>983</v>
+      </c>
+      <c r="C22" s="4">
+        <v>27552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>39356</v>
+      </c>
+      <c r="B23" s="4">
+        <v>866</v>
+      </c>
+      <c r="C23" s="4">
+        <v>32927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>39387</v>
+      </c>
+      <c r="B24" s="4">
+        <v>666</v>
+      </c>
+      <c r="C24" s="4">
+        <v>31783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>39417</v>
+      </c>
+      <c r="B25" s="4">
+        <v>734</v>
+      </c>
+      <c r="C25" s="4">
+        <v>34856</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>39448</v>
+      </c>
+      <c r="B26" s="4">
+        <v>665</v>
+      </c>
+      <c r="C26" s="4">
+        <v>19762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>39479</v>
+      </c>
+      <c r="B27" s="4">
+        <v>800</v>
+      </c>
+      <c r="C27" s="4">
+        <v>24764</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>39508</v>
+      </c>
+      <c r="B28" s="4">
+        <v>835</v>
+      </c>
+      <c r="C28" s="4">
+        <v>26948</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>39539</v>
+      </c>
+      <c r="B29" s="4">
+        <v>512</v>
+      </c>
+      <c r="C29" s="4">
+        <v>31729</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>39569</v>
+      </c>
+      <c r="B30" s="4">
+        <v>553</v>
+      </c>
+      <c r="C30" s="4">
+        <v>30272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>39600</v>
+      </c>
+      <c r="B31" s="4">
+        <v>843</v>
+      </c>
+      <c r="C31" s="4">
+        <v>27361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>39630</v>
+      </c>
+      <c r="B32" s="4">
+        <v>740</v>
+      </c>
+      <c r="C32" s="4">
+        <v>19326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>39661</v>
+      </c>
+      <c r="B33" s="4">
+        <v>540</v>
+      </c>
+      <c r="C33" s="4">
+        <v>20844</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>39692</v>
+      </c>
+      <c r="B34" s="4">
+        <v>619</v>
+      </c>
+      <c r="C34" s="4">
+        <v>26052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>39722</v>
+      </c>
+      <c r="B35" s="4">
+        <v>623</v>
+      </c>
+      <c r="C35" s="4">
+        <v>25558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>39753</v>
+      </c>
+      <c r="B36" s="4">
+        <v>372</v>
+      </c>
+      <c r="C36" s="4">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>39783</v>
+      </c>
+      <c r="B37" s="4">
+        <v>251</v>
+      </c>
+      <c r="C37" s="4">
+        <v>20141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>39814</v>
+      </c>
+      <c r="B38" s="4">
+        <v>212</v>
+      </c>
+      <c r="C38" s="4">
+        <v>12945</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>39845</v>
+      </c>
+      <c r="B39" s="4">
+        <v>174</v>
+      </c>
+      <c r="C39" s="4">
+        <v>16609</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39873</v>
+      </c>
+      <c r="B40" s="4">
+        <v>178</v>
+      </c>
+      <c r="C40" s="4">
+        <v>20794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>39904</v>
+      </c>
+      <c r="B41" s="4">
+        <v>227</v>
+      </c>
+      <c r="C41" s="4">
+        <v>20531</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>39934</v>
+      </c>
+      <c r="B42" s="4">
+        <v>368</v>
+      </c>
+      <c r="C42" s="4">
+        <v>20417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>39965</v>
+      </c>
+      <c r="B43" s="4">
+        <v>342</v>
+      </c>
+      <c r="C43" s="4">
+        <v>24964</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>39995</v>
+      </c>
+      <c r="B44" s="4">
+        <v>312</v>
+      </c>
+      <c r="C44" s="4">
+        <v>16120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>40026</v>
+      </c>
+      <c r="B45" s="4">
+        <v>454</v>
+      </c>
+      <c r="C45" s="4">
+        <v>17518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>40057</v>
+      </c>
+      <c r="B46" s="4">
+        <v>529</v>
+      </c>
+      <c r="C46" s="4">
+        <v>21815</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>40087</v>
+      </c>
+      <c r="B47" s="4">
+        <v>603</v>
+      </c>
+      <c r="C47" s="4">
+        <v>24055</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>40118</v>
+      </c>
+      <c r="B48" s="4">
+        <v>496</v>
+      </c>
+      <c r="C48" s="4">
+        <v>22805</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>40148</v>
+      </c>
+      <c r="B49" s="4">
+        <v>488</v>
+      </c>
+      <c r="C49" s="4">
+        <v>22245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>40179</v>
+      </c>
+      <c r="B50" s="4">
+        <v>479</v>
+      </c>
+      <c r="C50" s="4">
+        <v>17542</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>40210</v>
+      </c>
+      <c r="B51" s="4">
+        <v>535</v>
+      </c>
+      <c r="C51" s="4">
+        <v>20396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>40238</v>
+      </c>
+      <c r="B52" s="4">
+        <v>938</v>
+      </c>
+      <c r="C52" s="4">
+        <v>28917</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>40269</v>
+      </c>
+      <c r="B53" s="4">
+        <v>605</v>
+      </c>
+      <c r="C53" s="4">
+        <v>28923</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>40299</v>
+      </c>
+      <c r="B54" s="4">
+        <v>653</v>
+      </c>
+      <c r="C54" s="4">
+        <v>28360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>40330</v>
+      </c>
+      <c r="B55" s="4">
+        <v>688</v>
+      </c>
+      <c r="C55" s="4">
+        <v>31802</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>40360</v>
+      </c>
+      <c r="B56" s="4">
+        <v>534</v>
+      </c>
+      <c r="C56" s="4">
+        <v>22563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>40391</v>
+      </c>
+      <c r="B57" s="4">
+        <v>742</v>
+      </c>
+      <c r="C57" s="4">
+        <v>25387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>40422</v>
+      </c>
+      <c r="B58" s="4">
+        <v>742</v>
+      </c>
+      <c r="C58" s="4">
+        <v>29782</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>40452</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C59" s="4">
+        <v>29786</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>40483</v>
+      </c>
+      <c r="B60" s="4">
+        <v>858</v>
+      </c>
+      <c r="C60" s="4">
+        <v>30251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>40513</v>
+      </c>
+      <c r="B61" s="4">
+        <v>652</v>
+      </c>
+      <c r="C61" s="4">
+        <v>33877</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>40544</v>
+      </c>
+      <c r="B62" s="4">
+        <v>729</v>
+      </c>
+      <c r="C62" s="4">
+        <v>22014</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>40575</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1115</v>
+      </c>
+      <c r="C63" s="4">
+        <v>24478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>40603</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1226</v>
+      </c>
+      <c r="C64" s="4">
+        <v>33756</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>40634</v>
+      </c>
+      <c r="B65" s="4">
+        <v>787</v>
+      </c>
+      <c r="C65" s="4">
+        <v>32746</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>40664</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C66" s="4">
+        <v>35644</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>40695</v>
+      </c>
+      <c r="B67" s="4">
+        <v>940</v>
+      </c>
+      <c r="C67" s="4">
+        <v>31231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>40725</v>
+      </c>
+      <c r="B68" s="4">
+        <v>727</v>
+      </c>
+      <c r="C68" s="4">
+        <v>22001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>40756</v>
+      </c>
+      <c r="B69" s="4">
+        <v>914</v>
+      </c>
+      <c r="C69" s="4">
+        <v>28408</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>40787</v>
+      </c>
+      <c r="B70" s="4">
+        <v>999</v>
+      </c>
+      <c r="C70" s="4">
+        <v>30793</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>40817</v>
+      </c>
+      <c r="B71" s="4">
+        <v>910</v>
+      </c>
+      <c r="C71" s="4">
+        <v>29213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>40848</v>
+      </c>
+      <c r="B72" s="4">
+        <v>872</v>
+      </c>
+      <c r="C72" s="4">
+        <v>30939</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>40878</v>
+      </c>
+      <c r="B73" s="4">
+        <v>860</v>
+      </c>
+      <c r="C73" s="4">
+        <v>29772</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>40909</v>
+      </c>
+      <c r="B74" s="4">
+        <v>724</v>
+      </c>
+      <c r="C74" s="4">
+        <v>21350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>40940</v>
+      </c>
+      <c r="B75" s="4">
+        <v>835</v>
+      </c>
+      <c r="C75" s="4">
+        <v>23680</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>40969</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1249</v>
+      </c>
+      <c r="C76" s="4">
+        <v>32409</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>41000</v>
+      </c>
+      <c r="B77" s="4">
+        <v>443</v>
+      </c>
+      <c r="C77" s="4">
+        <v>27050</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>41030</v>
+      </c>
+      <c r="B78" s="4">
+        <v>902</v>
+      </c>
+      <c r="C78" s="4">
+        <v>29465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>41061</v>
+      </c>
+      <c r="B79" s="4">
+        <v>764</v>
+      </c>
+      <c r="C79" s="4">
+        <v>28924</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>41091</v>
+      </c>
+      <c r="B80" s="4">
+        <v>604</v>
+      </c>
+      <c r="C80" s="4">
+        <v>20273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>41122</v>
+      </c>
+      <c r="B81" s="4">
+        <v>744</v>
+      </c>
+      <c r="C81" s="4">
+        <v>24296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>41153</v>
+      </c>
+      <c r="B82" s="4">
+        <v>724</v>
+      </c>
+      <c r="C82" s="4">
+        <v>25173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B83" s="4">
+        <v>771</v>
+      </c>
+      <c r="C83" s="4">
+        <v>27668</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>41214</v>
+      </c>
+      <c r="B84" s="4">
+        <v>913</v>
+      </c>
+      <c r="C84" s="4">
+        <v>28464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>41244</v>
+      </c>
+      <c r="B85" s="4">
+        <v>688</v>
+      </c>
+      <c r="C85" s="4">
+        <v>30448</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>41275</v>
+      </c>
+      <c r="B86" s="4">
+        <v>451</v>
+      </c>
+      <c r="C86" s="4">
+        <v>18303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>41306</v>
+      </c>
+      <c r="B87" s="4">
+        <v>847</v>
+      </c>
+      <c r="C87" s="4">
+        <v>20684</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>41334</v>
+      </c>
+      <c r="B88" s="4">
+        <v>1455</v>
+      </c>
+      <c r="C88" s="4">
+        <v>25883</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B89" s="4">
+        <v>401</v>
+      </c>
+      <c r="C89" s="4">
+        <v>27416</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>41395</v>
+      </c>
+      <c r="B90" s="4">
+        <v>646</v>
+      </c>
+      <c r="C90" s="4">
+        <v>28965</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B91" s="4">
+        <v>715</v>
+      </c>
+      <c r="C91" s="4">
+        <v>25957</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B92" s="4">
+        <v>621</v>
+      </c>
+      <c r="C92" s="4">
+        <v>20250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>41487</v>
+      </c>
+      <c r="B93" s="4">
+        <v>692</v>
+      </c>
+      <c r="C93" s="4">
+        <v>24737</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>41518</v>
+      </c>
+      <c r="B94" s="4">
+        <v>822</v>
+      </c>
+      <c r="C94" s="4">
+        <v>27855</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B95" s="4">
+        <v>939</v>
+      </c>
+      <c r="C95" s="4">
+        <v>28641</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B96" s="4">
+        <v>944</v>
+      </c>
+      <c r="C96" s="4">
+        <v>27963</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B97" s="4">
+        <v>634</v>
+      </c>
+      <c r="C97" s="4">
+        <v>30287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>41640</v>
+      </c>
+      <c r="B98" s="4">
+        <v>661</v>
+      </c>
+      <c r="C98" s="4">
+        <v>21485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B99" s="4">
+        <v>810</v>
+      </c>
+      <c r="C99" s="4">
+        <v>24675</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>41699</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1248</v>
+      </c>
+      <c r="C100" s="4">
+        <v>31734</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B101" s="4">
+        <v>667</v>
+      </c>
+      <c r="C101" s="4">
+        <v>31227</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B102" s="4">
+        <v>885</v>
+      </c>
+      <c r="C102" s="4">
+        <v>31219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B103" s="4">
+        <v>756</v>
+      </c>
+      <c r="C103" s="4">
+        <v>32253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>41821</v>
+      </c>
+      <c r="B104" s="4">
+        <v>782</v>
+      </c>
+      <c r="C104" s="4">
+        <v>22892</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1132</v>
+      </c>
+      <c r="C105" s="4">
+        <v>27230</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1114</v>
+      </c>
+      <c r="C106" s="4">
+        <v>30282</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1060</v>
+      </c>
+      <c r="C107" s="4">
+        <v>31905</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B108" s="4">
+        <v>1044</v>
+      </c>
+      <c r="C108" s="4">
+        <v>29467</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1029</v>
+      </c>
+      <c r="C109" s="4">
+        <v>31475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B110" s="4">
+        <v>839</v>
+      </c>
+      <c r="C110" s="4">
+        <v>22942</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1104</v>
+      </c>
+      <c r="C111" s="4">
+        <v>27176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1731</v>
+      </c>
+      <c r="C112" s="4">
+        <v>36274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B113" s="4">
+        <v>776</v>
+      </c>
+      <c r="C113" s="4">
+        <v>34451</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1264</v>
+      </c>
+      <c r="C114" s="4">
+        <v>33445</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>42156</v>
+      </c>
+      <c r="B115" s="4">
+        <v>1400</v>
+      </c>
+      <c r="C115" s="4">
+        <v>36439</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B116" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C116" s="4">
+        <v>26782</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>42217</v>
+      </c>
+      <c r="B117" s="4">
+        <v>987</v>
+      </c>
+      <c r="C117" s="4">
+        <v>29902</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>42248</v>
+      </c>
+      <c r="B118" s="4">
+        <v>1107</v>
+      </c>
+      <c r="C118" s="4">
+        <v>34056</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B119" s="4">
+        <v>1016</v>
+      </c>
+      <c r="C119" s="4">
+        <v>35523</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B120" s="4">
+        <v>1022</v>
+      </c>
+      <c r="C120" s="4">
+        <v>35239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B121" s="4">
+        <v>1304</v>
+      </c>
+      <c r="C121" s="4">
+        <v>37730</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B122" s="4">
+        <v>918</v>
+      </c>
+      <c r="C122" s="4">
+        <v>24468</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B123" s="4">
+        <v>1099</v>
+      </c>
+      <c r="C123" s="4">
+        <v>31253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1739</v>
+      </c>
+      <c r="C124" s="4">
+        <v>39444</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B125" s="4">
+        <v>739</v>
+      </c>
+      <c r="C125" s="4">
+        <v>38196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B126" s="4">
+        <v>981</v>
+      </c>
+      <c r="C126" s="4">
+        <v>38965</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>42522</v>
+      </c>
+      <c r="B127" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C127" s="4">
+        <v>40973</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>42552</v>
+      </c>
+      <c r="B128" s="4">
+        <v>957</v>
+      </c>
+      <c r="C128" s="4">
+        <v>26787</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>42583</v>
+      </c>
+      <c r="B129" s="4">
+        <v>990</v>
+      </c>
+      <c r="C129" s="4">
+        <v>32700</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>42614</v>
+      </c>
+      <c r="B130" s="4">
+        <v>1211</v>
+      </c>
+      <c r="C130" s="4">
+        <v>36859</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>42644</v>
+      </c>
+      <c r="B131" s="4">
+        <v>1181</v>
+      </c>
+      <c r="C131" s="4">
+        <v>36182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>42675</v>
+      </c>
+      <c r="B132" s="4">
+        <v>1063</v>
+      </c>
+      <c r="C132" s="4">
+        <v>35983</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>42705</v>
+      </c>
+      <c r="B133" s="4">
+        <v>1182</v>
+      </c>
+      <c r="C133" s="4">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B134" s="4">
+        <v>1085</v>
+      </c>
+      <c r="C134" s="4">
+        <v>26988</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>42767</v>
+      </c>
+      <c r="B135" s="4">
+        <v>1253</v>
+      </c>
+      <c r="C135" s="4">
+        <v>31731</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B136" s="4">
+        <v>1578</v>
+      </c>
+      <c r="C136" s="4">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>42826</v>
+      </c>
+      <c r="B137" s="4">
+        <v>1047</v>
+      </c>
+      <c r="C137" s="4">
+        <v>34726</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>42856</v>
+      </c>
+      <c r="B138" s="4">
+        <v>1114</v>
+      </c>
+      <c r="C138" s="4">
+        <v>40322</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B139" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C139" s="4">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>42917</v>
+      </c>
+      <c r="B140" s="4">
+        <v>729</v>
+      </c>
+      <c r="C140" s="4">
+        <v>27318</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B141" s="4">
+        <v>981</v>
+      </c>
+      <c r="C141" s="4">
+        <v>34476</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>42979</v>
+      </c>
+      <c r="B142" s="4">
+        <v>1211</v>
+      </c>
+      <c r="C142" s="4">
+        <v>36130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>43009</v>
+      </c>
+      <c r="B143" s="4">
+        <v>951</v>
+      </c>
+      <c r="C143" s="4">
+        <v>37679</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B144" s="4">
+        <v>887</v>
+      </c>
+      <c r="C144" s="4">
+        <v>37474</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B145" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C145" s="4">
+        <v>39991</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B146" s="4">
+        <v>961</v>
+      </c>
+      <c r="C146" s="4">
+        <v>26818</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B147" s="4">
+        <v>1513</v>
+      </c>
+      <c r="C147" s="4">
+        <v>30946</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B148" s="4">
+        <v>1425</v>
+      </c>
+      <c r="C148" s="4">
+        <v>42684</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B149" s="4">
+        <v>942</v>
+      </c>
+      <c r="C149" s="4">
+        <v>38987</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B150" s="4">
+        <v>1035</v>
+      </c>
+      <c r="C150" s="4">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B151" s="4">
+        <v>1247</v>
+      </c>
+      <c r="C151" s="4">
+        <v>82793</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>43282</v>
+      </c>
+      <c r="B152" s="4">
+        <v>747</v>
+      </c>
+      <c r="C152" s="4">
+        <v>13359</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B153" s="4">
+        <v>757</v>
+      </c>
+      <c r="C153" s="4">
+        <v>26432</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B154" s="4">
+        <v>882</v>
+      </c>
+      <c r="C154" s="4">
+        <v>21581</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B155" s="4">
+        <v>1147</v>
+      </c>
+      <c r="C155" s="4">
+        <v>26472</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B156" s="4">
+        <v>1132</v>
+      </c>
+      <c r="C156" s="4">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>43435</v>
+      </c>
+      <c r="B157" s="4">
+        <v>1135</v>
+      </c>
+      <c r="C157" s="4">
+        <v>26944</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>43466</v>
+      </c>
+      <c r="B158" s="4">
+        <v>1103</v>
+      </c>
+      <c r="C158" s="4">
+        <v>23303</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B159" s="4">
+        <v>817</v>
+      </c>
+      <c r="C159" s="4">
+        <v>26354</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B160" s="4">
+        <v>970</v>
+      </c>
+      <c r="C160" s="4">
+        <v>34301</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B161" s="4">
+        <v>649</v>
+      </c>
+      <c r="C161" s="4">
+        <v>34314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B162" s="4">
+        <v>838</v>
+      </c>
+      <c r="C162" s="4">
+        <v>36259</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B163" s="4">
+        <v>862</v>
+      </c>
+      <c r="C163" s="4">
+        <v>36397</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B164" s="4">
+        <v>709</v>
+      </c>
+      <c r="C164" s="4">
+        <v>26178</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B165" s="4">
+        <v>874</v>
+      </c>
+      <c r="C165" s="4">
+        <v>35315</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>43709</v>
+      </c>
+      <c r="B166" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C166" s="4">
+        <v>30458</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B167" s="4">
+        <v>816</v>
+      </c>
+      <c r="C167" s="4">
+        <v>33428</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B168" s="4">
+        <v>1090</v>
+      </c>
+      <c r="C168" s="4">
+        <v>34478</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B169" s="4">
+        <v>1453</v>
+      </c>
+      <c r="C169" s="4">
+        <v>59208</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B170" s="4">
+        <v>694</v>
+      </c>
+      <c r="C170" s="4">
+        <v>18127</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B171" s="4">
+        <v>798</v>
+      </c>
+      <c r="C171" s="4">
+        <v>23733</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B172" s="4">
+        <v>480</v>
+      </c>
+      <c r="C172" s="4">
+        <v>30225</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B173" s="4">
+        <v>297</v>
+      </c>
+      <c r="C173" s="4">
+        <v>21313</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B174" s="4">
+        <v>232</v>
+      </c>
+      <c r="C174" s="4">
+        <v>17987</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B175" s="4">
+        <v>502</v>
+      </c>
+      <c r="C175" s="4">
+        <v>26987</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B176" s="4">
+        <v>642</v>
+      </c>
+      <c r="C176" s="4">
+        <v>24351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B177" s="4">
+        <v>653</v>
+      </c>
+      <c r="C177" s="4">
+        <v>28413</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B178" s="4">
+        <v>821</v>
+      </c>
+      <c r="C178" s="4">
+        <v>32416</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B179" s="4">
+        <v>617</v>
+      </c>
+      <c r="C179" s="4">
+        <v>31343</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B180" s="4">
+        <v>682</v>
+      </c>
+      <c r="C180" s="4">
+        <v>29716</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B181" s="4">
+        <v>619</v>
+      </c>
+      <c r="C181" s="4">
+        <v>38637</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B182" s="4">
+        <v>663</v>
+      </c>
+      <c r="C182" s="4">
+        <v>22723</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B183" s="4">
+        <v>869</v>
+      </c>
+      <c r="C183" s="4">
+        <v>25646</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B184" s="4">
+        <v>1016</v>
+      </c>
+      <c r="C184" s="4">
+        <v>56221</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B185" s="4">
+        <v>853</v>
+      </c>
+      <c r="C185" s="4">
+        <v>23699</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B186" s="4">
+        <v>503</v>
+      </c>
+      <c r="C186" s="4">
+        <v>27114</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B187" s="4">
+        <v>360</v>
+      </c>
+      <c r="C187" s="4">
+        <v>39233</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B188" s="4">
+        <v>518</v>
+      </c>
+      <c r="C188" s="4">
+        <v>18326</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B189" s="4">
+        <v>324</v>
+      </c>
+      <c r="C189" s="4">
+        <v>22440</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B190" s="4">
+        <v>659</v>
+      </c>
+      <c r="C190" s="4">
+        <v>25607</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B191" s="4">
+        <v>678</v>
+      </c>
+      <c r="C191" s="4">
+        <v>22363</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B192" s="4">
+        <v>807</v>
+      </c>
+      <c r="C192" s="4">
+        <v>23477</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B193" s="4">
+        <v>606</v>
+      </c>
+      <c r="C193" s="4">
+        <v>30368</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B194" s="4">
+        <v>420</v>
+      </c>
+      <c r="C194" s="4">
+        <v>21967</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B195" s="4">
+        <v>312</v>
+      </c>
+      <c r="C195" s="4">
+        <v>23731</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B196" s="4">
+        <v>525</v>
+      </c>
+      <c r="C196" s="4">
+        <v>32151</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B197" s="4">
+        <v>655</v>
+      </c>
+      <c r="C197" s="4">
+        <v>24896</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B198" s="4">
+        <v>466</v>
+      </c>
+      <c r="C198" s="4">
+        <v>29396</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B199" s="4">
+        <v>345</v>
+      </c>
+      <c r="C199" s="4">
+        <v>28707</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B200" s="4">
+        <v>329</v>
+      </c>
+      <c r="C200" s="4">
+        <v>19353</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B201" s="4">
+        <v>744</v>
+      </c>
+      <c r="C201" s="4">
+        <v>23641</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B202" s="4">
+        <v>666</v>
+      </c>
+      <c r="C202" s="4">
+        <v>25320</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B203" s="4">
+        <v>711</v>
+      </c>
+      <c r="C203" s="4">
+        <v>24961</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B204" s="4">
+        <v>609</v>
+      </c>
+      <c r="C204" s="4">
+        <v>28949</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B205" s="4">
+        <v>810</v>
+      </c>
+      <c r="C205" s="4">
+        <v>39443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E205"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCellId="1" sqref="E1:E1048576 A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="5" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3963,12 +13077,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF90EEB9-69F8-423B-BD47-BA365D7D3A6B}">
   <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/5. Master_thesis/Datasets/Output_files/target.xlsx
+++ b/5. Master_thesis/Datasets/Output_files/target.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Projects\5. Master_thesis\Datasets\Output_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF5D06-40A9-4211-82CD-4F82FD5FFED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED283FDC-C39A-4219-B3EC-A266BEFDC6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6975" yWindow="2100" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIN" sheetId="7" r:id="rId1"/>
     <sheet name="DEN" sheetId="8" r:id="rId2"/>
     <sheet name="NOR" sheetId="9" r:id="rId3"/>
     <sheet name="SWE" sheetId="10" r:id="rId4"/>
-    <sheet name="Orders" sheetId="5" r:id="rId5"/>
-    <sheet name="TIV" sheetId="6" r:id="rId6"/>
+    <sheet name="TIV" sheetId="6" r:id="rId5"/>
+    <sheet name="Orders" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -9574,3510 +9574,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E205"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCellId="1" sqref="E1:E1048576 A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="5" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>38718</v>
-      </c>
-      <c r="B2">
-        <v>1124</v>
-      </c>
-      <c r="C2">
-        <v>161</v>
-      </c>
-      <c r="D2">
-        <v>233</v>
-      </c>
-      <c r="E2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>38749</v>
-      </c>
-      <c r="B3">
-        <v>1079</v>
-      </c>
-      <c r="C3">
-        <v>250</v>
-      </c>
-      <c r="D3">
-        <v>270</v>
-      </c>
-      <c r="E3">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>38777</v>
-      </c>
-      <c r="B4">
-        <v>1210</v>
-      </c>
-      <c r="C4">
-        <v>468</v>
-      </c>
-      <c r="D4">
-        <v>406</v>
-      </c>
-      <c r="E4">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>38808</v>
-      </c>
-      <c r="B5">
-        <v>1147</v>
-      </c>
-      <c r="C5">
-        <v>412</v>
-      </c>
-      <c r="D5">
-        <v>356</v>
-      </c>
-      <c r="E5">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>38838</v>
-      </c>
-      <c r="B6">
-        <v>1001</v>
-      </c>
-      <c r="C6">
-        <v>550</v>
-      </c>
-      <c r="D6">
-        <v>553</v>
-      </c>
-      <c r="E6">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>38869</v>
-      </c>
-      <c r="B7">
-        <v>1087</v>
-      </c>
-      <c r="C7">
-        <v>441</v>
-      </c>
-      <c r="D7">
-        <v>865</v>
-      </c>
-      <c r="E7">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>38899</v>
-      </c>
-      <c r="B8">
-        <v>728</v>
-      </c>
-      <c r="C8">
-        <v>464</v>
-      </c>
-      <c r="D8">
-        <v>540</v>
-      </c>
-      <c r="E8">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>38930</v>
-      </c>
-      <c r="B9">
-        <v>605</v>
-      </c>
-      <c r="C9">
-        <v>416</v>
-      </c>
-      <c r="D9">
-        <v>417</v>
-      </c>
-      <c r="E9">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>38961</v>
-      </c>
-      <c r="B10">
-        <v>1081</v>
-      </c>
-      <c r="C10">
-        <v>414</v>
-      </c>
-      <c r="D10">
-        <v>643</v>
-      </c>
-      <c r="E10">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>38991</v>
-      </c>
-      <c r="B11">
-        <v>786</v>
-      </c>
-      <c r="C11">
-        <v>471</v>
-      </c>
-      <c r="D11">
-        <v>383</v>
-      </c>
-      <c r="E11">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>39022</v>
-      </c>
-      <c r="B12">
-        <v>689</v>
-      </c>
-      <c r="C12">
-        <v>371</v>
-      </c>
-      <c r="D12">
-        <v>488</v>
-      </c>
-      <c r="E12">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>39052</v>
-      </c>
-      <c r="B13">
-        <v>715</v>
-      </c>
-      <c r="C13">
-        <v>477</v>
-      </c>
-      <c r="D13">
-        <v>836</v>
-      </c>
-      <c r="E13">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>39083</v>
-      </c>
-      <c r="B14">
-        <v>998</v>
-      </c>
-      <c r="C14">
-        <v>331</v>
-      </c>
-      <c r="D14">
-        <v>284</v>
-      </c>
-      <c r="E14">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>39114</v>
-      </c>
-      <c r="B15">
-        <v>638</v>
-      </c>
-      <c r="C15">
-        <v>299</v>
-      </c>
-      <c r="D15">
-        <v>483</v>
-      </c>
-      <c r="E15">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>39142</v>
-      </c>
-      <c r="B16">
-        <v>649</v>
-      </c>
-      <c r="C16">
-        <v>378</v>
-      </c>
-      <c r="D16">
-        <v>512</v>
-      </c>
-      <c r="E16">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>39173</v>
-      </c>
-      <c r="B17">
-        <v>753</v>
-      </c>
-      <c r="C17">
-        <v>267</v>
-      </c>
-      <c r="D17">
-        <v>565</v>
-      </c>
-      <c r="E17">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>39203</v>
-      </c>
-      <c r="B18">
-        <v>856</v>
-      </c>
-      <c r="C18">
-        <v>337</v>
-      </c>
-      <c r="D18">
-        <v>526</v>
-      </c>
-      <c r="E18">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>39234</v>
-      </c>
-      <c r="B19">
-        <v>825</v>
-      </c>
-      <c r="C19">
-        <v>445</v>
-      </c>
-      <c r="D19">
-        <v>555</v>
-      </c>
-      <c r="E19">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>39264</v>
-      </c>
-      <c r="B20">
-        <v>685</v>
-      </c>
-      <c r="C20">
-        <v>208</v>
-      </c>
-      <c r="D20">
-        <v>522</v>
-      </c>
-      <c r="E20">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>39295</v>
-      </c>
-      <c r="B21">
-        <v>755</v>
-      </c>
-      <c r="C21">
-        <v>319</v>
-      </c>
-      <c r="D21">
-        <v>534</v>
-      </c>
-      <c r="E21">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>39326</v>
-      </c>
-      <c r="B22">
-        <v>755</v>
-      </c>
-      <c r="C22">
-        <v>407</v>
-      </c>
-      <c r="D22">
-        <v>711</v>
-      </c>
-      <c r="E22">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>39356</v>
-      </c>
-      <c r="B23">
-        <v>640</v>
-      </c>
-      <c r="C23">
-        <v>451</v>
-      </c>
-      <c r="D23">
-        <v>828</v>
-      </c>
-      <c r="E23">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>39387</v>
-      </c>
-      <c r="B24">
-        <v>130</v>
-      </c>
-      <c r="C24">
-        <v>324</v>
-      </c>
-      <c r="D24">
-        <v>614</v>
-      </c>
-      <c r="E24">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>39417</v>
-      </c>
-      <c r="B25">
-        <v>155</v>
-      </c>
-      <c r="C25">
-        <v>373</v>
-      </c>
-      <c r="D25">
-        <v>603</v>
-      </c>
-      <c r="E25">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>39448</v>
-      </c>
-      <c r="B26">
-        <v>900</v>
-      </c>
-      <c r="C26">
-        <v>401</v>
-      </c>
-      <c r="D26">
-        <v>757</v>
-      </c>
-      <c r="E26">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>39479</v>
-      </c>
-      <c r="B27">
-        <v>609</v>
-      </c>
-      <c r="C27">
-        <v>427</v>
-      </c>
-      <c r="D27">
-        <v>797</v>
-      </c>
-      <c r="E27">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>39508</v>
-      </c>
-      <c r="B28">
-        <v>765</v>
-      </c>
-      <c r="C28">
-        <v>522</v>
-      </c>
-      <c r="D28">
-        <v>568</v>
-      </c>
-      <c r="E28">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>39539</v>
-      </c>
-      <c r="B29">
-        <v>638</v>
-      </c>
-      <c r="C29">
-        <v>333</v>
-      </c>
-      <c r="D29">
-        <v>429</v>
-      </c>
-      <c r="E29">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>39569</v>
-      </c>
-      <c r="B30">
-        <v>799</v>
-      </c>
-      <c r="C30">
-        <v>375</v>
-      </c>
-      <c r="D30">
-        <v>569</v>
-      </c>
-      <c r="E30">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>39600</v>
-      </c>
-      <c r="B31">
-        <v>666</v>
-      </c>
-      <c r="C31">
-        <v>522</v>
-      </c>
-      <c r="D31">
-        <v>588</v>
-      </c>
-      <c r="E31">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>39630</v>
-      </c>
-      <c r="B32">
-        <v>574</v>
-      </c>
-      <c r="C32">
-        <v>351</v>
-      </c>
-      <c r="D32">
-        <v>408</v>
-      </c>
-      <c r="E32">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>39661</v>
-      </c>
-      <c r="B33">
-        <v>443</v>
-      </c>
-      <c r="C33">
-        <v>319</v>
-      </c>
-      <c r="D33">
-        <v>495</v>
-      </c>
-      <c r="E33">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>39692</v>
-      </c>
-      <c r="B34">
-        <v>489</v>
-      </c>
-      <c r="C34">
-        <v>398</v>
-      </c>
-      <c r="D34">
-        <v>378</v>
-      </c>
-      <c r="E34">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>39722</v>
-      </c>
-      <c r="B35">
-        <v>527</v>
-      </c>
-      <c r="C35">
-        <v>389</v>
-      </c>
-      <c r="D35">
-        <v>368</v>
-      </c>
-      <c r="E35">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>39753</v>
-      </c>
-      <c r="B36">
-        <v>235</v>
-      </c>
-      <c r="C36">
-        <v>343</v>
-      </c>
-      <c r="D36">
-        <v>261</v>
-      </c>
-      <c r="E36">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>39783</v>
-      </c>
-      <c r="B37">
-        <v>122</v>
-      </c>
-      <c r="C37">
-        <v>263</v>
-      </c>
-      <c r="D37">
-        <v>197</v>
-      </c>
-      <c r="E37">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>39814</v>
-      </c>
-      <c r="B38">
-        <v>508</v>
-      </c>
-      <c r="C38">
-        <v>359</v>
-      </c>
-      <c r="D38">
-        <v>323</v>
-      </c>
-      <c r="E38">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>39845</v>
-      </c>
-      <c r="B39">
-        <v>311</v>
-      </c>
-      <c r="C39">
-        <v>482</v>
-      </c>
-      <c r="D39">
-        <v>238</v>
-      </c>
-      <c r="E39">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>39873</v>
-      </c>
-      <c r="B40">
-        <v>629</v>
-      </c>
-      <c r="C40">
-        <v>383</v>
-      </c>
-      <c r="D40">
-        <v>443</v>
-      </c>
-      <c r="E40">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>39904</v>
-      </c>
-      <c r="B41">
-        <v>294</v>
-      </c>
-      <c r="C41">
-        <v>477</v>
-      </c>
-      <c r="D41">
-        <v>221</v>
-      </c>
-      <c r="E41">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>39934</v>
-      </c>
-      <c r="B42">
-        <v>306</v>
-      </c>
-      <c r="C42">
-        <v>323</v>
-      </c>
-      <c r="D42">
-        <v>279</v>
-      </c>
-      <c r="E42">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>39965</v>
-      </c>
-      <c r="B43">
-        <v>338</v>
-      </c>
-      <c r="C43">
-        <v>374</v>
-      </c>
-      <c r="D43">
-        <v>303</v>
-      </c>
-      <c r="E43">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>39995</v>
-      </c>
-      <c r="B44">
-        <v>319</v>
-      </c>
-      <c r="C44">
-        <v>306</v>
-      </c>
-      <c r="D44">
-        <v>423</v>
-      </c>
-      <c r="E44">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>40026</v>
-      </c>
-      <c r="B45">
-        <v>367</v>
-      </c>
-      <c r="C45">
-        <v>396</v>
-      </c>
-      <c r="D45">
-        <v>454</v>
-      </c>
-      <c r="E45">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>40057</v>
-      </c>
-      <c r="B46">
-        <v>422</v>
-      </c>
-      <c r="C46">
-        <v>533</v>
-      </c>
-      <c r="D46">
-        <v>439</v>
-      </c>
-      <c r="E46">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>40087</v>
-      </c>
-      <c r="B47">
-        <v>352</v>
-      </c>
-      <c r="C47">
-        <v>374</v>
-      </c>
-      <c r="D47">
-        <v>425</v>
-      </c>
-      <c r="E47">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>40118</v>
-      </c>
-      <c r="B48">
-        <v>274</v>
-      </c>
-      <c r="C48">
-        <v>409</v>
-      </c>
-      <c r="D48">
-        <v>503</v>
-      </c>
-      <c r="E48">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>40148</v>
-      </c>
-      <c r="B49">
-        <v>178</v>
-      </c>
-      <c r="C49">
-        <v>365</v>
-      </c>
-      <c r="D49">
-        <v>347</v>
-      </c>
-      <c r="E49">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>40179</v>
-      </c>
-      <c r="B50">
-        <v>711</v>
-      </c>
-      <c r="C50">
-        <v>435</v>
-      </c>
-      <c r="D50">
-        <v>363</v>
-      </c>
-      <c r="E50">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>40210</v>
-      </c>
-      <c r="B51">
-        <v>519</v>
-      </c>
-      <c r="C51">
-        <v>391</v>
-      </c>
-      <c r="D51">
-        <v>390</v>
-      </c>
-      <c r="E51">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>40238</v>
-      </c>
-      <c r="B52">
-        <v>647</v>
-      </c>
-      <c r="C52">
-        <v>455</v>
-      </c>
-      <c r="D52">
-        <v>473</v>
-      </c>
-      <c r="E52">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>40269</v>
-      </c>
-      <c r="B53">
-        <v>524</v>
-      </c>
-      <c r="C53">
-        <v>347</v>
-      </c>
-      <c r="D53">
-        <v>527</v>
-      </c>
-      <c r="E53">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>40299</v>
-      </c>
-      <c r="B54">
-        <v>608</v>
-      </c>
-      <c r="C54">
-        <v>439</v>
-      </c>
-      <c r="D54">
-        <v>488</v>
-      </c>
-      <c r="E54">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>40330</v>
-      </c>
-      <c r="B55">
-        <v>662</v>
-      </c>
-      <c r="C55">
-        <v>449</v>
-      </c>
-      <c r="D55">
-        <v>545</v>
-      </c>
-      <c r="E55">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>40360</v>
-      </c>
-      <c r="B56">
-        <v>468</v>
-      </c>
-      <c r="C56">
-        <v>383</v>
-      </c>
-      <c r="D56">
-        <v>476</v>
-      </c>
-      <c r="E56">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>40391</v>
-      </c>
-      <c r="B57">
-        <v>532</v>
-      </c>
-      <c r="C57">
-        <v>403</v>
-      </c>
-      <c r="D57">
-        <v>509</v>
-      </c>
-      <c r="E57">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>40422</v>
-      </c>
-      <c r="B58">
-        <v>561</v>
-      </c>
-      <c r="C58">
-        <v>367</v>
-      </c>
-      <c r="D58">
-        <v>530</v>
-      </c>
-      <c r="E58">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>40452</v>
-      </c>
-      <c r="B59">
-        <v>662</v>
-      </c>
-      <c r="C59">
-        <v>453</v>
-      </c>
-      <c r="D59">
-        <v>540</v>
-      </c>
-      <c r="E59">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>40483</v>
-      </c>
-      <c r="B60">
-        <v>503</v>
-      </c>
-      <c r="C60">
-        <v>432</v>
-      </c>
-      <c r="D60">
-        <v>577</v>
-      </c>
-      <c r="E60">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>40513</v>
-      </c>
-      <c r="B61">
-        <v>402</v>
-      </c>
-      <c r="C61">
-        <v>434</v>
-      </c>
-      <c r="D61">
-        <v>411</v>
-      </c>
-      <c r="E61">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>40544</v>
-      </c>
-      <c r="B62">
-        <v>901</v>
-      </c>
-      <c r="C62">
-        <v>420</v>
-      </c>
-      <c r="D62">
-        <v>591</v>
-      </c>
-      <c r="E62">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>40575</v>
-      </c>
-      <c r="B63">
-        <v>671</v>
-      </c>
-      <c r="C63">
-        <v>482</v>
-      </c>
-      <c r="D63">
-        <v>586</v>
-      </c>
-      <c r="E63">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>40603</v>
-      </c>
-      <c r="B64">
-        <v>917</v>
-      </c>
-      <c r="C64">
-        <v>693</v>
-      </c>
-      <c r="D64">
-        <v>526</v>
-      </c>
-      <c r="E64">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>40634</v>
-      </c>
-      <c r="B65">
-        <v>785</v>
-      </c>
-      <c r="C65">
-        <v>491</v>
-      </c>
-      <c r="D65">
-        <v>609</v>
-      </c>
-      <c r="E65">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>40664</v>
-      </c>
-      <c r="B66">
-        <v>764</v>
-      </c>
-      <c r="C66">
-        <v>523</v>
-      </c>
-      <c r="D66">
-        <v>602</v>
-      </c>
-      <c r="E66">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>40695</v>
-      </c>
-      <c r="B67">
-        <v>645</v>
-      </c>
-      <c r="C67">
-        <v>536</v>
-      </c>
-      <c r="D67">
-        <v>560</v>
-      </c>
-      <c r="E67">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>40725</v>
-      </c>
-      <c r="B68">
-        <v>529</v>
-      </c>
-      <c r="C68">
-        <v>361</v>
-      </c>
-      <c r="D68">
-        <v>467</v>
-      </c>
-      <c r="E68">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>40756</v>
-      </c>
-      <c r="B69">
-        <v>690</v>
-      </c>
-      <c r="C69">
-        <v>463</v>
-      </c>
-      <c r="D69">
-        <v>560</v>
-      </c>
-      <c r="E69">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>40787</v>
-      </c>
-      <c r="B70">
-        <v>842</v>
-      </c>
-      <c r="C70">
-        <v>585</v>
-      </c>
-      <c r="D70">
-        <v>645</v>
-      </c>
-      <c r="E70">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>40817</v>
-      </c>
-      <c r="B71">
-        <v>632</v>
-      </c>
-      <c r="C71">
-        <v>504</v>
-      </c>
-      <c r="D71">
-        <v>576</v>
-      </c>
-      <c r="E71">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>40848</v>
-      </c>
-      <c r="B72">
-        <v>570</v>
-      </c>
-      <c r="C72">
-        <v>595</v>
-      </c>
-      <c r="D72">
-        <v>706</v>
-      </c>
-      <c r="E72">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>40878</v>
-      </c>
-      <c r="B73">
-        <v>405</v>
-      </c>
-      <c r="C73">
-        <v>459</v>
-      </c>
-      <c r="D73">
-        <v>598</v>
-      </c>
-      <c r="E73">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>40909</v>
-      </c>
-      <c r="B74">
-        <v>1021</v>
-      </c>
-      <c r="C74">
-        <v>478</v>
-      </c>
-      <c r="D74">
-        <v>887</v>
-      </c>
-      <c r="E74">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>40940</v>
-      </c>
-      <c r="B75">
-        <v>770</v>
-      </c>
-      <c r="C75">
-        <v>682</v>
-      </c>
-      <c r="D75">
-        <v>563</v>
-      </c>
-      <c r="E75">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>40969</v>
-      </c>
-      <c r="B76">
-        <v>1268</v>
-      </c>
-      <c r="C76">
-        <v>518</v>
-      </c>
-      <c r="D76">
-        <v>761</v>
-      </c>
-      <c r="E76">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>41000</v>
-      </c>
-      <c r="B77">
-        <v>349</v>
-      </c>
-      <c r="C77">
-        <v>329</v>
-      </c>
-      <c r="D77">
-        <v>546</v>
-      </c>
-      <c r="E77">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>41030</v>
-      </c>
-      <c r="B78">
-        <v>413</v>
-      </c>
-      <c r="C78">
-        <v>413</v>
-      </c>
-      <c r="D78">
-        <v>588</v>
-      </c>
-      <c r="E78">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>41061</v>
-      </c>
-      <c r="B79">
-        <v>473</v>
-      </c>
-      <c r="C79">
-        <v>537</v>
-      </c>
-      <c r="D79">
-        <v>627</v>
-      </c>
-      <c r="E79">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>41091</v>
-      </c>
-      <c r="B80">
-        <v>408</v>
-      </c>
-      <c r="C80">
-        <v>530</v>
-      </c>
-      <c r="D80">
-        <v>520</v>
-      </c>
-      <c r="E80">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>41122</v>
-      </c>
-      <c r="B81">
-        <v>485</v>
-      </c>
-      <c r="C81">
-        <v>559</v>
-      </c>
-      <c r="D81">
-        <v>661</v>
-      </c>
-      <c r="E81">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>41153</v>
-      </c>
-      <c r="B82">
-        <v>765</v>
-      </c>
-      <c r="C82">
-        <v>629</v>
-      </c>
-      <c r="D82">
-        <v>728</v>
-      </c>
-      <c r="E82">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>41183</v>
-      </c>
-      <c r="B83">
-        <v>604</v>
-      </c>
-      <c r="C83">
-        <v>663</v>
-      </c>
-      <c r="D83">
-        <v>645</v>
-      </c>
-      <c r="E83">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>41214</v>
-      </c>
-      <c r="B84">
-        <v>584</v>
-      </c>
-      <c r="C84">
-        <v>732</v>
-      </c>
-      <c r="D84">
-        <v>657</v>
-      </c>
-      <c r="E84">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>41244</v>
-      </c>
-      <c r="B85">
-        <v>519</v>
-      </c>
-      <c r="C85">
-        <v>798</v>
-      </c>
-      <c r="D85">
-        <v>542</v>
-      </c>
-      <c r="E85">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>41275</v>
-      </c>
-      <c r="B86">
-        <v>648</v>
-      </c>
-      <c r="C86">
-        <v>755</v>
-      </c>
-      <c r="D86">
-        <v>597</v>
-      </c>
-      <c r="E86">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>41306</v>
-      </c>
-      <c r="B87">
-        <v>553</v>
-      </c>
-      <c r="C87">
-        <v>752</v>
-      </c>
-      <c r="D87">
-        <v>725</v>
-      </c>
-      <c r="E87">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>41334</v>
-      </c>
-      <c r="B88">
-        <v>728</v>
-      </c>
-      <c r="C88">
-        <v>1052</v>
-      </c>
-      <c r="D88">
-        <v>1123</v>
-      </c>
-      <c r="E88">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>41365</v>
-      </c>
-      <c r="B89">
-        <v>456</v>
-      </c>
-      <c r="C89">
-        <v>658</v>
-      </c>
-      <c r="D89">
-        <v>506</v>
-      </c>
-      <c r="E89">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>41395</v>
-      </c>
-      <c r="B90">
-        <v>609</v>
-      </c>
-      <c r="C90">
-        <v>891</v>
-      </c>
-      <c r="D90">
-        <v>631</v>
-      </c>
-      <c r="E90">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>41426</v>
-      </c>
-      <c r="B91">
-        <v>465</v>
-      </c>
-      <c r="C91">
-        <v>1087</v>
-      </c>
-      <c r="D91">
-        <v>682</v>
-      </c>
-      <c r="E91">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>41456</v>
-      </c>
-      <c r="B92">
-        <v>440</v>
-      </c>
-      <c r="C92">
-        <v>990</v>
-      </c>
-      <c r="D92">
-        <v>566</v>
-      </c>
-      <c r="E92">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>41487</v>
-      </c>
-      <c r="B93">
-        <v>518</v>
-      </c>
-      <c r="C93">
-        <v>899</v>
-      </c>
-      <c r="D93">
-        <v>716</v>
-      </c>
-      <c r="E93">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>41518</v>
-      </c>
-      <c r="B94">
-        <v>559</v>
-      </c>
-      <c r="C94">
-        <v>1026</v>
-      </c>
-      <c r="D94">
-        <v>780</v>
-      </c>
-      <c r="E94">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>41548</v>
-      </c>
-      <c r="B95">
-        <v>657</v>
-      </c>
-      <c r="C95">
-        <v>1135</v>
-      </c>
-      <c r="D95">
-        <v>962</v>
-      </c>
-      <c r="E95">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>41579</v>
-      </c>
-      <c r="B96">
-        <v>600</v>
-      </c>
-      <c r="C96">
-        <v>754</v>
-      </c>
-      <c r="D96">
-        <v>902</v>
-      </c>
-      <c r="E96">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>41609</v>
-      </c>
-      <c r="B97">
-        <v>481</v>
-      </c>
-      <c r="C97">
-        <v>689</v>
-      </c>
-      <c r="D97">
-        <v>678</v>
-      </c>
-      <c r="E97">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>41640</v>
-      </c>
-      <c r="B98">
-        <v>441</v>
-      </c>
-      <c r="C98">
-        <v>718</v>
-      </c>
-      <c r="D98">
-        <v>803</v>
-      </c>
-      <c r="E98">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>41671</v>
-      </c>
-      <c r="B99">
-        <v>653</v>
-      </c>
-      <c r="C99">
-        <v>684</v>
-      </c>
-      <c r="D99">
-        <v>776</v>
-      </c>
-      <c r="E99">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>41699</v>
-      </c>
-      <c r="B100">
-        <v>928</v>
-      </c>
-      <c r="C100">
-        <v>1227</v>
-      </c>
-      <c r="D100">
-        <v>1084</v>
-      </c>
-      <c r="E100">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>41730</v>
-      </c>
-      <c r="B101">
-        <v>527</v>
-      </c>
-      <c r="C101">
-        <v>662</v>
-      </c>
-      <c r="D101">
-        <v>702</v>
-      </c>
-      <c r="E101">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>41760</v>
-      </c>
-      <c r="B102">
-        <v>602</v>
-      </c>
-      <c r="C102">
-        <v>761</v>
-      </c>
-      <c r="D102">
-        <v>764</v>
-      </c>
-      <c r="E102">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>41791</v>
-      </c>
-      <c r="B103">
-        <v>587</v>
-      </c>
-      <c r="C103">
-        <v>902</v>
-      </c>
-      <c r="D103">
-        <v>625</v>
-      </c>
-      <c r="E103">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>41821</v>
-      </c>
-      <c r="B104">
-        <v>511</v>
-      </c>
-      <c r="C104">
-        <v>811</v>
-      </c>
-      <c r="D104">
-        <v>622</v>
-      </c>
-      <c r="E104">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>41852</v>
-      </c>
-      <c r="B105">
-        <v>587</v>
-      </c>
-      <c r="C105">
-        <v>852</v>
-      </c>
-      <c r="D105">
-        <v>806</v>
-      </c>
-      <c r="E105">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>41883</v>
-      </c>
-      <c r="B106">
-        <v>612</v>
-      </c>
-      <c r="C106">
-        <v>960</v>
-      </c>
-      <c r="D106">
-        <v>869</v>
-      </c>
-      <c r="E106">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>41913</v>
-      </c>
-      <c r="B107">
-        <v>653</v>
-      </c>
-      <c r="C107">
-        <v>821</v>
-      </c>
-      <c r="D107">
-        <v>912</v>
-      </c>
-      <c r="E107">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>41944</v>
-      </c>
-      <c r="B108">
-        <v>578</v>
-      </c>
-      <c r="C108">
-        <v>825</v>
-      </c>
-      <c r="D108">
-        <v>846</v>
-      </c>
-      <c r="E108">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>41974</v>
-      </c>
-      <c r="B109">
-        <v>650</v>
-      </c>
-      <c r="C109">
-        <v>1170</v>
-      </c>
-      <c r="D109">
-        <v>829</v>
-      </c>
-      <c r="E109">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>42005</v>
-      </c>
-      <c r="B110">
-        <v>710</v>
-      </c>
-      <c r="C110">
-        <v>744</v>
-      </c>
-      <c r="D110">
-        <v>788</v>
-      </c>
-      <c r="E110">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>42036</v>
-      </c>
-      <c r="B111">
-        <v>693</v>
-      </c>
-      <c r="C111">
-        <v>777</v>
-      </c>
-      <c r="D111">
-        <v>860</v>
-      </c>
-      <c r="E111">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>42064</v>
-      </c>
-      <c r="B112">
-        <v>1154</v>
-      </c>
-      <c r="C112">
-        <v>1563</v>
-      </c>
-      <c r="D112">
-        <v>1302</v>
-      </c>
-      <c r="E112">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>42095</v>
-      </c>
-      <c r="B113">
-        <v>344</v>
-      </c>
-      <c r="C113">
-        <v>373</v>
-      </c>
-      <c r="D113">
-        <v>496</v>
-      </c>
-      <c r="E113">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>42125</v>
-      </c>
-      <c r="B114">
-        <v>562</v>
-      </c>
-      <c r="C114">
-        <v>1160</v>
-      </c>
-      <c r="D114">
-        <v>447</v>
-      </c>
-      <c r="E114">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>42156</v>
-      </c>
-      <c r="B115">
-        <v>656</v>
-      </c>
-      <c r="C115">
-        <v>993</v>
-      </c>
-      <c r="D115">
-        <v>868</v>
-      </c>
-      <c r="E115">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>42186</v>
-      </c>
-      <c r="B116">
-        <v>578</v>
-      </c>
-      <c r="C116">
-        <v>927</v>
-      </c>
-      <c r="D116">
-        <v>602</v>
-      </c>
-      <c r="E116">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>42217</v>
-      </c>
-      <c r="B117">
-        <v>552</v>
-      </c>
-      <c r="C117">
-        <v>863</v>
-      </c>
-      <c r="D117">
-        <v>840</v>
-      </c>
-      <c r="E117">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>42248</v>
-      </c>
-      <c r="B118">
-        <v>757</v>
-      </c>
-      <c r="C118">
-        <v>835</v>
-      </c>
-      <c r="D118">
-        <v>835</v>
-      </c>
-      <c r="E118">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>42278</v>
-      </c>
-      <c r="B119">
-        <v>699</v>
-      </c>
-      <c r="C119">
-        <v>891</v>
-      </c>
-      <c r="D119">
-        <v>763</v>
-      </c>
-      <c r="E119">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>42309</v>
-      </c>
-      <c r="B120">
-        <v>486</v>
-      </c>
-      <c r="C120">
-        <v>717</v>
-      </c>
-      <c r="D120">
-        <v>596</v>
-      </c>
-      <c r="E120">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>42339</v>
-      </c>
-      <c r="B121">
-        <v>517</v>
-      </c>
-      <c r="C121">
-        <v>749</v>
-      </c>
-      <c r="D121">
-        <v>889</v>
-      </c>
-      <c r="E121">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>42370</v>
-      </c>
-      <c r="B122">
-        <v>689</v>
-      </c>
-      <c r="C122">
-        <v>803</v>
-      </c>
-      <c r="D122">
-        <v>394</v>
-      </c>
-      <c r="E122">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>42401</v>
-      </c>
-      <c r="B123">
-        <v>740</v>
-      </c>
-      <c r="C123">
-        <v>1007</v>
-      </c>
-      <c r="D123">
-        <v>864</v>
-      </c>
-      <c r="E123">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>42430</v>
-      </c>
-      <c r="B124">
-        <v>1089</v>
-      </c>
-      <c r="C124">
-        <v>769</v>
-      </c>
-      <c r="D124">
-        <v>1511</v>
-      </c>
-      <c r="E124">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>42461</v>
-      </c>
-      <c r="B125">
-        <v>517</v>
-      </c>
-      <c r="C125">
-        <v>595</v>
-      </c>
-      <c r="D125">
-        <v>558</v>
-      </c>
-      <c r="E125">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>42491</v>
-      </c>
-      <c r="B126">
-        <v>616</v>
-      </c>
-      <c r="C126">
-        <v>982</v>
-      </c>
-      <c r="D126">
-        <v>582</v>
-      </c>
-      <c r="E126">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>42522</v>
-      </c>
-      <c r="B127">
-        <v>715</v>
-      </c>
-      <c r="C127">
-        <v>1179</v>
-      </c>
-      <c r="D127">
-        <v>666</v>
-      </c>
-      <c r="E127">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>42552</v>
-      </c>
-      <c r="B128">
-        <v>574</v>
-      </c>
-      <c r="C128">
-        <v>1033</v>
-      </c>
-      <c r="D128">
-        <v>668</v>
-      </c>
-      <c r="E128">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>42583</v>
-      </c>
-      <c r="B129">
-        <v>647</v>
-      </c>
-      <c r="C129">
-        <v>606</v>
-      </c>
-      <c r="D129">
-        <v>687</v>
-      </c>
-      <c r="E129">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>42614</v>
-      </c>
-      <c r="B130">
-        <v>830</v>
-      </c>
-      <c r="C130">
-        <v>987</v>
-      </c>
-      <c r="D130">
-        <v>739</v>
-      </c>
-      <c r="E130">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>42644</v>
-      </c>
-      <c r="B131">
-        <v>700</v>
-      </c>
-      <c r="C131">
-        <v>829</v>
-      </c>
-      <c r="D131">
-        <v>643</v>
-      </c>
-      <c r="E131">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>42675</v>
-      </c>
-      <c r="B132">
-        <v>613</v>
-      </c>
-      <c r="C132">
-        <v>929</v>
-      </c>
-      <c r="D132">
-        <v>854</v>
-      </c>
-      <c r="E132">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>42705</v>
-      </c>
-      <c r="B133">
-        <v>522</v>
-      </c>
-      <c r="C133">
-        <v>1054</v>
-      </c>
-      <c r="D133">
-        <v>733</v>
-      </c>
-      <c r="E133">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>42736</v>
-      </c>
-      <c r="B134">
-        <v>709</v>
-      </c>
-      <c r="C134">
-        <v>929</v>
-      </c>
-      <c r="D134">
-        <v>618</v>
-      </c>
-      <c r="E134">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>42767</v>
-      </c>
-      <c r="B135">
-        <v>730</v>
-      </c>
-      <c r="C135">
-        <v>1328</v>
-      </c>
-      <c r="D135">
-        <v>905</v>
-      </c>
-      <c r="E135">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>42795</v>
-      </c>
-      <c r="B136">
-        <v>916</v>
-      </c>
-      <c r="C136">
-        <v>1605</v>
-      </c>
-      <c r="D136">
-        <v>990</v>
-      </c>
-      <c r="E136">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>42826</v>
-      </c>
-      <c r="B137">
-        <v>556</v>
-      </c>
-      <c r="C137">
-        <v>606</v>
-      </c>
-      <c r="D137">
-        <v>359</v>
-      </c>
-      <c r="E137">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>42856</v>
-      </c>
-      <c r="B138">
-        <v>585</v>
-      </c>
-      <c r="C138">
-        <v>1163</v>
-      </c>
-      <c r="D138">
-        <v>663</v>
-      </c>
-      <c r="E138">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <v>42887</v>
-      </c>
-      <c r="B139">
-        <v>469</v>
-      </c>
-      <c r="C139">
-        <v>986</v>
-      </c>
-      <c r="D139">
-        <v>638</v>
-      </c>
-      <c r="E139">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>42917</v>
-      </c>
-      <c r="B140">
-        <v>506</v>
-      </c>
-      <c r="C140">
-        <v>718</v>
-      </c>
-      <c r="D140">
-        <v>567</v>
-      </c>
-      <c r="E140">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>42948</v>
-      </c>
-      <c r="B141">
-        <v>619</v>
-      </c>
-      <c r="C141">
-        <v>1013</v>
-      </c>
-      <c r="D141">
-        <v>604</v>
-      </c>
-      <c r="E141">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>42979</v>
-      </c>
-      <c r="B142">
-        <v>752</v>
-      </c>
-      <c r="C142">
-        <v>1102</v>
-      </c>
-      <c r="D142">
-        <v>493</v>
-      </c>
-      <c r="E142">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>43009</v>
-      </c>
-      <c r="B143">
-        <v>789</v>
-      </c>
-      <c r="C143">
-        <v>966</v>
-      </c>
-      <c r="D143">
-        <v>581</v>
-      </c>
-      <c r="E143">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
-        <v>43040</v>
-      </c>
-      <c r="B144">
-        <v>697</v>
-      </c>
-      <c r="C144">
-        <v>1000</v>
-      </c>
-      <c r="D144">
-        <v>432</v>
-      </c>
-      <c r="E144">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
-        <v>43070</v>
-      </c>
-      <c r="B145">
-        <v>608</v>
-      </c>
-      <c r="C145">
-        <v>1302</v>
-      </c>
-      <c r="D145">
-        <v>291</v>
-      </c>
-      <c r="E145">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
-        <v>43101</v>
-      </c>
-      <c r="B146">
-        <v>666</v>
-      </c>
-      <c r="C146">
-        <v>1005</v>
-      </c>
-      <c r="D146">
-        <v>214</v>
-      </c>
-      <c r="E146">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <v>43132</v>
-      </c>
-      <c r="B147">
-        <v>700</v>
-      </c>
-      <c r="C147">
-        <v>1176</v>
-      </c>
-      <c r="D147">
-        <v>1978</v>
-      </c>
-      <c r="E147">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
-        <v>43160</v>
-      </c>
-      <c r="B148">
-        <v>798</v>
-      </c>
-      <c r="C148">
-        <v>1204</v>
-      </c>
-      <c r="D148">
-        <v>2465</v>
-      </c>
-      <c r="E148">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <v>43191</v>
-      </c>
-      <c r="B149">
-        <v>521</v>
-      </c>
-      <c r="C149">
-        <v>747</v>
-      </c>
-      <c r="D149">
-        <v>480</v>
-      </c>
-      <c r="E149">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <v>43221</v>
-      </c>
-      <c r="B150">
-        <v>507</v>
-      </c>
-      <c r="C150">
-        <v>1103</v>
-      </c>
-      <c r="D150">
-        <v>1028</v>
-      </c>
-      <c r="E150">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
-        <v>43252</v>
-      </c>
-      <c r="B151">
-        <v>696</v>
-      </c>
-      <c r="C151">
-        <v>923</v>
-      </c>
-      <c r="D151">
-        <v>1223</v>
-      </c>
-      <c r="E151">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
-        <v>43282</v>
-      </c>
-      <c r="B152">
-        <v>675</v>
-      </c>
-      <c r="C152">
-        <v>1035</v>
-      </c>
-      <c r="D152">
-        <v>2186</v>
-      </c>
-      <c r="E152">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <v>43313</v>
-      </c>
-      <c r="B153">
-        <v>1107</v>
-      </c>
-      <c r="C153">
-        <v>1130</v>
-      </c>
-      <c r="D153">
-        <v>1272</v>
-      </c>
-      <c r="E153">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
-        <v>43344</v>
-      </c>
-      <c r="B154">
-        <v>394</v>
-      </c>
-      <c r="C154">
-        <v>591</v>
-      </c>
-      <c r="D154">
-        <v>1449</v>
-      </c>
-      <c r="E154">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
-        <v>43374</v>
-      </c>
-      <c r="B155">
-        <v>379</v>
-      </c>
-      <c r="C155">
-        <v>775</v>
-      </c>
-      <c r="D155">
-        <v>1186</v>
-      </c>
-      <c r="E155">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>43405</v>
-      </c>
-      <c r="B156">
-        <v>491</v>
-      </c>
-      <c r="C156">
-        <v>555</v>
-      </c>
-      <c r="D156">
-        <v>1166</v>
-      </c>
-      <c r="E156">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
-        <v>43435</v>
-      </c>
-      <c r="B157">
-        <v>349</v>
-      </c>
-      <c r="C157">
-        <v>796</v>
-      </c>
-      <c r="D157">
-        <v>953</v>
-      </c>
-      <c r="E157">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>43466</v>
-      </c>
-      <c r="B158">
-        <v>523</v>
-      </c>
-      <c r="C158">
-        <v>961</v>
-      </c>
-      <c r="D158">
-        <v>812</v>
-      </c>
-      <c r="E158">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
-        <v>43497</v>
-      </c>
-      <c r="B159">
-        <v>520</v>
-      </c>
-      <c r="C159">
-        <v>1292</v>
-      </c>
-      <c r="D159">
-        <v>927</v>
-      </c>
-      <c r="E159">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
-        <v>43525</v>
-      </c>
-      <c r="B160">
-        <v>742</v>
-      </c>
-      <c r="C160">
-        <v>1383</v>
-      </c>
-      <c r="D160">
-        <v>1255</v>
-      </c>
-      <c r="E160">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>43556</v>
-      </c>
-      <c r="B161">
-        <v>484</v>
-      </c>
-      <c r="C161">
-        <v>435</v>
-      </c>
-      <c r="D161">
-        <v>469</v>
-      </c>
-      <c r="E161">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
-        <v>43586</v>
-      </c>
-      <c r="B162">
-        <v>513</v>
-      </c>
-      <c r="C162">
-        <v>668</v>
-      </c>
-      <c r="D162">
-        <v>523</v>
-      </c>
-      <c r="E162">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <v>43617</v>
-      </c>
-      <c r="B163">
-        <v>519</v>
-      </c>
-      <c r="C163">
-        <v>1032</v>
-      </c>
-      <c r="D163">
-        <v>901</v>
-      </c>
-      <c r="E163">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
-        <v>43647</v>
-      </c>
-      <c r="B164">
-        <v>457</v>
-      </c>
-      <c r="C164">
-        <v>886</v>
-      </c>
-      <c r="D164">
-        <v>725</v>
-      </c>
-      <c r="E164">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
-        <v>43678</v>
-      </c>
-      <c r="B165">
-        <v>543</v>
-      </c>
-      <c r="C165">
-        <v>637</v>
-      </c>
-      <c r="D165">
-        <v>571</v>
-      </c>
-      <c r="E165">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
-        <v>43709</v>
-      </c>
-      <c r="B166">
-        <v>484</v>
-      </c>
-      <c r="C166">
-        <v>744</v>
-      </c>
-      <c r="D166">
-        <v>862</v>
-      </c>
-      <c r="E166">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
-        <v>43739</v>
-      </c>
-      <c r="B167">
-        <v>374</v>
-      </c>
-      <c r="C167">
-        <v>853</v>
-      </c>
-      <c r="D167">
-        <v>641</v>
-      </c>
-      <c r="E167">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
-        <v>43770</v>
-      </c>
-      <c r="B168">
-        <v>379</v>
-      </c>
-      <c r="C168">
-        <v>682</v>
-      </c>
-      <c r="D168">
-        <v>683</v>
-      </c>
-      <c r="E168">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B169">
-        <v>348</v>
-      </c>
-      <c r="C169">
-        <v>603</v>
-      </c>
-      <c r="D169">
-        <v>724</v>
-      </c>
-      <c r="E169">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>43831</v>
-      </c>
-      <c r="B170">
-        <v>493</v>
-      </c>
-      <c r="C170">
-        <v>959</v>
-      </c>
-      <c r="D170">
-        <v>735</v>
-      </c>
-      <c r="E170">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B171">
-        <v>457</v>
-      </c>
-      <c r="C171">
-        <v>966</v>
-      </c>
-      <c r="D171">
-        <v>680</v>
-      </c>
-      <c r="E171">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>43891</v>
-      </c>
-      <c r="B172">
-        <v>325</v>
-      </c>
-      <c r="C172">
-        <v>646</v>
-      </c>
-      <c r="D172">
-        <v>610</v>
-      </c>
-      <c r="E172">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B173">
-        <v>172</v>
-      </c>
-      <c r="C173">
-        <v>134</v>
-      </c>
-      <c r="D173">
-        <v>452</v>
-      </c>
-      <c r="E173">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B174">
-        <v>151</v>
-      </c>
-      <c r="C174">
-        <v>221</v>
-      </c>
-      <c r="D174">
-        <v>473</v>
-      </c>
-      <c r="E174">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>43983</v>
-      </c>
-      <c r="B175">
-        <v>259</v>
-      </c>
-      <c r="C175">
-        <v>831</v>
-      </c>
-      <c r="D175">
-        <v>443</v>
-      </c>
-      <c r="E175">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>44013</v>
-      </c>
-      <c r="B176">
-        <v>418</v>
-      </c>
-      <c r="C176">
-        <v>428</v>
-      </c>
-      <c r="D176">
-        <v>362</v>
-      </c>
-      <c r="E176">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
-        <v>44044</v>
-      </c>
-      <c r="B177">
-        <v>367</v>
-      </c>
-      <c r="C177">
-        <v>420</v>
-      </c>
-      <c r="D177">
-        <v>429</v>
-      </c>
-      <c r="E177">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
-        <v>44075</v>
-      </c>
-      <c r="B178">
-        <v>396</v>
-      </c>
-      <c r="C178">
-        <v>889</v>
-      </c>
-      <c r="D178">
-        <v>658</v>
-      </c>
-      <c r="E178">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B179">
-        <v>362</v>
-      </c>
-      <c r="C179">
-        <v>548</v>
-      </c>
-      <c r="D179">
-        <v>730</v>
-      </c>
-      <c r="E179">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B180">
-        <v>291</v>
-      </c>
-      <c r="C180">
-        <v>523</v>
-      </c>
-      <c r="D180">
-        <v>717</v>
-      </c>
-      <c r="E180">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>44166</v>
-      </c>
-      <c r="B181">
-        <v>286</v>
-      </c>
-      <c r="C181">
-        <v>511</v>
-      </c>
-      <c r="D181">
-        <v>654</v>
-      </c>
-      <c r="E181">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B182">
-        <v>424</v>
-      </c>
-      <c r="C182">
-        <v>824</v>
-      </c>
-      <c r="D182">
-        <v>507</v>
-      </c>
-      <c r="E182">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
-        <v>44228</v>
-      </c>
-      <c r="B183">
-        <v>333</v>
-      </c>
-      <c r="C183">
-        <v>423</v>
-      </c>
-      <c r="D183">
-        <v>591</v>
-      </c>
-      <c r="E183">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>44256</v>
-      </c>
-      <c r="B184">
-        <v>552</v>
-      </c>
-      <c r="C184">
-        <v>801</v>
-      </c>
-      <c r="D184">
-        <v>715</v>
-      </c>
-      <c r="E184">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>44287</v>
-      </c>
-      <c r="B185">
-        <v>313</v>
-      </c>
-      <c r="C185">
-        <v>426</v>
-      </c>
-      <c r="D185">
-        <v>362</v>
-      </c>
-      <c r="E185">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
-        <v>44317</v>
-      </c>
-      <c r="B186">
-        <v>322</v>
-      </c>
-      <c r="C186">
-        <v>379</v>
-      </c>
-      <c r="D186">
-        <v>441</v>
-      </c>
-      <c r="E186">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
-        <v>44348</v>
-      </c>
-      <c r="B187">
-        <v>257</v>
-      </c>
-      <c r="C187">
-        <v>398</v>
-      </c>
-      <c r="D187">
-        <v>478</v>
-      </c>
-      <c r="E187">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
-        <v>44378</v>
-      </c>
-      <c r="B188">
-        <v>238</v>
-      </c>
-      <c r="C188">
-        <v>239</v>
-      </c>
-      <c r="D188">
-        <v>348</v>
-      </c>
-      <c r="E188">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
-        <v>44409</v>
-      </c>
-      <c r="B189">
-        <v>256</v>
-      </c>
-      <c r="C189">
-        <v>232</v>
-      </c>
-      <c r="D189">
-        <v>568</v>
-      </c>
-      <c r="E189">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>44440</v>
-      </c>
-      <c r="B190">
-        <v>259</v>
-      </c>
-      <c r="C190">
-        <v>348</v>
-      </c>
-      <c r="D190">
-        <v>474</v>
-      </c>
-      <c r="E190">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>44470</v>
-      </c>
-      <c r="B191">
-        <v>178</v>
-      </c>
-      <c r="C191">
-        <v>434</v>
-      </c>
-      <c r="D191">
-        <v>510</v>
-      </c>
-      <c r="E191">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>44501</v>
-      </c>
-      <c r="B192">
-        <v>379</v>
-      </c>
-      <c r="C192">
-        <v>427</v>
-      </c>
-      <c r="D192">
-        <v>823</v>
-      </c>
-      <c r="E192">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>44531</v>
-      </c>
-      <c r="B193">
-        <v>256</v>
-      </c>
-      <c r="C193">
-        <v>213</v>
-      </c>
-      <c r="D193">
-        <v>541</v>
-      </c>
-      <c r="E193">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
-        <v>44562</v>
-      </c>
-      <c r="B194">
-        <v>230</v>
-      </c>
-      <c r="C194">
-        <v>181</v>
-      </c>
-      <c r="D194">
-        <v>226</v>
-      </c>
-      <c r="E194">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
-        <v>44593</v>
-      </c>
-      <c r="B195">
-        <v>222</v>
-      </c>
-      <c r="C195">
-        <v>243</v>
-      </c>
-      <c r="D195">
-        <v>310</v>
-      </c>
-      <c r="E195">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
-        <v>44621</v>
-      </c>
-      <c r="B196">
-        <v>392</v>
-      </c>
-      <c r="C196">
-        <v>579</v>
-      </c>
-      <c r="D196">
-        <v>339</v>
-      </c>
-      <c r="E196">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
-        <v>44652</v>
-      </c>
-      <c r="B197">
-        <v>316</v>
-      </c>
-      <c r="C197">
-        <v>288</v>
-      </c>
-      <c r="D197">
-        <v>179</v>
-      </c>
-      <c r="E197">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
-        <v>44682</v>
-      </c>
-      <c r="B198">
-        <v>224</v>
-      </c>
-      <c r="C198">
-        <v>267</v>
-      </c>
-      <c r="D198">
-        <v>205</v>
-      </c>
-      <c r="E198">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
-        <v>44713</v>
-      </c>
-      <c r="B199">
-        <v>231</v>
-      </c>
-      <c r="C199">
-        <v>283</v>
-      </c>
-      <c r="D199">
-        <v>161</v>
-      </c>
-      <c r="E199">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
-        <v>44743</v>
-      </c>
-      <c r="B200">
-        <v>118</v>
-      </c>
-      <c r="C200">
-        <v>225</v>
-      </c>
-      <c r="D200">
-        <v>133</v>
-      </c>
-      <c r="E200">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
-        <v>44774</v>
-      </c>
-      <c r="B201">
-        <v>254</v>
-      </c>
-      <c r="C201">
-        <v>343</v>
-      </c>
-      <c r="D201">
-        <v>347</v>
-      </c>
-      <c r="E201">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>44805</v>
-      </c>
-      <c r="B202">
-        <v>228</v>
-      </c>
-      <c r="C202">
-        <v>337</v>
-      </c>
-      <c r="D202">
-        <v>295</v>
-      </c>
-      <c r="E202">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <v>44835</v>
-      </c>
-      <c r="B203">
-        <v>188</v>
-      </c>
-      <c r="C203">
-        <v>322</v>
-      </c>
-      <c r="D203">
-        <v>413</v>
-      </c>
-      <c r="E203">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
-        <v>44866</v>
-      </c>
-      <c r="B204">
-        <v>204</v>
-      </c>
-      <c r="C204">
-        <v>305</v>
-      </c>
-      <c r="D204">
-        <v>563</v>
-      </c>
-      <c r="E204">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
-        <v>44896</v>
-      </c>
-      <c r="B205">
-        <v>370</v>
-      </c>
-      <c r="C205">
-        <v>357</v>
-      </c>
-      <c r="D205">
-        <v>682</v>
-      </c>
-      <c r="E205">
-        <v>810</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF90EEB9-69F8-423B-BD47-BA365D7D3A6B}">
   <dimension ref="A1:E205"/>
   <sheetViews>
@@ -16578,4 +13074,3508 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E205"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="5" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>38718</v>
+      </c>
+      <c r="B2">
+        <v>1124</v>
+      </c>
+      <c r="C2">
+        <v>161</v>
+      </c>
+      <c r="D2">
+        <v>233</v>
+      </c>
+      <c r="E2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>38749</v>
+      </c>
+      <c r="B3">
+        <v>1079</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
+      </c>
+      <c r="D3">
+        <v>270</v>
+      </c>
+      <c r="E3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>38777</v>
+      </c>
+      <c r="B4">
+        <v>1210</v>
+      </c>
+      <c r="C4">
+        <v>468</v>
+      </c>
+      <c r="D4">
+        <v>406</v>
+      </c>
+      <c r="E4">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>38808</v>
+      </c>
+      <c r="B5">
+        <v>1147</v>
+      </c>
+      <c r="C5">
+        <v>412</v>
+      </c>
+      <c r="D5">
+        <v>356</v>
+      </c>
+      <c r="E5">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>38838</v>
+      </c>
+      <c r="B6">
+        <v>1001</v>
+      </c>
+      <c r="C6">
+        <v>550</v>
+      </c>
+      <c r="D6">
+        <v>553</v>
+      </c>
+      <c r="E6">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>38869</v>
+      </c>
+      <c r="B7">
+        <v>1087</v>
+      </c>
+      <c r="C7">
+        <v>441</v>
+      </c>
+      <c r="D7">
+        <v>865</v>
+      </c>
+      <c r="E7">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>38899</v>
+      </c>
+      <c r="B8">
+        <v>728</v>
+      </c>
+      <c r="C8">
+        <v>464</v>
+      </c>
+      <c r="D8">
+        <v>540</v>
+      </c>
+      <c r="E8">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>38930</v>
+      </c>
+      <c r="B9">
+        <v>605</v>
+      </c>
+      <c r="C9">
+        <v>416</v>
+      </c>
+      <c r="D9">
+        <v>417</v>
+      </c>
+      <c r="E9">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>38961</v>
+      </c>
+      <c r="B10">
+        <v>1081</v>
+      </c>
+      <c r="C10">
+        <v>414</v>
+      </c>
+      <c r="D10">
+        <v>643</v>
+      </c>
+      <c r="E10">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>38991</v>
+      </c>
+      <c r="B11">
+        <v>786</v>
+      </c>
+      <c r="C11">
+        <v>471</v>
+      </c>
+      <c r="D11">
+        <v>383</v>
+      </c>
+      <c r="E11">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>39022</v>
+      </c>
+      <c r="B12">
+        <v>689</v>
+      </c>
+      <c r="C12">
+        <v>371</v>
+      </c>
+      <c r="D12">
+        <v>488</v>
+      </c>
+      <c r="E12">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>39052</v>
+      </c>
+      <c r="B13">
+        <v>715</v>
+      </c>
+      <c r="C13">
+        <v>477</v>
+      </c>
+      <c r="D13">
+        <v>836</v>
+      </c>
+      <c r="E13">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>39083</v>
+      </c>
+      <c r="B14">
+        <v>998</v>
+      </c>
+      <c r="C14">
+        <v>331</v>
+      </c>
+      <c r="D14">
+        <v>284</v>
+      </c>
+      <c r="E14">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>39114</v>
+      </c>
+      <c r="B15">
+        <v>638</v>
+      </c>
+      <c r="C15">
+        <v>299</v>
+      </c>
+      <c r="D15">
+        <v>483</v>
+      </c>
+      <c r="E15">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>39142</v>
+      </c>
+      <c r="B16">
+        <v>649</v>
+      </c>
+      <c r="C16">
+        <v>378</v>
+      </c>
+      <c r="D16">
+        <v>512</v>
+      </c>
+      <c r="E16">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>39173</v>
+      </c>
+      <c r="B17">
+        <v>753</v>
+      </c>
+      <c r="C17">
+        <v>267</v>
+      </c>
+      <c r="D17">
+        <v>565</v>
+      </c>
+      <c r="E17">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>39203</v>
+      </c>
+      <c r="B18">
+        <v>856</v>
+      </c>
+      <c r="C18">
+        <v>337</v>
+      </c>
+      <c r="D18">
+        <v>526</v>
+      </c>
+      <c r="E18">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>39234</v>
+      </c>
+      <c r="B19">
+        <v>825</v>
+      </c>
+      <c r="C19">
+        <v>445</v>
+      </c>
+      <c r="D19">
+        <v>555</v>
+      </c>
+      <c r="E19">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>39264</v>
+      </c>
+      <c r="B20">
+        <v>685</v>
+      </c>
+      <c r="C20">
+        <v>208</v>
+      </c>
+      <c r="D20">
+        <v>522</v>
+      </c>
+      <c r="E20">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>39295</v>
+      </c>
+      <c r="B21">
+        <v>755</v>
+      </c>
+      <c r="C21">
+        <v>319</v>
+      </c>
+      <c r="D21">
+        <v>534</v>
+      </c>
+      <c r="E21">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>39326</v>
+      </c>
+      <c r="B22">
+        <v>755</v>
+      </c>
+      <c r="C22">
+        <v>407</v>
+      </c>
+      <c r="D22">
+        <v>711</v>
+      </c>
+      <c r="E22">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>39356</v>
+      </c>
+      <c r="B23">
+        <v>640</v>
+      </c>
+      <c r="C23">
+        <v>451</v>
+      </c>
+      <c r="D23">
+        <v>828</v>
+      </c>
+      <c r="E23">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>39387</v>
+      </c>
+      <c r="B24">
+        <v>130</v>
+      </c>
+      <c r="C24">
+        <v>324</v>
+      </c>
+      <c r="D24">
+        <v>614</v>
+      </c>
+      <c r="E24">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>39417</v>
+      </c>
+      <c r="B25">
+        <v>155</v>
+      </c>
+      <c r="C25">
+        <v>373</v>
+      </c>
+      <c r="D25">
+        <v>603</v>
+      </c>
+      <c r="E25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>39448</v>
+      </c>
+      <c r="B26">
+        <v>900</v>
+      </c>
+      <c r="C26">
+        <v>401</v>
+      </c>
+      <c r="D26">
+        <v>757</v>
+      </c>
+      <c r="E26">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>39479</v>
+      </c>
+      <c r="B27">
+        <v>609</v>
+      </c>
+      <c r="C27">
+        <v>427</v>
+      </c>
+      <c r="D27">
+        <v>797</v>
+      </c>
+      <c r="E27">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>39508</v>
+      </c>
+      <c r="B28">
+        <v>765</v>
+      </c>
+      <c r="C28">
+        <v>522</v>
+      </c>
+      <c r="D28">
+        <v>568</v>
+      </c>
+      <c r="E28">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>39539</v>
+      </c>
+      <c r="B29">
+        <v>638</v>
+      </c>
+      <c r="C29">
+        <v>333</v>
+      </c>
+      <c r="D29">
+        <v>429</v>
+      </c>
+      <c r="E29">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>39569</v>
+      </c>
+      <c r="B30">
+        <v>799</v>
+      </c>
+      <c r="C30">
+        <v>375</v>
+      </c>
+      <c r="D30">
+        <v>569</v>
+      </c>
+      <c r="E30">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>39600</v>
+      </c>
+      <c r="B31">
+        <v>666</v>
+      </c>
+      <c r="C31">
+        <v>522</v>
+      </c>
+      <c r="D31">
+        <v>588</v>
+      </c>
+      <c r="E31">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>39630</v>
+      </c>
+      <c r="B32">
+        <v>574</v>
+      </c>
+      <c r="C32">
+        <v>351</v>
+      </c>
+      <c r="D32">
+        <v>408</v>
+      </c>
+      <c r="E32">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>39661</v>
+      </c>
+      <c r="B33">
+        <v>443</v>
+      </c>
+      <c r="C33">
+        <v>319</v>
+      </c>
+      <c r="D33">
+        <v>495</v>
+      </c>
+      <c r="E33">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>39692</v>
+      </c>
+      <c r="B34">
+        <v>489</v>
+      </c>
+      <c r="C34">
+        <v>398</v>
+      </c>
+      <c r="D34">
+        <v>378</v>
+      </c>
+      <c r="E34">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>39722</v>
+      </c>
+      <c r="B35">
+        <v>527</v>
+      </c>
+      <c r="C35">
+        <v>389</v>
+      </c>
+      <c r="D35">
+        <v>368</v>
+      </c>
+      <c r="E35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>39753</v>
+      </c>
+      <c r="B36">
+        <v>235</v>
+      </c>
+      <c r="C36">
+        <v>343</v>
+      </c>
+      <c r="D36">
+        <v>261</v>
+      </c>
+      <c r="E36">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>39783</v>
+      </c>
+      <c r="B37">
+        <v>122</v>
+      </c>
+      <c r="C37">
+        <v>263</v>
+      </c>
+      <c r="D37">
+        <v>197</v>
+      </c>
+      <c r="E37">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>39814</v>
+      </c>
+      <c r="B38">
+        <v>508</v>
+      </c>
+      <c r="C38">
+        <v>359</v>
+      </c>
+      <c r="D38">
+        <v>323</v>
+      </c>
+      <c r="E38">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>39845</v>
+      </c>
+      <c r="B39">
+        <v>311</v>
+      </c>
+      <c r="C39">
+        <v>482</v>
+      </c>
+      <c r="D39">
+        <v>238</v>
+      </c>
+      <c r="E39">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39873</v>
+      </c>
+      <c r="B40">
+        <v>629</v>
+      </c>
+      <c r="C40">
+        <v>383</v>
+      </c>
+      <c r="D40">
+        <v>443</v>
+      </c>
+      <c r="E40">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>39904</v>
+      </c>
+      <c r="B41">
+        <v>294</v>
+      </c>
+      <c r="C41">
+        <v>477</v>
+      </c>
+      <c r="D41">
+        <v>221</v>
+      </c>
+      <c r="E41">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>39934</v>
+      </c>
+      <c r="B42">
+        <v>306</v>
+      </c>
+      <c r="C42">
+        <v>323</v>
+      </c>
+      <c r="D42">
+        <v>279</v>
+      </c>
+      <c r="E42">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>39965</v>
+      </c>
+      <c r="B43">
+        <v>338</v>
+      </c>
+      <c r="C43">
+        <v>374</v>
+      </c>
+      <c r="D43">
+        <v>303</v>
+      </c>
+      <c r="E43">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>39995</v>
+      </c>
+      <c r="B44">
+        <v>319</v>
+      </c>
+      <c r="C44">
+        <v>306</v>
+      </c>
+      <c r="D44">
+        <v>423</v>
+      </c>
+      <c r="E44">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>40026</v>
+      </c>
+      <c r="B45">
+        <v>367</v>
+      </c>
+      <c r="C45">
+        <v>396</v>
+      </c>
+      <c r="D45">
+        <v>454</v>
+      </c>
+      <c r="E45">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>40057</v>
+      </c>
+      <c r="B46">
+        <v>422</v>
+      </c>
+      <c r="C46">
+        <v>533</v>
+      </c>
+      <c r="D46">
+        <v>439</v>
+      </c>
+      <c r="E46">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>40087</v>
+      </c>
+      <c r="B47">
+        <v>352</v>
+      </c>
+      <c r="C47">
+        <v>374</v>
+      </c>
+      <c r="D47">
+        <v>425</v>
+      </c>
+      <c r="E47">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>40118</v>
+      </c>
+      <c r="B48">
+        <v>274</v>
+      </c>
+      <c r="C48">
+        <v>409</v>
+      </c>
+      <c r="D48">
+        <v>503</v>
+      </c>
+      <c r="E48">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>40148</v>
+      </c>
+      <c r="B49">
+        <v>178</v>
+      </c>
+      <c r="C49">
+        <v>365</v>
+      </c>
+      <c r="D49">
+        <v>347</v>
+      </c>
+      <c r="E49">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>40179</v>
+      </c>
+      <c r="B50">
+        <v>711</v>
+      </c>
+      <c r="C50">
+        <v>435</v>
+      </c>
+      <c r="D50">
+        <v>363</v>
+      </c>
+      <c r="E50">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>40210</v>
+      </c>
+      <c r="B51">
+        <v>519</v>
+      </c>
+      <c r="C51">
+        <v>391</v>
+      </c>
+      <c r="D51">
+        <v>390</v>
+      </c>
+      <c r="E51">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>40238</v>
+      </c>
+      <c r="B52">
+        <v>647</v>
+      </c>
+      <c r="C52">
+        <v>455</v>
+      </c>
+      <c r="D52">
+        <v>473</v>
+      </c>
+      <c r="E52">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>40269</v>
+      </c>
+      <c r="B53">
+        <v>524</v>
+      </c>
+      <c r="C53">
+        <v>347</v>
+      </c>
+      <c r="D53">
+        <v>527</v>
+      </c>
+      <c r="E53">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>40299</v>
+      </c>
+      <c r="B54">
+        <v>608</v>
+      </c>
+      <c r="C54">
+        <v>439</v>
+      </c>
+      <c r="D54">
+        <v>488</v>
+      </c>
+      <c r="E54">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>40330</v>
+      </c>
+      <c r="B55">
+        <v>662</v>
+      </c>
+      <c r="C55">
+        <v>449</v>
+      </c>
+      <c r="D55">
+        <v>545</v>
+      </c>
+      <c r="E55">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>40360</v>
+      </c>
+      <c r="B56">
+        <v>468</v>
+      </c>
+      <c r="C56">
+        <v>383</v>
+      </c>
+      <c r="D56">
+        <v>476</v>
+      </c>
+      <c r="E56">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>40391</v>
+      </c>
+      <c r="B57">
+        <v>532</v>
+      </c>
+      <c r="C57">
+        <v>403</v>
+      </c>
+      <c r="D57">
+        <v>509</v>
+      </c>
+      <c r="E57">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>40422</v>
+      </c>
+      <c r="B58">
+        <v>561</v>
+      </c>
+      <c r="C58">
+        <v>367</v>
+      </c>
+      <c r="D58">
+        <v>530</v>
+      </c>
+      <c r="E58">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>40452</v>
+      </c>
+      <c r="B59">
+        <v>662</v>
+      </c>
+      <c r="C59">
+        <v>453</v>
+      </c>
+      <c r="D59">
+        <v>540</v>
+      </c>
+      <c r="E59">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>40483</v>
+      </c>
+      <c r="B60">
+        <v>503</v>
+      </c>
+      <c r="C60">
+        <v>432</v>
+      </c>
+      <c r="D60">
+        <v>577</v>
+      </c>
+      <c r="E60">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>40513</v>
+      </c>
+      <c r="B61">
+        <v>402</v>
+      </c>
+      <c r="C61">
+        <v>434</v>
+      </c>
+      <c r="D61">
+        <v>411</v>
+      </c>
+      <c r="E61">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>40544</v>
+      </c>
+      <c r="B62">
+        <v>901</v>
+      </c>
+      <c r="C62">
+        <v>420</v>
+      </c>
+      <c r="D62">
+        <v>591</v>
+      </c>
+      <c r="E62">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>40575</v>
+      </c>
+      <c r="B63">
+        <v>671</v>
+      </c>
+      <c r="C63">
+        <v>482</v>
+      </c>
+      <c r="D63">
+        <v>586</v>
+      </c>
+      <c r="E63">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>40603</v>
+      </c>
+      <c r="B64">
+        <v>917</v>
+      </c>
+      <c r="C64">
+        <v>693</v>
+      </c>
+      <c r="D64">
+        <v>526</v>
+      </c>
+      <c r="E64">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>40634</v>
+      </c>
+      <c r="B65">
+        <v>785</v>
+      </c>
+      <c r="C65">
+        <v>491</v>
+      </c>
+      <c r="D65">
+        <v>609</v>
+      </c>
+      <c r="E65">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>40664</v>
+      </c>
+      <c r="B66">
+        <v>764</v>
+      </c>
+      <c r="C66">
+        <v>523</v>
+      </c>
+      <c r="D66">
+        <v>602</v>
+      </c>
+      <c r="E66">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>40695</v>
+      </c>
+      <c r="B67">
+        <v>645</v>
+      </c>
+      <c r="C67">
+        <v>536</v>
+      </c>
+      <c r="D67">
+        <v>560</v>
+      </c>
+      <c r="E67">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>40725</v>
+      </c>
+      <c r="B68">
+        <v>529</v>
+      </c>
+      <c r="C68">
+        <v>361</v>
+      </c>
+      <c r="D68">
+        <v>467</v>
+      </c>
+      <c r="E68">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>40756</v>
+      </c>
+      <c r="B69">
+        <v>690</v>
+      </c>
+      <c r="C69">
+        <v>463</v>
+      </c>
+      <c r="D69">
+        <v>560</v>
+      </c>
+      <c r="E69">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>40787</v>
+      </c>
+      <c r="B70">
+        <v>842</v>
+      </c>
+      <c r="C70">
+        <v>585</v>
+      </c>
+      <c r="D70">
+        <v>645</v>
+      </c>
+      <c r="E70">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>40817</v>
+      </c>
+      <c r="B71">
+        <v>632</v>
+      </c>
+      <c r="C71">
+        <v>504</v>
+      </c>
+      <c r="D71">
+        <v>576</v>
+      </c>
+      <c r="E71">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>40848</v>
+      </c>
+      <c r="B72">
+        <v>570</v>
+      </c>
+      <c r="C72">
+        <v>595</v>
+      </c>
+      <c r="D72">
+        <v>706</v>
+      </c>
+      <c r="E72">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>40878</v>
+      </c>
+      <c r="B73">
+        <v>405</v>
+      </c>
+      <c r="C73">
+        <v>459</v>
+      </c>
+      <c r="D73">
+        <v>598</v>
+      </c>
+      <c r="E73">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>40909</v>
+      </c>
+      <c r="B74">
+        <v>1021</v>
+      </c>
+      <c r="C74">
+        <v>478</v>
+      </c>
+      <c r="D74">
+        <v>887</v>
+      </c>
+      <c r="E74">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>40940</v>
+      </c>
+      <c r="B75">
+        <v>770</v>
+      </c>
+      <c r="C75">
+        <v>682</v>
+      </c>
+      <c r="D75">
+        <v>563</v>
+      </c>
+      <c r="E75">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>40969</v>
+      </c>
+      <c r="B76">
+        <v>1268</v>
+      </c>
+      <c r="C76">
+        <v>518</v>
+      </c>
+      <c r="D76">
+        <v>761</v>
+      </c>
+      <c r="E76">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>41000</v>
+      </c>
+      <c r="B77">
+        <v>349</v>
+      </c>
+      <c r="C77">
+        <v>329</v>
+      </c>
+      <c r="D77">
+        <v>546</v>
+      </c>
+      <c r="E77">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>41030</v>
+      </c>
+      <c r="B78">
+        <v>413</v>
+      </c>
+      <c r="C78">
+        <v>413</v>
+      </c>
+      <c r="D78">
+        <v>588</v>
+      </c>
+      <c r="E78">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>41061</v>
+      </c>
+      <c r="B79">
+        <v>473</v>
+      </c>
+      <c r="C79">
+        <v>537</v>
+      </c>
+      <c r="D79">
+        <v>627</v>
+      </c>
+      <c r="E79">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>41091</v>
+      </c>
+      <c r="B80">
+        <v>408</v>
+      </c>
+      <c r="C80">
+        <v>530</v>
+      </c>
+      <c r="D80">
+        <v>520</v>
+      </c>
+      <c r="E80">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>41122</v>
+      </c>
+      <c r="B81">
+        <v>485</v>
+      </c>
+      <c r="C81">
+        <v>559</v>
+      </c>
+      <c r="D81">
+        <v>661</v>
+      </c>
+      <c r="E81">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>41153</v>
+      </c>
+      <c r="B82">
+        <v>765</v>
+      </c>
+      <c r="C82">
+        <v>629</v>
+      </c>
+      <c r="D82">
+        <v>728</v>
+      </c>
+      <c r="E82">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B83">
+        <v>604</v>
+      </c>
+      <c r="C83">
+        <v>663</v>
+      </c>
+      <c r="D83">
+        <v>645</v>
+      </c>
+      <c r="E83">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>41214</v>
+      </c>
+      <c r="B84">
+        <v>584</v>
+      </c>
+      <c r="C84">
+        <v>732</v>
+      </c>
+      <c r="D84">
+        <v>657</v>
+      </c>
+      <c r="E84">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>41244</v>
+      </c>
+      <c r="B85">
+        <v>519</v>
+      </c>
+      <c r="C85">
+        <v>798</v>
+      </c>
+      <c r="D85">
+        <v>542</v>
+      </c>
+      <c r="E85">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>41275</v>
+      </c>
+      <c r="B86">
+        <v>648</v>
+      </c>
+      <c r="C86">
+        <v>755</v>
+      </c>
+      <c r="D86">
+        <v>597</v>
+      </c>
+      <c r="E86">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>41306</v>
+      </c>
+      <c r="B87">
+        <v>553</v>
+      </c>
+      <c r="C87">
+        <v>752</v>
+      </c>
+      <c r="D87">
+        <v>725</v>
+      </c>
+      <c r="E87">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>41334</v>
+      </c>
+      <c r="B88">
+        <v>728</v>
+      </c>
+      <c r="C88">
+        <v>1052</v>
+      </c>
+      <c r="D88">
+        <v>1123</v>
+      </c>
+      <c r="E88">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B89">
+        <v>456</v>
+      </c>
+      <c r="C89">
+        <v>658</v>
+      </c>
+      <c r="D89">
+        <v>506</v>
+      </c>
+      <c r="E89">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>41395</v>
+      </c>
+      <c r="B90">
+        <v>609</v>
+      </c>
+      <c r="C90">
+        <v>891</v>
+      </c>
+      <c r="D90">
+        <v>631</v>
+      </c>
+      <c r="E90">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B91">
+        <v>465</v>
+      </c>
+      <c r="C91">
+        <v>1087</v>
+      </c>
+      <c r="D91">
+        <v>682</v>
+      </c>
+      <c r="E91">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B92">
+        <v>440</v>
+      </c>
+      <c r="C92">
+        <v>990</v>
+      </c>
+      <c r="D92">
+        <v>566</v>
+      </c>
+      <c r="E92">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>41487</v>
+      </c>
+      <c r="B93">
+        <v>518</v>
+      </c>
+      <c r="C93">
+        <v>899</v>
+      </c>
+      <c r="D93">
+        <v>716</v>
+      </c>
+      <c r="E93">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>41518</v>
+      </c>
+      <c r="B94">
+        <v>559</v>
+      </c>
+      <c r="C94">
+        <v>1026</v>
+      </c>
+      <c r="D94">
+        <v>780</v>
+      </c>
+      <c r="E94">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B95">
+        <v>657</v>
+      </c>
+      <c r="C95">
+        <v>1135</v>
+      </c>
+      <c r="D95">
+        <v>962</v>
+      </c>
+      <c r="E95">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B96">
+        <v>600</v>
+      </c>
+      <c r="C96">
+        <v>754</v>
+      </c>
+      <c r="D96">
+        <v>902</v>
+      </c>
+      <c r="E96">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B97">
+        <v>481</v>
+      </c>
+      <c r="C97">
+        <v>689</v>
+      </c>
+      <c r="D97">
+        <v>678</v>
+      </c>
+      <c r="E97">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>41640</v>
+      </c>
+      <c r="B98">
+        <v>441</v>
+      </c>
+      <c r="C98">
+        <v>718</v>
+      </c>
+      <c r="D98">
+        <v>803</v>
+      </c>
+      <c r="E98">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B99">
+        <v>653</v>
+      </c>
+      <c r="C99">
+        <v>684</v>
+      </c>
+      <c r="D99">
+        <v>776</v>
+      </c>
+      <c r="E99">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>41699</v>
+      </c>
+      <c r="B100">
+        <v>928</v>
+      </c>
+      <c r="C100">
+        <v>1227</v>
+      </c>
+      <c r="D100">
+        <v>1084</v>
+      </c>
+      <c r="E100">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B101">
+        <v>527</v>
+      </c>
+      <c r="C101">
+        <v>662</v>
+      </c>
+      <c r="D101">
+        <v>702</v>
+      </c>
+      <c r="E101">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B102">
+        <v>602</v>
+      </c>
+      <c r="C102">
+        <v>761</v>
+      </c>
+      <c r="D102">
+        <v>764</v>
+      </c>
+      <c r="E102">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B103">
+        <v>587</v>
+      </c>
+      <c r="C103">
+        <v>902</v>
+      </c>
+      <c r="D103">
+        <v>625</v>
+      </c>
+      <c r="E103">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>41821</v>
+      </c>
+      <c r="B104">
+        <v>511</v>
+      </c>
+      <c r="C104">
+        <v>811</v>
+      </c>
+      <c r="D104">
+        <v>622</v>
+      </c>
+      <c r="E104">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B105">
+        <v>587</v>
+      </c>
+      <c r="C105">
+        <v>852</v>
+      </c>
+      <c r="D105">
+        <v>806</v>
+      </c>
+      <c r="E105">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B106">
+        <v>612</v>
+      </c>
+      <c r="C106">
+        <v>960</v>
+      </c>
+      <c r="D106">
+        <v>869</v>
+      </c>
+      <c r="E106">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B107">
+        <v>653</v>
+      </c>
+      <c r="C107">
+        <v>821</v>
+      </c>
+      <c r="D107">
+        <v>912</v>
+      </c>
+      <c r="E107">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B108">
+        <v>578</v>
+      </c>
+      <c r="C108">
+        <v>825</v>
+      </c>
+      <c r="D108">
+        <v>846</v>
+      </c>
+      <c r="E108">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B109">
+        <v>650</v>
+      </c>
+      <c r="C109">
+        <v>1170</v>
+      </c>
+      <c r="D109">
+        <v>829</v>
+      </c>
+      <c r="E109">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B110">
+        <v>710</v>
+      </c>
+      <c r="C110">
+        <v>744</v>
+      </c>
+      <c r="D110">
+        <v>788</v>
+      </c>
+      <c r="E110">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B111">
+        <v>693</v>
+      </c>
+      <c r="C111">
+        <v>777</v>
+      </c>
+      <c r="D111">
+        <v>860</v>
+      </c>
+      <c r="E111">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B112">
+        <v>1154</v>
+      </c>
+      <c r="C112">
+        <v>1563</v>
+      </c>
+      <c r="D112">
+        <v>1302</v>
+      </c>
+      <c r="E112">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B113">
+        <v>344</v>
+      </c>
+      <c r="C113">
+        <v>373</v>
+      </c>
+      <c r="D113">
+        <v>496</v>
+      </c>
+      <c r="E113">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B114">
+        <v>562</v>
+      </c>
+      <c r="C114">
+        <v>1160</v>
+      </c>
+      <c r="D114">
+        <v>447</v>
+      </c>
+      <c r="E114">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>42156</v>
+      </c>
+      <c r="B115">
+        <v>656</v>
+      </c>
+      <c r="C115">
+        <v>993</v>
+      </c>
+      <c r="D115">
+        <v>868</v>
+      </c>
+      <c r="E115">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B116">
+        <v>578</v>
+      </c>
+      <c r="C116">
+        <v>927</v>
+      </c>
+      <c r="D116">
+        <v>602</v>
+      </c>
+      <c r="E116">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>42217</v>
+      </c>
+      <c r="B117">
+        <v>552</v>
+      </c>
+      <c r="C117">
+        <v>863</v>
+      </c>
+      <c r="D117">
+        <v>840</v>
+      </c>
+      <c r="E117">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>42248</v>
+      </c>
+      <c r="B118">
+        <v>757</v>
+      </c>
+      <c r="C118">
+        <v>835</v>
+      </c>
+      <c r="D118">
+        <v>835</v>
+      </c>
+      <c r="E118">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B119">
+        <v>699</v>
+      </c>
+      <c r="C119">
+        <v>891</v>
+      </c>
+      <c r="D119">
+        <v>763</v>
+      </c>
+      <c r="E119">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B120">
+        <v>486</v>
+      </c>
+      <c r="C120">
+        <v>717</v>
+      </c>
+      <c r="D120">
+        <v>596</v>
+      </c>
+      <c r="E120">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B121">
+        <v>517</v>
+      </c>
+      <c r="C121">
+        <v>749</v>
+      </c>
+      <c r="D121">
+        <v>889</v>
+      </c>
+      <c r="E121">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B122">
+        <v>689</v>
+      </c>
+      <c r="C122">
+        <v>803</v>
+      </c>
+      <c r="D122">
+        <v>394</v>
+      </c>
+      <c r="E122">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B123">
+        <v>740</v>
+      </c>
+      <c r="C123">
+        <v>1007</v>
+      </c>
+      <c r="D123">
+        <v>864</v>
+      </c>
+      <c r="E123">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B124">
+        <v>1089</v>
+      </c>
+      <c r="C124">
+        <v>769</v>
+      </c>
+      <c r="D124">
+        <v>1511</v>
+      </c>
+      <c r="E124">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B125">
+        <v>517</v>
+      </c>
+      <c r="C125">
+        <v>595</v>
+      </c>
+      <c r="D125">
+        <v>558</v>
+      </c>
+      <c r="E125">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B126">
+        <v>616</v>
+      </c>
+      <c r="C126">
+        <v>982</v>
+      </c>
+      <c r="D126">
+        <v>582</v>
+      </c>
+      <c r="E126">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>42522</v>
+      </c>
+      <c r="B127">
+        <v>715</v>
+      </c>
+      <c r="C127">
+        <v>1179</v>
+      </c>
+      <c r="D127">
+        <v>666</v>
+      </c>
+      <c r="E127">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>42552</v>
+      </c>
+      <c r="B128">
+        <v>574</v>
+      </c>
+      <c r="C128">
+        <v>1033</v>
+      </c>
+      <c r="D128">
+        <v>668</v>
+      </c>
+      <c r="E128">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>42583</v>
+      </c>
+      <c r="B129">
+        <v>647</v>
+      </c>
+      <c r="C129">
+        <v>606</v>
+      </c>
+      <c r="D129">
+        <v>687</v>
+      </c>
+      <c r="E129">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>42614</v>
+      </c>
+      <c r="B130">
+        <v>830</v>
+      </c>
+      <c r="C130">
+        <v>987</v>
+      </c>
+      <c r="D130">
+        <v>739</v>
+      </c>
+      <c r="E130">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>42644</v>
+      </c>
+      <c r="B131">
+        <v>700</v>
+      </c>
+      <c r="C131">
+        <v>829</v>
+      </c>
+      <c r="D131">
+        <v>643</v>
+      </c>
+      <c r="E131">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>42675</v>
+      </c>
+      <c r="B132">
+        <v>613</v>
+      </c>
+      <c r="C132">
+        <v>929</v>
+      </c>
+      <c r="D132">
+        <v>854</v>
+      </c>
+      <c r="E132">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>42705</v>
+      </c>
+      <c r="B133">
+        <v>522</v>
+      </c>
+      <c r="C133">
+        <v>1054</v>
+      </c>
+      <c r="D133">
+        <v>733</v>
+      </c>
+      <c r="E133">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B134">
+        <v>709</v>
+      </c>
+      <c r="C134">
+        <v>929</v>
+      </c>
+      <c r="D134">
+        <v>618</v>
+      </c>
+      <c r="E134">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>42767</v>
+      </c>
+      <c r="B135">
+        <v>730</v>
+      </c>
+      <c r="C135">
+        <v>1328</v>
+      </c>
+      <c r="D135">
+        <v>905</v>
+      </c>
+      <c r="E135">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B136">
+        <v>916</v>
+      </c>
+      <c r="C136">
+        <v>1605</v>
+      </c>
+      <c r="D136">
+        <v>990</v>
+      </c>
+      <c r="E136">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>42826</v>
+      </c>
+      <c r="B137">
+        <v>556</v>
+      </c>
+      <c r="C137">
+        <v>606</v>
+      </c>
+      <c r="D137">
+        <v>359</v>
+      </c>
+      <c r="E137">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>42856</v>
+      </c>
+      <c r="B138">
+        <v>585</v>
+      </c>
+      <c r="C138">
+        <v>1163</v>
+      </c>
+      <c r="D138">
+        <v>663</v>
+      </c>
+      <c r="E138">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B139">
+        <v>469</v>
+      </c>
+      <c r="C139">
+        <v>986</v>
+      </c>
+      <c r="D139">
+        <v>638</v>
+      </c>
+      <c r="E139">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>42917</v>
+      </c>
+      <c r="B140">
+        <v>506</v>
+      </c>
+      <c r="C140">
+        <v>718</v>
+      </c>
+      <c r="D140">
+        <v>567</v>
+      </c>
+      <c r="E140">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B141">
+        <v>619</v>
+      </c>
+      <c r="C141">
+        <v>1013</v>
+      </c>
+      <c r="D141">
+        <v>604</v>
+      </c>
+      <c r="E141">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>42979</v>
+      </c>
+      <c r="B142">
+        <v>752</v>
+      </c>
+      <c r="C142">
+        <v>1102</v>
+      </c>
+      <c r="D142">
+        <v>493</v>
+      </c>
+      <c r="E142">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>43009</v>
+      </c>
+      <c r="B143">
+        <v>789</v>
+      </c>
+      <c r="C143">
+        <v>966</v>
+      </c>
+      <c r="D143">
+        <v>581</v>
+      </c>
+      <c r="E143">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B144">
+        <v>697</v>
+      </c>
+      <c r="C144">
+        <v>1000</v>
+      </c>
+      <c r="D144">
+        <v>432</v>
+      </c>
+      <c r="E144">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B145">
+        <v>608</v>
+      </c>
+      <c r="C145">
+        <v>1302</v>
+      </c>
+      <c r="D145">
+        <v>291</v>
+      </c>
+      <c r="E145">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B146">
+        <v>666</v>
+      </c>
+      <c r="C146">
+        <v>1005</v>
+      </c>
+      <c r="D146">
+        <v>214</v>
+      </c>
+      <c r="E146">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B147">
+        <v>700</v>
+      </c>
+      <c r="C147">
+        <v>1176</v>
+      </c>
+      <c r="D147">
+        <v>1978</v>
+      </c>
+      <c r="E147">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B148">
+        <v>798</v>
+      </c>
+      <c r="C148">
+        <v>1204</v>
+      </c>
+      <c r="D148">
+        <v>2465</v>
+      </c>
+      <c r="E148">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B149">
+        <v>521</v>
+      </c>
+      <c r="C149">
+        <v>747</v>
+      </c>
+      <c r="D149">
+        <v>480</v>
+      </c>
+      <c r="E149">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B150">
+        <v>507</v>
+      </c>
+      <c r="C150">
+        <v>1103</v>
+      </c>
+      <c r="D150">
+        <v>1028</v>
+      </c>
+      <c r="E150">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B151">
+        <v>696</v>
+      </c>
+      <c r="C151">
+        <v>923</v>
+      </c>
+      <c r="D151">
+        <v>1223</v>
+      </c>
+      <c r="E151">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>43282</v>
+      </c>
+      <c r="B152">
+        <v>675</v>
+      </c>
+      <c r="C152">
+        <v>1035</v>
+      </c>
+      <c r="D152">
+        <v>2186</v>
+      </c>
+      <c r="E152">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B153">
+        <v>1107</v>
+      </c>
+      <c r="C153">
+        <v>1130</v>
+      </c>
+      <c r="D153">
+        <v>1272</v>
+      </c>
+      <c r="E153">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B154">
+        <v>394</v>
+      </c>
+      <c r="C154">
+        <v>591</v>
+      </c>
+      <c r="D154">
+        <v>1449</v>
+      </c>
+      <c r="E154">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B155">
+        <v>379</v>
+      </c>
+      <c r="C155">
+        <v>775</v>
+      </c>
+      <c r="D155">
+        <v>1186</v>
+      </c>
+      <c r="E155">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B156">
+        <v>491</v>
+      </c>
+      <c r="C156">
+        <v>555</v>
+      </c>
+      <c r="D156">
+        <v>1166</v>
+      </c>
+      <c r="E156">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>43435</v>
+      </c>
+      <c r="B157">
+        <v>349</v>
+      </c>
+      <c r="C157">
+        <v>796</v>
+      </c>
+      <c r="D157">
+        <v>953</v>
+      </c>
+      <c r="E157">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>43466</v>
+      </c>
+      <c r="B158">
+        <v>523</v>
+      </c>
+      <c r="C158">
+        <v>961</v>
+      </c>
+      <c r="D158">
+        <v>812</v>
+      </c>
+      <c r="E158">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B159">
+        <v>520</v>
+      </c>
+      <c r="C159">
+        <v>1292</v>
+      </c>
+      <c r="D159">
+        <v>927</v>
+      </c>
+      <c r="E159">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B160">
+        <v>742</v>
+      </c>
+      <c r="C160">
+        <v>1383</v>
+      </c>
+      <c r="D160">
+        <v>1255</v>
+      </c>
+      <c r="E160">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B161">
+        <v>484</v>
+      </c>
+      <c r="C161">
+        <v>435</v>
+      </c>
+      <c r="D161">
+        <v>469</v>
+      </c>
+      <c r="E161">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B162">
+        <v>513</v>
+      </c>
+      <c r="C162">
+        <v>668</v>
+      </c>
+      <c r="D162">
+        <v>523</v>
+      </c>
+      <c r="E162">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B163">
+        <v>519</v>
+      </c>
+      <c r="C163">
+        <v>1032</v>
+      </c>
+      <c r="D163">
+        <v>901</v>
+      </c>
+      <c r="E163">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B164">
+        <v>457</v>
+      </c>
+      <c r="C164">
+        <v>886</v>
+      </c>
+      <c r="D164">
+        <v>725</v>
+      </c>
+      <c r="E164">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B165">
+        <v>543</v>
+      </c>
+      <c r="C165">
+        <v>637</v>
+      </c>
+      <c r="D165">
+        <v>571</v>
+      </c>
+      <c r="E165">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>43709</v>
+      </c>
+      <c r="B166">
+        <v>484</v>
+      </c>
+      <c r="C166">
+        <v>744</v>
+      </c>
+      <c r="D166">
+        <v>862</v>
+      </c>
+      <c r="E166">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B167">
+        <v>374</v>
+      </c>
+      <c r="C167">
+        <v>853</v>
+      </c>
+      <c r="D167">
+        <v>641</v>
+      </c>
+      <c r="E167">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B168">
+        <v>379</v>
+      </c>
+      <c r="C168">
+        <v>682</v>
+      </c>
+      <c r="D168">
+        <v>683</v>
+      </c>
+      <c r="E168">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B169">
+        <v>348</v>
+      </c>
+      <c r="C169">
+        <v>603</v>
+      </c>
+      <c r="D169">
+        <v>724</v>
+      </c>
+      <c r="E169">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B170">
+        <v>493</v>
+      </c>
+      <c r="C170">
+        <v>959</v>
+      </c>
+      <c r="D170">
+        <v>735</v>
+      </c>
+      <c r="E170">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B171">
+        <v>457</v>
+      </c>
+      <c r="C171">
+        <v>966</v>
+      </c>
+      <c r="D171">
+        <v>680</v>
+      </c>
+      <c r="E171">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B172">
+        <v>325</v>
+      </c>
+      <c r="C172">
+        <v>646</v>
+      </c>
+      <c r="D172">
+        <v>610</v>
+      </c>
+      <c r="E172">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173">
+        <v>134</v>
+      </c>
+      <c r="D173">
+        <v>452</v>
+      </c>
+      <c r="E173">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B174">
+        <v>151</v>
+      </c>
+      <c r="C174">
+        <v>221</v>
+      </c>
+      <c r="D174">
+        <v>473</v>
+      </c>
+      <c r="E174">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B175">
+        <v>259</v>
+      </c>
+      <c r="C175">
+        <v>831</v>
+      </c>
+      <c r="D175">
+        <v>443</v>
+      </c>
+      <c r="E175">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B176">
+        <v>418</v>
+      </c>
+      <c r="C176">
+        <v>428</v>
+      </c>
+      <c r="D176">
+        <v>362</v>
+      </c>
+      <c r="E176">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B177">
+        <v>367</v>
+      </c>
+      <c r="C177">
+        <v>420</v>
+      </c>
+      <c r="D177">
+        <v>429</v>
+      </c>
+      <c r="E177">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B178">
+        <v>396</v>
+      </c>
+      <c r="C178">
+        <v>889</v>
+      </c>
+      <c r="D178">
+        <v>658</v>
+      </c>
+      <c r="E178">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B179">
+        <v>362</v>
+      </c>
+      <c r="C179">
+        <v>548</v>
+      </c>
+      <c r="D179">
+        <v>730</v>
+      </c>
+      <c r="E179">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B180">
+        <v>291</v>
+      </c>
+      <c r="C180">
+        <v>523</v>
+      </c>
+      <c r="D180">
+        <v>717</v>
+      </c>
+      <c r="E180">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B181">
+        <v>286</v>
+      </c>
+      <c r="C181">
+        <v>511</v>
+      </c>
+      <c r="D181">
+        <v>654</v>
+      </c>
+      <c r="E181">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B182">
+        <v>424</v>
+      </c>
+      <c r="C182">
+        <v>824</v>
+      </c>
+      <c r="D182">
+        <v>507</v>
+      </c>
+      <c r="E182">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B183">
+        <v>333</v>
+      </c>
+      <c r="C183">
+        <v>423</v>
+      </c>
+      <c r="D183">
+        <v>591</v>
+      </c>
+      <c r="E183">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B184">
+        <v>552</v>
+      </c>
+      <c r="C184">
+        <v>801</v>
+      </c>
+      <c r="D184">
+        <v>715</v>
+      </c>
+      <c r="E184">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B185">
+        <v>313</v>
+      </c>
+      <c r="C185">
+        <v>426</v>
+      </c>
+      <c r="D185">
+        <v>362</v>
+      </c>
+      <c r="E185">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B186">
+        <v>322</v>
+      </c>
+      <c r="C186">
+        <v>379</v>
+      </c>
+      <c r="D186">
+        <v>441</v>
+      </c>
+      <c r="E186">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B187">
+        <v>257</v>
+      </c>
+      <c r="C187">
+        <v>398</v>
+      </c>
+      <c r="D187">
+        <v>478</v>
+      </c>
+      <c r="E187">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B188">
+        <v>238</v>
+      </c>
+      <c r="C188">
+        <v>239</v>
+      </c>
+      <c r="D188">
+        <v>348</v>
+      </c>
+      <c r="E188">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B189">
+        <v>256</v>
+      </c>
+      <c r="C189">
+        <v>232</v>
+      </c>
+      <c r="D189">
+        <v>568</v>
+      </c>
+      <c r="E189">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B190">
+        <v>259</v>
+      </c>
+      <c r="C190">
+        <v>348</v>
+      </c>
+      <c r="D190">
+        <v>474</v>
+      </c>
+      <c r="E190">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B191">
+        <v>178</v>
+      </c>
+      <c r="C191">
+        <v>434</v>
+      </c>
+      <c r="D191">
+        <v>510</v>
+      </c>
+      <c r="E191">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B192">
+        <v>379</v>
+      </c>
+      <c r="C192">
+        <v>427</v>
+      </c>
+      <c r="D192">
+        <v>823</v>
+      </c>
+      <c r="E192">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B193">
+        <v>256</v>
+      </c>
+      <c r="C193">
+        <v>213</v>
+      </c>
+      <c r="D193">
+        <v>541</v>
+      </c>
+      <c r="E193">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B194">
+        <v>230</v>
+      </c>
+      <c r="C194">
+        <v>181</v>
+      </c>
+      <c r="D194">
+        <v>226</v>
+      </c>
+      <c r="E194">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B195">
+        <v>222</v>
+      </c>
+      <c r="C195">
+        <v>243</v>
+      </c>
+      <c r="D195">
+        <v>310</v>
+      </c>
+      <c r="E195">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B196">
+        <v>392</v>
+      </c>
+      <c r="C196">
+        <v>579</v>
+      </c>
+      <c r="D196">
+        <v>339</v>
+      </c>
+      <c r="E196">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B197">
+        <v>316</v>
+      </c>
+      <c r="C197">
+        <v>288</v>
+      </c>
+      <c r="D197">
+        <v>179</v>
+      </c>
+      <c r="E197">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B198">
+        <v>224</v>
+      </c>
+      <c r="C198">
+        <v>267</v>
+      </c>
+      <c r="D198">
+        <v>205</v>
+      </c>
+      <c r="E198">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B199">
+        <v>231</v>
+      </c>
+      <c r="C199">
+        <v>283</v>
+      </c>
+      <c r="D199">
+        <v>161</v>
+      </c>
+      <c r="E199">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B200">
+        <v>118</v>
+      </c>
+      <c r="C200">
+        <v>225</v>
+      </c>
+      <c r="D200">
+        <v>133</v>
+      </c>
+      <c r="E200">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B201">
+        <v>254</v>
+      </c>
+      <c r="C201">
+        <v>343</v>
+      </c>
+      <c r="D201">
+        <v>347</v>
+      </c>
+      <c r="E201">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B202">
+        <v>228</v>
+      </c>
+      <c r="C202">
+        <v>337</v>
+      </c>
+      <c r="D202">
+        <v>295</v>
+      </c>
+      <c r="E202">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B203">
+        <v>188</v>
+      </c>
+      <c r="C203">
+        <v>322</v>
+      </c>
+      <c r="D203">
+        <v>413</v>
+      </c>
+      <c r="E203">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B204">
+        <v>204</v>
+      </c>
+      <c r="C204">
+        <v>305</v>
+      </c>
+      <c r="D204">
+        <v>563</v>
+      </c>
+      <c r="E204">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B205">
+        <v>370</v>
+      </c>
+      <c r="C205">
+        <v>357</v>
+      </c>
+      <c r="D205">
+        <v>682</v>
+      </c>
+      <c r="E205">
+        <v>810</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>